--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="499">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -881,6 +881,642 @@
   </si>
   <si>
     <t xml:space="preserve">fVegSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude plev19 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This TM5  variable name equals the cmor name. Postprocessing in ece2cmor3 has to be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommi Bergman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure on Model Half-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrLev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol extinction coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfno2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfpm25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5 mass mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol absorption optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated mass content of air in layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bldep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary Layer Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2h6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2H6 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3h6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H6  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3h8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H8  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch3coch3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH3COCH3  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheaqpso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqueous-phase production rate of SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chegpso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas-phase production rate of SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chepsoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical production of dry aerosol secondary organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drybc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drydust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of nh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of noy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of dry aerosol total organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emibc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emission rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emidms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emidust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiisop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of isoprene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emilnox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layer-integrated lightning production of NOx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eminh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eminox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emioa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary emission and chemical production of dry aerosol organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total direct emission rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hno3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNO3 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoprene volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jno2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photolysis rate of NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmraerh2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol water mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental carbon mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrdust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrnh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH4 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrno3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO3 aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total organic aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM1.0 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM10 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm2p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol sulfate mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrsoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary organic aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Salt mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nh50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial tracer with 50 day lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od440aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 440 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550aerh2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerosol water aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black carbon aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550csaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dust aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550lt1aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient fine mode aerosol optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550no3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitrate aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550oa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total organic aerosol aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfate aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550soa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soa aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea salt aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od870aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 870 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Ozone Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropospheric ozone column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetdust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of nh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition of noy incl aerosol nitrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of dry aerosol total organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxpblz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum PBL height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minpblz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum PBL height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfo3max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily maximum O3 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Column Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFsubhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevhalf site time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERmonZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude plev39 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total reactive nitrogen volume mixing ratio</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -975,6 +1611,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -994,13 +1634,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E255"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E408" activeCellId="0" sqref="E408:E414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.71"/>
@@ -4089,6 +4729,2166 @@
         <v>263</v>
       </c>
     </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F359" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F361" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F362" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F364" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F366" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F368" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F369" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F370" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F372" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F374" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F377" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E382" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F385" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F386" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F387" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F388" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F389" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F391" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F392" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F393" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F398" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F402" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E403" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F403" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F404" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F406" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F408" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F409" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F410" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E411" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F411" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F412" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F413" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="503">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1517,6 +1517,18 @@
   </si>
   <si>
     <t xml:space="preserve">Total reactive nitrogen volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emibvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of biogenic nmvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emivoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nmvoc</t>
   </si>
 </sst>
 </file>
@@ -1634,10 +1646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E408" activeCellId="0" sqref="E408:E414"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A384" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E417" activeCellId="0" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6889,6 +6901,46 @@
         <v>292</v>
       </c>
     </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F416" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="532">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1529,6 +1529,93 @@
   </si>
   <si>
     <t xml:space="preserve">total emission rate of nmvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2fos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the prescribed anthropogenic CO2 flux from fossil fuel use, including cement production, and flaring (but not from land-use changes, agricultural burning, forest regrowth, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude plev19 time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Atmospheric Mass of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total atmospheric mass of Carbon Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2massClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4globalClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oglobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Mean Mole Fraction of N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global mean Nitrous Oxide (N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oglobalClim</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1733,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F417"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A384" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E417" activeCellId="0" sqref="E417"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F419" activeCellId="0" sqref="F419:F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6941,6 +7028,296 @@
         <v>292</v>
       </c>
     </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F419" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H419" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H420" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H421" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H424" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H425" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F426" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F427" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H427" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F428" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H428" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F429" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F430" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H430" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F431" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H431" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="546">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -883,6 +883,51 @@
     <t xml:space="preserve">fVegSoil</t>
   </si>
   <si>
+    <t xml:space="preserve">Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass in Soil Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon mass in the full depth of the soil model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude sdepth time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total water content of soil layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in each soil layer, the mass of water in all phases, including ice.  Reported as 'missing' for grid cells occupied entirely by 'sea'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Carbon Mass Flux out of Atmophere due to Net Ecosystem Productivity on Land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural flux of CO2 (expressed as a mass flux of carbon) from the atmosphere to the land calculated as the difference between uptake associated will photosynthesis and the release of CO2 from the sum of plant and soil respiration and fire.  Positive flux is into the land.  emissions from natural fires and human ignition fires as calculated by the fire module of the dynamic vegetation model, but excluding any CO2 flux from fire included in fLuc (CO2 Flux to Atmosphere from Land Use Change).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Carbon Mass Flux into Atmosphere due to Land Use Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to human changes to land (excluding forest regrowth) accounting possibly for different time-scales related to fate of the wood, for example.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amon</t>
   </si>
   <si>
@@ -935,9 +980,6 @@
   </si>
   <si>
     <t xml:space="preserve">AERhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
   </si>
   <si>
     <t xml:space="preserve">sfno2</t>
@@ -1733,10 +1775,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F419" activeCellId="0" sqref="F419:F431"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A279" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A298" activeCellId="0" sqref="298:298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4828,2496 +4870,2585 @@
         <v>263</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B292" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C292" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D301" s="0" t="s">
+      <c r="D292" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E301" s="0" t="s">
+      <c r="E292" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H292" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F301" s="3" t="s">
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="C293" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H293" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B294" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C302" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E302" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="C294" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H294" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B295" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E303" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D304" s="0" t="s">
+      <c r="C295" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E304" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>292</v>
+      <c r="D295" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H295" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C306" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D306" s="0" t="s">
+      <c r="B307" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E306" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F306" s="0" t="s">
-        <v>292</v>
+      <c r="C307" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F308" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="E309" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F309" s="0" t="s">
-        <v>292</v>
+        <v>306</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="E315" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F315" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>289</v>
+        <v>428</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F382" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>298</v>
+        <v>458</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>460</v>
+        <v>314</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E399" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F399" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="D403" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="E403" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F403" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E405" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F405" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>299</v>
+        <v>440</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F407" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>494</v>
+        <v>288</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C409" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E409" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F409" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C411" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="E411" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F411" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>497</v>
+        <v>310</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>498</v>
+        <v>342</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F415" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>312</v>
+        <v>507</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>312</v>
+        <v>507</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C419" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="D419" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="E419" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F419" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H419" s="0" t="s">
-        <v>506</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>505</v>
+        <v>306</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H420" s="0" t="s">
-        <v>509</v>
+        <v>307</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>505</v>
+        <v>306</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H421" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C422" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="D422" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E422" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F422" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>513</v>
+        <v>288</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>294</v>
+        <v>518</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+      <c r="H423" s="0" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H424" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H425" s="0" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>524</v>
+        <v>309</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H427" s="0" t="s">
-        <v>524</v>
+        <v>307</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+      <c r="H429" s="0" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>529</v>
+        <v>311</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H430" s="0" t="s">
-        <v>530</v>
+        <v>307</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H431" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F432" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H432" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F433" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B434" s="0" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C434" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F434" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H434" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F435" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H435" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (r193) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (199) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -1777,8 +1777,8 @@
   </sheetPr>
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A279" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A298" activeCellId="0" sqref="298:298"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A298" activeCellId="1" sqref="E3:E255 A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -82,7 +82,7 @@
     <t>Mole Concentration of CFC-11 in sea water</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (212) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (216) ping files. </t>
   </si>
   <si>
     <t>Thomas Reerink</t>
@@ -1291,7 +1291,7 @@
     <t>phyfeos</t>
   </si>
   <si>
-    <t>Surface Mass Concentration of Diazotrophs expressed as Chlorophyll in sea water</t>
+    <t>Surface Mole Concentration of Total Phytoplankton expressed as Iron in Sea Water</t>
   </si>
   <si>
     <t>hfbasinpmadv</t>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Sea Surface Total Chlorophyll Mass Concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (238) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (239) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -5717,8 +5717,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A652" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A668" activeCellId="0" sqref="A668"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="22" sqref="G14:G16 G20:G57 G122:G127 G129:G160 G162:G191 G207:G208 G210:G223 G225:G249 G251:G253 G255:G259 G261 G266:G325 G329 G331 G351:G353 G486:G497 G499:G504 G512 G599 G601:G613 G617 G655:G657 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5731,7 +5731,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Sea Surface Total Chlorophyll Mass Concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (239) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (240) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -5718,7 +5718,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="22" sqref="G14:G16 G20:G57 G122:G127 G129:G160 G162:G191 G207:G208 G210:G223 G225:G249 G251:G253 G255:G259 G261 G266:G325 G329 G331 G351:G353 G486:G497 G499:G504 G512 G599 G601:G613 G617 G655:G657 G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13:G16 G20:G57 G122:G127 G129:G160 G162:G191 G207:G208 G210:G223 G225:G249 G251:G253 G255:G259 G261 G266:G325 G329 G331 G351:G353 G486:G497 G499:G504 G512 G599 G601:G613 G617 G655:G657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="1853">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3778,18 +3778,6 @@
     <t xml:space="preserve">AerChemMIP,DAMIP,PMIP</t>
   </si>
   <si>
-    <t xml:space="preserve">pod0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytotoxic ozone dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in TM5??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accumulated stomatal ozone flux over the threshold of 0 mol m-2 s-1; Computation: Time Integral of (hourly above canopy ozone concentration * stomatal conductance * Rc/(Rb+Rc) )</t>
-  </si>
-  <si>
     <t xml:space="preserve">ptp</t>
   </si>
   <si>
@@ -5366,21 +5354,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wet diameter mode coarse insoluble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od443dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical thickness at 443 nm Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in TM5?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od865dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical thickness at 865 nm Dust</t>
   </si>
   <si>
     <t xml:space="preserve">concdust</t>
@@ -5717,8 +5690,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19618,17 +19591,17 @@
         <v>1253</v>
       </c>
       <c r="F442" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a5b6b8-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1562cba76e80f37d1c133ccd079fa715.html","web")</f>
         <v>0</v>
       </c>
       <c r="G442" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H442" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I442" s="0" t="s">
         <v>1254</v>
-      </c>
-      <c r="H442" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I442" s="0" t="s">
-        <v>1255</v>
       </c>
       <c r="J442" s="0" t="s">
         <v>1038</v>
@@ -19639,26 +19612,26 @@
         <v>1028</v>
       </c>
       <c r="B443" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E443" s="0" t="s">
         <v>1256</v>
       </c>
-      <c r="C443" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D443" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E443" s="0" t="s">
+      <c r="F443" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G443" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="F443" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1562cba76e80f37d1c133ccd079fa715.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G443" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="H443" s="0" t="s">
-        <v>75</v>
+        <v>396</v>
       </c>
       <c r="I443" s="0" t="s">
         <v>1258</v>
@@ -19684,7 +19657,7 @@
         <v>1260</v>
       </c>
       <c r="F444" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G444" s="0" t="s">
@@ -19717,7 +19690,7 @@
         <v>1264</v>
       </c>
       <c r="F445" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G445" s="0" t="s">
@@ -19730,7 +19703,7 @@
         <v>1266</v>
       </c>
       <c r="J445" s="0" t="s">
-        <v>1038</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19750,17 +19723,17 @@
         <v>1268</v>
       </c>
       <c r="F446" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="H446" s="0" t="s">
         <v>396</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J446" s="0" t="s">
         <v>1090</v>
@@ -19771,32 +19744,32 @@
         <v>1028</v>
       </c>
       <c r="B447" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E447" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="C447" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D447" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E447" s="0" t="s">
+      <c r="F447" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8b3a5d37fefe0337625c64455cea4e80.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G447" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H447" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I447" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J447" s="0" t="s">
         <v>1272</v>
-      </c>
-      <c r="F447" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G447" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H447" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I447" s="0" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J447" s="0" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19804,19 +19777,19 @@
         <v>1028</v>
       </c>
       <c r="B448" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E448" s="0" t="s">
         <v>1274</v>
       </c>
-      <c r="C448" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D448" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="E448" s="0" t="s">
-        <v>1275</v>
-      </c>
       <c r="F448" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8b3a5d37fefe0337625c64455cea4e80.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cff597224d260da1a1c769aab1bbea9d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G448" s="0" t="s">
@@ -19826,10 +19799,10 @@
         <v>75</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>979</v>
+        <v>1254</v>
       </c>
       <c r="J448" s="0" t="s">
-        <v>1276</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19837,7 +19810,7 @@
         <v>1028</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>12</v>
@@ -19846,10 +19819,10 @@
         <v>55</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F449" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cff597224d260da1a1c769aab1bbea9d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
         <v>0</v>
       </c>
       <c r="G449" s="0" t="s">
@@ -19859,7 +19832,7 @@
         <v>75</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1258</v>
+        <v>1277</v>
       </c>
       <c r="J449" s="0" t="s">
         <v>1038</v>
@@ -19870,19 +19843,19 @@
         <v>1028</v>
       </c>
       <c r="B450" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E450" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="C450" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D450" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E450" s="0" t="s">
-        <v>1280</v>
-      </c>
       <c r="F450" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b1f3e86dde718e8c9697df0c3992c06.html","web")</f>
         <v>0</v>
       </c>
       <c r="G450" s="0" t="s">
@@ -19892,7 +19865,7 @@
         <v>75</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J450" s="0" t="s">
         <v>1038</v>
@@ -19903,32 +19876,29 @@
         <v>1028</v>
       </c>
       <c r="B451" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E451" s="0" t="s">
         <v>1282</v>
       </c>
-      <c r="C451" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D451" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E451" s="0" t="s">
+      <c r="F451" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9982868916859ae8b64cc83cbed896af.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G451" s="0" t="s">
         <v>1283</v>
-      </c>
-      <c r="F451" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b1f3e86dde718e8c9697df0c3992c06.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G451" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H451" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="I451" s="0" t="s">
         <v>1284</v>
       </c>
       <c r="J451" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19942,23 +19912,26 @@
         <v>12</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>647</v>
+        <v>55</v>
       </c>
       <c r="E452" s="0" t="s">
         <v>1286</v>
       </c>
       <c r="F452" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9982868916859ae8b64cc83cbed896af.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0b3fc46bf32dfbd9d36cdb72e827eb29.html","web")</f>
         <v>0</v>
       </c>
       <c r="G452" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H452" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I452" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="I452" s="0" t="s">
-        <v>1288</v>
-      </c>
       <c r="J452" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19966,19 +19939,19 @@
         <v>1028</v>
       </c>
       <c r="B453" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E453" s="0" t="s">
         <v>1289</v>
       </c>
-      <c r="C453" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D453" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E453" s="0" t="s">
-        <v>1290</v>
-      </c>
       <c r="F453" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0b3fc46bf32dfbd9d36cdb72e827eb29.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f914086f4c1cd76f867eef7cd71154d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G453" s="0" t="s">
@@ -19988,10 +19961,10 @@
         <v>75</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J453" s="0" t="s">
-        <v>1038</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19999,19 +19972,19 @@
         <v>1028</v>
       </c>
       <c r="B454" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E454" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="C454" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D454" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E454" s="0" t="s">
-        <v>1293</v>
-      </c>
       <c r="F454" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f914086f4c1cd76f867eef7cd71154d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa4309c2c15be0c9d7db2f9d38f348ca.html","web")</f>
         <v>0</v>
       </c>
       <c r="G454" s="0" t="s">
@@ -20021,10 +19994,10 @@
         <v>75</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J454" s="0" t="s">
-        <v>1073</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20032,19 +20005,19 @@
         <v>1028</v>
       </c>
       <c r="B455" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E455" s="0" t="s">
         <v>1295</v>
       </c>
-      <c r="C455" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D455" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E455" s="0" t="s">
-        <v>1296</v>
-      </c>
       <c r="F455" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa4309c2c15be0c9d7db2f9d38f348ca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2899d1c267c92e3fbaccd21b55472.html","web")</f>
         <v>0</v>
       </c>
       <c r="G455" s="0" t="s">
@@ -20054,7 +20027,7 @@
         <v>75</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J455" s="0" t="s">
         <v>1038</v>
@@ -20065,19 +20038,19 @@
         <v>1028</v>
       </c>
       <c r="B456" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E456" s="0" t="s">
         <v>1298</v>
       </c>
-      <c r="C456" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D456" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E456" s="0" t="s">
-        <v>1299</v>
-      </c>
       <c r="F456" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2899d1c267c92e3fbaccd21b55472.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ecfae3e2adc49321ec4c9d664fd425ec.html","web")</f>
         <v>0</v>
       </c>
       <c r="G456" s="0" t="s">
@@ -20087,7 +20060,7 @@
         <v>75</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J456" s="0" t="s">
         <v>1038</v>
@@ -20098,19 +20071,19 @@
         <v>1028</v>
       </c>
       <c r="B457" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E457" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="C457" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D457" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E457" s="0" t="s">
-        <v>1302</v>
-      </c>
       <c r="F457" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ecfae3e2adc49321ec4c9d664fd425ec.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/646edc2e8f1c393b5569dba5d598f8c8.html","web")</f>
         <v>0</v>
       </c>
       <c r="G457" s="0" t="s">
@@ -20120,7 +20093,7 @@
         <v>75</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J457" s="0" t="s">
         <v>1038</v>
@@ -20131,19 +20104,19 @@
         <v>1028</v>
       </c>
       <c r="B458" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E458" s="0" t="s">
         <v>1304</v>
       </c>
-      <c r="C458" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D458" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E458" s="0" t="s">
-        <v>1305</v>
-      </c>
       <c r="F458" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/646edc2e8f1c393b5569dba5d598f8c8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c670517b02de6212f3091aaa455f60ed.html","web")</f>
         <v>0</v>
       </c>
       <c r="G458" s="0" t="s">
@@ -20153,10 +20126,10 @@
         <v>75</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="J458" s="0" t="s">
-        <v>1038</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20164,7 +20137,7 @@
         <v>1028</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>12</v>
@@ -20173,10 +20146,10 @@
         <v>55</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F459" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c670517b02de6212f3091aaa455f60ed.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a3383a3abeddbcb0d27368a8cf9b9503.html","web")</f>
         <v>0</v>
       </c>
       <c r="G459" s="0" t="s">
@@ -20186,7 +20159,7 @@
         <v>75</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1297</v>
+        <v>1307</v>
       </c>
       <c r="J459" s="0" t="s">
         <v>1090</v>
@@ -20197,19 +20170,19 @@
         <v>1028</v>
       </c>
       <c r="B460" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E460" s="0" t="s">
         <v>1309</v>
       </c>
-      <c r="C460" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D460" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E460" s="0" t="s">
-        <v>1310</v>
-      </c>
       <c r="F460" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a3383a3abeddbcb0d27368a8cf9b9503.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c97520628498eea6e19cc1be19c73677.html","web")</f>
         <v>0</v>
       </c>
       <c r="G460" s="0" t="s">
@@ -20219,7 +20192,7 @@
         <v>75</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J460" s="0" t="s">
         <v>1090</v>
@@ -20230,19 +20203,19 @@
         <v>1028</v>
       </c>
       <c r="B461" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E461" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="C461" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D461" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E461" s="0" t="s">
-        <v>1313</v>
-      </c>
       <c r="F461" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c97520628498eea6e19cc1be19c73677.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/228d3ad84f6db126c53ac4ae0a18a014.html","web")</f>
         <v>0</v>
       </c>
       <c r="G461" s="0" t="s">
@@ -20252,169 +20225,169 @@
         <v>75</v>
       </c>
       <c r="I461" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J461" s="0" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F463" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G463" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H463" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J463" s="0" t="s">
         <v>1314</v>
-      </c>
-      <c r="J461" s="0" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C462" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D462" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E462" s="0" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F462" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/228d3ad84f6db126c53ac4ae0a18a014.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G462" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H462" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I462" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J462" s="0" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>292</v>
+        <v>1315</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>225</v>
+        <v>653</v>
       </c>
       <c r="F464" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H464" s="0" t="s">
         <v>213</v>
       </c>
+      <c r="I464" s="0" t="s">
+        <v>231</v>
+      </c>
       <c r="J464" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C465" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>653</v>
+        <v>234</v>
       </c>
       <c r="F465" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G465" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H465" s="0" t="s">
         <v>213</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J465" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D466" s="0" t="s">
         <v>1317</v>
       </c>
-      <c r="B466" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D466" s="0" t="s">
-        <v>1320</v>
-      </c>
       <c r="E466" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F466" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H466" s="0" t="s">
         <v>213</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J466" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>237</v>
+        <v>1267</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>1321</v>
+        <v>292</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>239</v>
+        <v>1268</v>
       </c>
       <c r="F467" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G467" s="0" t="s">
-        <v>240</v>
+        <v>1265</v>
       </c>
       <c r="H467" s="0" t="s">
-        <v>213</v>
+        <v>396</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>241</v>
+        <v>1269</v>
       </c>
       <c r="J467" s="0" t="s">
         <v>1318</v>
@@ -20422,10 +20395,10 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1271</v>
+        <v>1319</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>12</v>
@@ -20434,31 +20407,31 @@
         <v>292</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>1272</v>
+        <v>1320</v>
       </c>
       <c r="F468" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590daf66-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G468" s="0" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="H468" s="0" t="s">
         <v>396</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>1273</v>
+        <v>1321</v>
       </c>
       <c r="J468" s="0" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>12</v>
@@ -20467,14 +20440,14 @@
         <v>292</v>
       </c>
       <c r="E469" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F469" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G469" s="0" t="s">
         <v>1324</v>
-      </c>
-      <c r="F469" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590daf66-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G469" s="0" t="s">
-        <v>1265</v>
       </c>
       <c r="H469" s="0" t="s">
         <v>396</v>
@@ -20483,12 +20456,12 @@
         <v>1325</v>
       </c>
       <c r="J469" s="0" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>1326</v>
@@ -20503,73 +20476,73 @@
         <v>1327</v>
       </c>
       <c r="F470" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G470" s="0" t="s">
         <v>1328</v>
       </c>
       <c r="H470" s="0" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="I470" s="0" t="s">
         <v>1329</v>
       </c>
       <c r="J470" s="0" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B471" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D471" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C471" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D471" s="0" t="s">
-        <v>292</v>
-      </c>
       <c r="E471" s="0" t="s">
-        <v>1331</v>
+        <v>1048</v>
       </c>
       <c r="F471" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G471" s="0" t="s">
-        <v>1332</v>
+        <v>74</v>
       </c>
       <c r="H471" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I471" s="0" t="s">
-        <v>1333</v>
+        <v>979</v>
       </c>
       <c r="J471" s="0" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C472" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="F472" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9bb9a503065dfbd30c9bbe5c3c6abf99.html","web")</f>
         <v>0</v>
       </c>
       <c r="G472" s="0" t="s">
@@ -20582,27 +20555,27 @@
         <v>979</v>
       </c>
       <c r="J472" s="0" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>1064</v>
+        <v>1199</v>
       </c>
       <c r="F473" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9bb9a503065dfbd30c9bbe5c3c6abf99.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G473" s="0" t="s">
@@ -20615,159 +20588,159 @@
         <v>979</v>
       </c>
       <c r="J473" s="0" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D474" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E474" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F474" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G474" s="0" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F475" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e3c7e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G475" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H474" s="0" t="s">
+      <c r="H475" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="I474" s="0" t="s">
-        <v>979</v>
-      </c>
-      <c r="J474" s="0" t="s">
-        <v>1322</v>
+      <c r="I475" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J475" s="0" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1017</v>
+        <v>384</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>292</v>
+        <v>1330</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>1018</v>
+        <v>386</v>
       </c>
       <c r="F476" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e3c7e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>0</v>
       </c>
       <c r="G476" s="0" t="s">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="H476" s="0" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="I476" s="0" t="s">
-        <v>1019</v>
+        <v>386</v>
       </c>
       <c r="J476" s="0" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F477" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="G477" s="0" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H477" s="0" t="s">
         <v>388</v>
       </c>
       <c r="I477" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="J477" s="0" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F479" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f70b088300f35ad3b19c67d2490612dd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G479" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H479" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I479" s="0" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C478" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D478" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E478" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="F478" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G478" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="H478" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="I478" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="J478" s="0" t="s">
-        <v>1336</v>
+      <c r="J479" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B480" s="0" t="s">
         <v>1337</v>
       </c>
-      <c r="B480" s="0" t="s">
+      <c r="C480" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E480" s="0" t="s">
         <v>1338</v>
       </c>
-      <c r="C480" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E480" s="0" t="s">
-        <v>1339</v>
-      </c>
       <c r="F480" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f70b088300f35ad3b19c67d2490612dd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a503e8c8011c952b0b832e6074ad387d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G480" s="0" t="s">
@@ -20777,7 +20750,7 @@
         <v>75</v>
       </c>
       <c r="I480" s="0" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J480" s="0" t="s">
         <v>77</v>
@@ -20785,22 +20758,22 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>1341</v>
+        <v>1210</v>
       </c>
       <c r="C481" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>55</v>
+        <v>1030</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>1342</v>
+        <v>1211</v>
       </c>
       <c r="F481" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a503e8c8011c952b0b832e6074ad387d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8f2fb9e812c26ee6cb8d9673e09d2644.html","web")</f>
         <v>0</v>
       </c>
       <c r="G481" s="0" t="s">
@@ -20810,7 +20783,7 @@
         <v>75</v>
       </c>
       <c r="I481" s="0" t="s">
-        <v>1343</v>
+        <v>1212</v>
       </c>
       <c r="J481" s="0" t="s">
         <v>77</v>
@@ -20818,22 +20791,22 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1210</v>
+        <v>1340</v>
       </c>
       <c r="C482" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>1030</v>
+        <v>55</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>1211</v>
+        <v>1341</v>
       </c>
       <c r="F482" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8f2fb9e812c26ee6cb8d9673e09d2644.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0656a67a-b896-11e6-a189-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G482" s="0" t="s">
@@ -20843,7 +20816,7 @@
         <v>75</v>
       </c>
       <c r="I482" s="0" t="s">
-        <v>1212</v>
+        <v>979</v>
       </c>
       <c r="J482" s="0" t="s">
         <v>77</v>
@@ -20851,10 +20824,10 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>1344</v>
+        <v>1275</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>12</v>
@@ -20863,10 +20836,10 @@
         <v>55</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F483" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0656a67a-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
         <v>0</v>
       </c>
       <c r="G483" s="0" t="s">
@@ -20876,63 +20849,63 @@
         <v>75</v>
       </c>
       <c r="I483" s="0" t="s">
-        <v>979</v>
+        <v>1277</v>
       </c>
       <c r="J483" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C484" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D484" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E484" s="0" t="s">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F485" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/120719dde7f96f9bc088acd33b97967f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G485" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H485" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I485" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J485" s="0" t="s">
         <v>1346</v>
-      </c>
-      <c r="F484" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G484" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H484" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I484" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J484" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C486" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F486" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/120719dde7f96f9bc088acd33b97967f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52b1076476b074a18a91b9da1baa6bc3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G486" s="0" t="s">
@@ -20942,30 +20915,30 @@
         <v>58</v>
       </c>
       <c r="I486" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J486" s="0" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>129</v>
+        <v>1348</v>
       </c>
       <c r="C487" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F487" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52b1076476b074a18a91b9da1baa6bc3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70094996b08eba1d39c13d30dc44b30f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G487" s="0" t="s">
@@ -20974,31 +20947,28 @@
       <c r="H487" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I487" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="J487" s="0" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1352</v>
+        <v>132</v>
       </c>
       <c r="C488" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F488" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70094996b08eba1d39c13d30dc44b30f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dfd869cd3463de6a57b2a9e10605efe7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G488" s="0" t="s">
@@ -21007,28 +20977,31 @@
       <c r="H488" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="I488" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="J488" s="0" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>132</v>
+        <v>1352</v>
       </c>
       <c r="C489" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F489" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dfd869cd3463de6a57b2a9e10605efe7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5f19c4be9ae133db06403c986c8136d6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G489" s="0" t="s">
@@ -21037,31 +21010,28 @@
       <c r="H489" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I489" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J489" s="0" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C490" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F490" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5f19c4be9ae133db06403c986c8136d6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9e50f2bc84a18f56a9c317be11770663.html","web")</f>
         <v>0</v>
       </c>
       <c r="G490" s="0" t="s">
@@ -21076,22 +21046,22 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F491" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9e50f2bc84a18f56a9c317be11770663.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/abb3f8b62cc0e93f4ef5487c41ef10cb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G491" s="0" t="s">
@@ -21101,27 +21071,27 @@
         <v>58</v>
       </c>
       <c r="J491" s="0" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C492" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D492" s="0" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F492" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/abb3f8b62cc0e93f4ef5487c41ef10cb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1cf6c7fa0adedf95b3eaad5fb3f96b1c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G492" s="0" t="s">
@@ -21130,28 +21100,31 @@
       <c r="H492" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="I492" s="0" t="s">
+        <v>1361</v>
+      </c>
       <c r="J492" s="0" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C493" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E493" s="0" t="s">
         <v>1364</v>
       </c>
       <c r="F493" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1cf6c7fa0adedf95b3eaad5fb3f96b1c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b02d071fff99f2632aa8ac5e83e92215.html","web")</f>
         <v>0</v>
       </c>
       <c r="G493" s="0" t="s">
@@ -21164,27 +21137,27 @@
         <v>1365</v>
       </c>
       <c r="J493" s="0" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C494" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D494" s="0" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F494" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b02d071fff99f2632aa8ac5e83e92215.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/478c43820503be64675fb49227d2f999.html","web")</f>
         <v>0</v>
       </c>
       <c r="G494" s="0" t="s">
@@ -21193,31 +21166,28 @@
       <c r="H494" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I494" s="0" t="s">
-        <v>1369</v>
-      </c>
       <c r="J494" s="0" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C495" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F495" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/478c43820503be64675fb49227d2f999.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb27046ce21470dfbbecdd4f7eca546a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G495" s="0" t="s">
@@ -21226,28 +21196,31 @@
       <c r="H495" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="I495" s="0" t="s">
+        <v>1370</v>
+      </c>
       <c r="J495" s="0" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C496" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D496" s="0" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F496" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb27046ce21470dfbbecdd4f7eca546a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f56a3a44b60650b58309b1d8cf58b913.html","web")</f>
         <v>0</v>
       </c>
       <c r="G496" s="0" t="s">
@@ -21257,63 +21230,63 @@
         <v>58</v>
       </c>
       <c r="I496" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J496" s="0" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
         <v>1374</v>
       </c>
-      <c r="J496" s="0" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B497" s="0" t="s">
+      <c r="B498" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="C497" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D497" s="0" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E497" s="0" t="s">
+      <c r="C498" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E498" s="0" t="s">
         <v>1376</v>
       </c>
-      <c r="F497" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f56a3a44b60650b58309b1d8cf58b913.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G497" s="0" t="s">
+      <c r="F498" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f1b8ddb539cb96eb65453dce4c8bb978.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G498" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H497" s="0" t="s">
+      <c r="H498" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I497" s="0" t="s">
+      <c r="I498" s="0" t="s">
         <v>1377</v>
       </c>
-      <c r="J497" s="0" t="s">
-        <v>1366</v>
+      <c r="J498" s="0" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B499" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="0" t="s">
         <v>1379</v>
-      </c>
-      <c r="C499" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>961</v>
       </c>
       <c r="E499" s="0" t="s">
         <v>1380</v>
       </c>
       <c r="F499" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f1b8ddb539cb96eb65453dce4c8bb978.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9122e7b627c429163fd0857dc366e14e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G499" s="0" t="s">
@@ -21323,30 +21296,30 @@
         <v>58</v>
       </c>
       <c r="I499" s="0" t="s">
-        <v>1381</v>
+        <v>683</v>
       </c>
       <c r="J499" s="0" t="s">
-        <v>1382</v>
+        <v>432</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>681</v>
+        <v>1381</v>
       </c>
       <c r="C500" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>1383</v>
+        <v>961</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F500" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9122e7b627c429163fd0857dc366e14e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62c5b9728a01c0031e3a788ac4c8eff5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G500" s="0" t="s">
@@ -21356,30 +21329,30 @@
         <v>58</v>
       </c>
       <c r="I500" s="0" t="s">
-        <v>683</v>
+        <v>1383</v>
       </c>
       <c r="J500" s="0" t="s">
-        <v>432</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B501" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501" s="0" t="s">
         <v>1385</v>
-      </c>
-      <c r="C501" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D501" s="0" t="s">
-        <v>961</v>
       </c>
       <c r="E501" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="F501" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62c5b9728a01c0031e3a788ac4c8eff5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/20e7d22ad09b324af00f41f6060701a7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G501" s="0" t="s">
@@ -21392,12 +21365,12 @@
         <v>1387</v>
       </c>
       <c r="J501" s="0" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>1388</v>
@@ -21406,13 +21379,13 @@
         <v>12</v>
       </c>
       <c r="D502" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E502" s="0" t="s">
         <v>1389</v>
       </c>
-      <c r="E502" s="0" t="s">
-        <v>1390</v>
-      </c>
       <c r="F502" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/20e7d22ad09b324af00f41f6060701a7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d3ef4c73895a317948f1f3870f65834.html","web")</f>
         <v>0</v>
       </c>
       <c r="G502" s="0" t="s">
@@ -21422,18 +21395,18 @@
         <v>58</v>
       </c>
       <c r="I502" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J502" s="0" t="s">
         <v>1391</v>
-      </c>
-      <c r="J502" s="0" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>1392</v>
+        <v>780</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>12</v>
@@ -21442,10 +21415,10 @@
         <v>961</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>1393</v>
+        <v>781</v>
       </c>
       <c r="F503" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d3ef4c73895a317948f1f3870f65834.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1418ccb847c5c235176620baf22d7b33.html","web")</f>
         <v>0</v>
       </c>
       <c r="G503" s="0" t="s">
@@ -21455,96 +21428,96 @@
         <v>58</v>
       </c>
       <c r="I503" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="J503" s="0" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D505" s="0" t="s">
         <v>1394</v>
       </c>
-      <c r="J503" s="0" t="s">
+      <c r="E505" s="0" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C504" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D504" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="E504" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="F504" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1418ccb847c5c235176620baf22d7b33.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G504" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H504" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I504" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="J504" s="0" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
+      <c r="F505" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G505" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H505" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I505" s="0" t="s">
         <v>1396</v>
       </c>
-      <c r="B506" s="0" t="s">
+      <c r="J505" s="0" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
         <v>1397</v>
       </c>
-      <c r="C506" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D506" s="0" t="s">
+      <c r="B507" s="0" t="s">
         <v>1398</v>
       </c>
-      <c r="E506" s="0" t="s">
+      <c r="C507" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E507" s="0" t="s">
         <v>1399</v>
       </c>
-      <c r="F506" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G506" s="0" t="s">
+      <c r="F507" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G507" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="H506" s="0" t="s">
+      <c r="H507" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I506" s="0" t="s">
+      <c r="I507" s="0" t="s">
         <v>1400</v>
       </c>
-      <c r="J506" s="0" t="s">
-        <v>1336</v>
+      <c r="J507" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B508" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D508" s="0" t="s">
         <v>1402</v>
-      </c>
-      <c r="C508" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D508" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E508" s="0" t="s">
         <v>1403</v>
       </c>
       <c r="F508" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G508" s="0" t="s">
@@ -21554,48 +21527,48 @@
         <v>251</v>
       </c>
       <c r="I508" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J508" s="0" t="s">
         <v>1404</v>
-      </c>
-      <c r="J508" s="0" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="C509" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D509" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E509" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="E509" s="0" t="s">
+      <c r="F509" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G509" s="0" t="s">
         <v>1407</v>
-      </c>
-      <c r="F509" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G509" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="H509" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I509" s="0" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="J509" s="0" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>1409</v>
@@ -21604,94 +21577,94 @@
         <v>12</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>1406</v>
+        <v>55</v>
       </c>
       <c r="E510" s="0" t="s">
         <v>1410</v>
       </c>
       <c r="F510" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G510" s="0" t="s">
         <v>1411</v>
       </c>
       <c r="H510" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I510" s="0" t="s">
-        <v>1412</v>
+        <v>396</v>
       </c>
       <c r="J510" s="0" t="s">
-        <v>1405</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B511" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E511" s="0" t="s">
         <v>1413</v>
       </c>
-      <c r="C511" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D511" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E511" s="0" t="s">
-        <v>1414</v>
-      </c>
       <c r="F511" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G511" s="0" t="s">
-        <v>1415</v>
+        <v>57</v>
       </c>
       <c r="H511" s="0" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="J511" s="0" t="s">
-        <v>1318</v>
+        <v>253</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B512" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F512" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ea93e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G512" s="0" t="s">
         <v>1416</v>
       </c>
-      <c r="C512" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D512" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E512" s="0" t="s">
+      <c r="H512" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I512" s="0" t="s">
         <v>1417</v>
       </c>
-      <c r="F512" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G512" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H512" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="J512" s="0" t="s">
-        <v>253</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>12</v>
@@ -21700,28 +21673,28 @@
         <v>55</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F513" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ea93e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G513" s="0" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H513" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I513" s="0" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="J513" s="0" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>1423</v>
@@ -21736,7 +21709,7 @@
         <v>1424</v>
       </c>
       <c r="F514" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G514" s="0" t="s">
@@ -21749,15 +21722,15 @@
         <v>1426</v>
       </c>
       <c r="J514" s="0" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>12</v>
@@ -21766,28 +21739,28 @@
         <v>55</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F515" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G515" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H515" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I515" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="J515" s="0" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>1432</v>
@@ -21802,7 +21775,7 @@
         <v>1433</v>
       </c>
       <c r="F516" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93e06dd7c756aade75235d7841c05269.html","web")</f>
         <v>0</v>
       </c>
       <c r="G516" s="0" t="s">
@@ -21815,12 +21788,12 @@
         <v>1435</v>
       </c>
       <c r="J516" s="0" t="s">
-        <v>1431</v>
+        <v>969</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>1436</v>
@@ -21835,61 +21808,61 @@
         <v>1437</v>
       </c>
       <c r="F517" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93e06dd7c756aade75235d7841c05269.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G517" s="0" t="s">
         <v>1438</v>
       </c>
       <c r="H517" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I517" s="0" t="s">
         <v>1439</v>
       </c>
       <c r="J517" s="0" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B518" s="0" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
         <v>1440</v>
       </c>
-      <c r="C518" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D518" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E518" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F518" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G518" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H518" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I518" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J518" s="0" t="s">
-        <v>1016</v>
+      <c r="B519" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F519" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G519" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H519" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I519" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J519" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>992</v>
+        <v>1131</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>12</v>
@@ -21898,10 +21871,10 @@
         <v>970</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>1048</v>
+        <v>1132</v>
       </c>
       <c r="F520" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G520" s="0" t="s">
@@ -21911,7 +21884,7 @@
         <v>75</v>
       </c>
       <c r="I520" s="0" t="s">
-        <v>979</v>
+        <v>1133</v>
       </c>
       <c r="J520" s="0" t="s">
         <v>77</v>
@@ -21919,10 +21892,10 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>12</v>
@@ -21931,10 +21904,10 @@
         <v>970</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F521" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
         <v>0</v>
       </c>
       <c r="G521" s="0" t="s">
@@ -21944,7 +21917,7 @@
         <v>75</v>
       </c>
       <c r="I521" s="0" t="s">
-        <v>1133</v>
+        <v>979</v>
       </c>
       <c r="J521" s="0" t="s">
         <v>77</v>
@@ -21952,10 +21925,10 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1134</v>
+        <v>1441</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>12</v>
@@ -21964,10 +21937,10 @@
         <v>970</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>1135</v>
+        <v>1442</v>
       </c>
       <c r="F522" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G522" s="0" t="s">
@@ -21977,7 +21950,7 @@
         <v>75</v>
       </c>
       <c r="I522" s="0" t="s">
-        <v>979</v>
+        <v>1443</v>
       </c>
       <c r="J522" s="0" t="s">
         <v>77</v>
@@ -21985,10 +21958,10 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B523" s="0" t="s">
         <v>1444</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1445</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>12</v>
@@ -21997,10 +21970,10 @@
         <v>970</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F523" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G523" s="0" t="s">
@@ -22010,7 +21983,7 @@
         <v>75</v>
       </c>
       <c r="I523" s="0" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J523" s="0" t="s">
         <v>77</v>
@@ -22018,10 +21991,10 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1448</v>
+        <v>976</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>12</v>
@@ -22030,10 +22003,10 @@
         <v>970</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>1449</v>
+        <v>1199</v>
       </c>
       <c r="F524" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G524" s="0" t="s">
@@ -22043,7 +22016,7 @@
         <v>75</v>
       </c>
       <c r="I524" s="0" t="s">
-        <v>1450</v>
+        <v>979</v>
       </c>
       <c r="J524" s="0" t="s">
         <v>77</v>
@@ -22051,10 +22024,10 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>976</v>
+        <v>1247</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>12</v>
@@ -22063,10 +22036,10 @@
         <v>970</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>1199</v>
+        <v>1248</v>
       </c>
       <c r="F525" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G525" s="0" t="s">
@@ -22082,90 +22055,90 @@
         <v>77</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C526" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D526" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="E526" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F526" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G526" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H526" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I526" s="0" t="s">
-        <v>979</v>
-      </c>
-      <c r="J526" s="0" t="s">
-        <v>77</v>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F527" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G527" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H527" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I527" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J527" s="0" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1058</v>
+        <v>242</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>292</v>
+        <v>1449</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>1452</v>
+        <v>244</v>
       </c>
       <c r="F528" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G528" s="0" t="s">
-        <v>1060</v>
+        <v>74</v>
       </c>
       <c r="H528" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I528" s="0" t="s">
-        <v>1061</v>
+        <v>245</v>
       </c>
       <c r="J528" s="0" t="s">
-        <v>1318</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>242</v>
+        <v>1131</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1453</v>
+        <v>1330</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>244</v>
+        <v>1132</v>
       </c>
       <c r="F529" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G529" s="0" t="s">
@@ -22175,70 +22148,70 @@
         <v>75</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>245</v>
+        <v>1133</v>
       </c>
       <c r="J529" s="0" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="0" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
         <v>1451</v>
       </c>
-      <c r="B530" s="0" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C530" s="0" t="s">
+      <c r="B531" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C531" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D530" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E530" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F530" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G530" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H530" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I530" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="J530" s="0" t="s">
-        <v>1318</v>
+      <c r="D531" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F531" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G531" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H531" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I531" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J531" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E532" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F532" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G532" s="0" t="s">
         <v>1455</v>
       </c>
-      <c r="B532" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E532" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F532" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G532" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="H532" s="0" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="I532" s="0" t="s">
         <v>204</v>
@@ -22247,57 +22220,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="0" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B533" s="0" t="s">
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F534" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c08493dc9183b6ec7005a6be27f67f1.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G534" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H534" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I534" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J534" s="0" t="s">
         <v>1457</v>
-      </c>
-      <c r="C533" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D533" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E533" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F533" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G533" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H533" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I533" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J533" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>291</v>
+        <v>1393</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>55</v>
+        <v>1402</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>293</v>
+        <v>1403</v>
       </c>
       <c r="F535" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c08493dc9183b6ec7005a6be27f67f1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G535" s="0" t="s">
@@ -22307,30 +22280,30 @@
         <v>251</v>
       </c>
       <c r="I535" s="0" t="s">
-        <v>294</v>
+        <v>1396</v>
       </c>
       <c r="J535" s="0" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E536" s="0" t="s">
         <v>1460</v>
       </c>
-      <c r="B536" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C536" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D536" s="0" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E536" s="0" t="s">
-        <v>1407</v>
-      </c>
       <c r="F536" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G536" s="0" t="s">
@@ -22340,7 +22313,7 @@
         <v>251</v>
       </c>
       <c r="I536" s="0" t="s">
-        <v>1400</v>
+        <v>1461</v>
       </c>
       <c r="J536" s="0" t="s">
         <v>1462</v>
@@ -22348,7 +22321,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>1463</v>
@@ -22363,7 +22336,7 @@
         <v>1464</v>
       </c>
       <c r="F537" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G537" s="0" t="s">
@@ -22376,27 +22349,27 @@
         <v>1465</v>
       </c>
       <c r="J537" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B538" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E538" s="0" t="s">
         <v>1467</v>
       </c>
-      <c r="C538" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D538" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E538" s="0" t="s">
-        <v>1468</v>
-      </c>
       <c r="F538" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G538" s="0" t="s">
@@ -22405,19 +22378,16 @@
       <c r="H538" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I538" s="0" t="s">
-        <v>1469</v>
-      </c>
       <c r="J538" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>12</v>
@@ -22426,10 +22396,10 @@
         <v>55</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F539" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G539" s="0" t="s">
@@ -22438,28 +22408,31 @@
       <c r="H539" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I539" s="0" t="s">
+        <v>1470</v>
+      </c>
       <c r="J539" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B540" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E540" s="0" t="s">
         <v>1472</v>
       </c>
-      <c r="C540" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D540" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E540" s="0" t="s">
-        <v>1473</v>
-      </c>
       <c r="F540" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G540" s="0" t="s">
@@ -22469,30 +22442,30 @@
         <v>251</v>
       </c>
       <c r="I540" s="0" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="J540" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B541" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E541" s="0" t="s">
         <v>1475</v>
       </c>
-      <c r="C541" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D541" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E541" s="0" t="s">
-        <v>1476</v>
-      </c>
       <c r="F541" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G541" s="0" t="s">
@@ -22502,30 +22475,30 @@
         <v>251</v>
       </c>
       <c r="I541" s="0" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="J541" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B542" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E542" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C542" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D542" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E542" s="0" t="s">
-        <v>1479</v>
-      </c>
       <c r="F542" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G542" s="0" t="s">
@@ -22535,15 +22508,15 @@
         <v>251</v>
       </c>
       <c r="I542" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J542" s="0" t="s">
         <v>1480</v>
-      </c>
-      <c r="J542" s="0" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>1481</v>
@@ -22558,7 +22531,7 @@
         <v>1482</v>
       </c>
       <c r="F543" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G543" s="0" t="s">
@@ -22568,18 +22541,18 @@
         <v>251</v>
       </c>
       <c r="I543" s="0" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="J543" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>12</v>
@@ -22588,10 +22561,10 @@
         <v>55</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F544" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G544" s="0" t="s">
@@ -22601,18 +22574,18 @@
         <v>251</v>
       </c>
       <c r="I544" s="0" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="J544" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>12</v>
@@ -22621,10 +22594,10 @@
         <v>55</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F545" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G545" s="0" t="s">
@@ -22634,30 +22607,30 @@
         <v>251</v>
       </c>
       <c r="I545" s="0" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J545" s="0" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B546" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E546" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="C546" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D546" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E546" s="0" t="s">
-        <v>1490</v>
-      </c>
       <c r="F546" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G546" s="0" t="s">
@@ -22667,30 +22640,30 @@
         <v>251</v>
       </c>
       <c r="I546" s="0" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J546" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B547" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D547" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E547" s="0" t="s">
         <v>1492</v>
       </c>
-      <c r="C547" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D547" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E547" s="0" t="s">
-        <v>1493</v>
-      </c>
       <c r="F547" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G547" s="0" t="s">
@@ -22700,30 +22673,30 @@
         <v>251</v>
       </c>
       <c r="I547" s="0" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="J547" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B548" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D548" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E548" s="0" t="s">
         <v>1495</v>
       </c>
-      <c r="C548" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D548" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E548" s="0" t="s">
-        <v>1496</v>
-      </c>
       <c r="F548" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G548" s="0" t="s">
@@ -22732,19 +22705,16 @@
       <c r="H548" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I548" s="0" t="s">
-        <v>1497</v>
-      </c>
       <c r="J548" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>12</v>
@@ -22753,10 +22723,10 @@
         <v>55</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F549" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G549" s="0" t="s">
@@ -22766,15 +22736,15 @@
         <v>251</v>
       </c>
       <c r="J549" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>12</v>
@@ -22783,10 +22753,10 @@
         <v>55</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F550" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G550" s="0" t="s">
@@ -22796,15 +22766,15 @@
         <v>251</v>
       </c>
       <c r="J550" s="0" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C551" s="0" t="s">
         <v>12</v>
@@ -22813,10 +22783,10 @@
         <v>55</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F551" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G551" s="0" t="s">
@@ -22826,15 +22796,15 @@
         <v>251</v>
       </c>
       <c r="J551" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C552" s="0" t="s">
         <v>12</v>
@@ -22843,10 +22813,10 @@
         <v>55</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F552" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G552" s="0" t="s">
@@ -22856,15 +22826,15 @@
         <v>251</v>
       </c>
       <c r="J552" s="0" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>12</v>
@@ -22873,10 +22843,10 @@
         <v>55</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F553" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G553" s="0" t="s">
@@ -22885,28 +22855,31 @@
       <c r="H553" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I553" s="0" t="s">
+        <v>1506</v>
+      </c>
       <c r="J553" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B554" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D554" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E554" s="0" t="s">
         <v>1508</v>
       </c>
-      <c r="C554" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D554" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E554" s="0" t="s">
-        <v>1509</v>
-      </c>
       <c r="F554" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G554" s="0" t="s">
@@ -22915,19 +22888,16 @@
       <c r="H554" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I554" s="0" t="s">
-        <v>1510</v>
-      </c>
       <c r="J554" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>12</v>
@@ -22936,10 +22906,10 @@
         <v>55</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F555" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G555" s="0" t="s">
@@ -22948,16 +22918,19 @@
       <c r="H555" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I555" s="0" t="s">
+        <v>1473</v>
+      </c>
       <c r="J555" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>12</v>
@@ -22966,10 +22939,10 @@
         <v>55</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F556" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G556" s="0" t="s">
@@ -22979,30 +22952,30 @@
         <v>251</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1477</v>
+        <v>1513</v>
       </c>
       <c r="J556" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B557" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D557" s="0" t="s">
         <v>1515</v>
-      </c>
-      <c r="C557" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D557" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E557" s="0" t="s">
         <v>1516</v>
       </c>
       <c r="F557" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G557" s="0" t="s">
@@ -23015,12 +22988,12 @@
         <v>1517</v>
       </c>
       <c r="J557" s="0" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>1518</v>
@@ -23035,7 +23008,7 @@
         <v>1520</v>
       </c>
       <c r="F558" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G558" s="0" t="s">
@@ -23048,12 +23021,12 @@
         <v>1521</v>
       </c>
       <c r="J558" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B559" s="0" t="s">
         <v>1522</v>
@@ -23068,7 +23041,7 @@
         <v>1524</v>
       </c>
       <c r="F559" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G559" s="0" t="s">
@@ -23081,12 +23054,12 @@
         <v>1525</v>
       </c>
       <c r="J559" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>1526</v>
@@ -23101,7 +23074,7 @@
         <v>1528</v>
       </c>
       <c r="F560" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G560" s="0" t="s">
@@ -23114,12 +23087,12 @@
         <v>1529</v>
       </c>
       <c r="J560" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>1530</v>
@@ -23134,7 +23107,7 @@
         <v>1532</v>
       </c>
       <c r="F561" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G561" s="0" t="s">
@@ -23147,18 +23120,18 @@
         <v>1533</v>
       </c>
       <c r="J561" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>1534</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D562" s="0" t="s">
         <v>1535</v>
@@ -23167,7 +23140,7 @@
         <v>1536</v>
       </c>
       <c r="F562" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G562" s="0" t="s">
@@ -23180,12 +23153,12 @@
         <v>1537</v>
       </c>
       <c r="J562" s="0" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>1538</v>
@@ -23200,7 +23173,7 @@
         <v>1540</v>
       </c>
       <c r="F563" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G563" s="0" t="s">
@@ -23213,12 +23186,12 @@
         <v>1541</v>
       </c>
       <c r="J563" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>1542</v>
@@ -23227,13 +23200,13 @@
         <v>80</v>
       </c>
       <c r="D564" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E564" s="0" t="s">
         <v>1543</v>
       </c>
-      <c r="E564" s="0" t="s">
-        <v>1544</v>
-      </c>
       <c r="F564" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G564" s="0" t="s">
@@ -23243,18 +23216,18 @@
         <v>251</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J564" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>80</v>
@@ -23263,10 +23236,10 @@
         <v>55</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F565" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G565" s="0" t="s">
@@ -23276,18 +23249,18 @@
         <v>251</v>
       </c>
       <c r="I565" s="0" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J565" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>80</v>
@@ -23296,10 +23269,10 @@
         <v>55</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F566" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G566" s="0" t="s">
@@ -23308,19 +23281,16 @@
       <c r="H566" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I566" s="0" t="s">
-        <v>1551</v>
-      </c>
       <c r="J566" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>80</v>
@@ -23329,10 +23299,10 @@
         <v>55</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F567" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G567" s="0" t="s">
@@ -23341,16 +23311,19 @@
       <c r="H567" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I567" s="0" t="s">
+        <v>1552</v>
+      </c>
       <c r="J567" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>80</v>
@@ -23359,10 +23332,10 @@
         <v>55</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F568" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G568" s="0" t="s">
@@ -23372,18 +23345,18 @@
         <v>251</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J568" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>80</v>
@@ -23392,10 +23365,10 @@
         <v>55</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F569" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G569" s="0" t="s">
@@ -23405,18 +23378,18 @@
         <v>251</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J569" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>80</v>
@@ -23425,10 +23398,10 @@
         <v>55</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F570" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G570" s="0" t="s">
@@ -23438,18 +23411,18 @@
         <v>251</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="J570" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>80</v>
@@ -23458,10 +23431,10 @@
         <v>55</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F571" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G571" s="0" t="s">
@@ -23471,18 +23444,18 @@
         <v>251</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="J571" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>80</v>
@@ -23491,10 +23464,10 @@
         <v>55</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F572" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G572" s="0" t="s">
@@ -23504,18 +23477,18 @@
         <v>251</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="J572" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>80</v>
@@ -23524,10 +23497,10 @@
         <v>55</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F573" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G573" s="0" t="s">
@@ -23537,18 +23510,18 @@
         <v>251</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="J573" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>80</v>
@@ -23557,10 +23530,10 @@
         <v>55</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F574" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G574" s="0" t="s">
@@ -23570,18 +23543,18 @@
         <v>251</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="J574" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>80</v>
@@ -23590,10 +23563,10 @@
         <v>55</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F575" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G575" s="0" t="s">
@@ -23603,18 +23576,18 @@
         <v>251</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="J575" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>80</v>
@@ -23623,10 +23596,10 @@
         <v>55</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F576" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G576" s="0" t="s">
@@ -23636,18 +23609,18 @@
         <v>251</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>80</v>
@@ -23656,10 +23629,10 @@
         <v>55</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F577" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G577" s="0" t="s">
@@ -23669,18 +23642,18 @@
         <v>251</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="J577" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>80</v>
@@ -23689,10 +23662,10 @@
         <v>55</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F578" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G578" s="0" t="s">
@@ -23702,18 +23675,18 @@
         <v>251</v>
       </c>
       <c r="I578" s="0" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>80</v>
@@ -23722,10 +23695,10 @@
         <v>55</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F579" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G579" s="0" t="s">
@@ -23735,18 +23708,18 @@
         <v>251</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>80</v>
@@ -23755,10 +23728,10 @@
         <v>55</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F580" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G580" s="0" t="s">
@@ -23768,18 +23741,18 @@
         <v>251</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="J580" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>80</v>
@@ -23788,10 +23761,10 @@
         <v>55</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F581" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G581" s="0" t="s">
@@ -23801,18 +23774,18 @@
         <v>251</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J581" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>80</v>
@@ -23821,10 +23794,10 @@
         <v>55</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F582" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G582" s="0" t="s">
@@ -23834,18 +23807,18 @@
         <v>251</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>80</v>
@@ -23854,10 +23827,10 @@
         <v>55</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="F583" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G583" s="0" t="s">
@@ -23867,18 +23840,18 @@
         <v>251</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J583" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>80</v>
@@ -23887,10 +23860,10 @@
         <v>55</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F584" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G584" s="0" t="s">
@@ -23900,18 +23873,18 @@
         <v>251</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="J584" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>80</v>
@@ -23920,10 +23893,10 @@
         <v>55</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F585" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G585" s="0" t="s">
@@ -23933,18 +23906,18 @@
         <v>251</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1604</v>
+        <v>1473</v>
       </c>
       <c r="J585" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>80</v>
@@ -23953,10 +23926,10 @@
         <v>55</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F586" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G586" s="0" t="s">
@@ -23965,19 +23938,16 @@
       <c r="H586" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I586" s="0" t="s">
-        <v>1477</v>
-      </c>
       <c r="J586" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>80</v>
@@ -23986,10 +23956,10 @@
         <v>55</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="F587" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G587" s="0" t="s">
@@ -23998,16 +23968,19 @@
       <c r="H587" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I587" s="0" t="s">
+        <v>1544</v>
+      </c>
       <c r="J587" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C588" s="0" t="s">
         <v>80</v>
@@ -24016,10 +23989,10 @@
         <v>55</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F588" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G588" s="0" t="s">
@@ -24029,18 +24002,18 @@
         <v>251</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>1548</v>
+        <v>1609</v>
       </c>
       <c r="J588" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>80</v>
@@ -24049,10 +24022,10 @@
         <v>55</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="F589" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G589" s="0" t="s">
@@ -24062,18 +24035,18 @@
         <v>251</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>1613</v>
+        <v>1547</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>80</v>
@@ -24082,10 +24055,10 @@
         <v>55</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F590" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G590" s="0" t="s">
@@ -24094,19 +24067,16 @@
       <c r="H590" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I590" s="0" t="s">
-        <v>1551</v>
-      </c>
       <c r="J590" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>80</v>
@@ -24115,10 +24085,10 @@
         <v>55</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F591" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G591" s="0" t="s">
@@ -24128,15 +24098,15 @@
         <v>251</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C592" s="0" t="s">
         <v>80</v>
@@ -24145,10 +24115,10 @@
         <v>55</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F592" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G592" s="0" t="s">
@@ -24158,15 +24128,15 @@
         <v>251</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C593" s="0" t="s">
         <v>80</v>
@@ -24175,10 +24145,10 @@
         <v>55</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F593" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G593" s="0" t="s">
@@ -24187,16 +24157,19 @@
       <c r="H593" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I593" s="0" t="s">
+        <v>1620</v>
+      </c>
       <c r="J593" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C594" s="0" t="s">
         <v>80</v>
@@ -24205,10 +24178,10 @@
         <v>55</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F594" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G594" s="0" t="s">
@@ -24218,30 +24191,30 @@
         <v>251</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J594" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B595" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D595" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E595" s="0" t="s">
         <v>1625</v>
       </c>
-      <c r="C595" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D595" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E595" s="0" t="s">
-        <v>1626</v>
-      </c>
       <c r="F595" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G595" s="0" t="s">
@@ -24250,31 +24223,28 @@
       <c r="H595" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I595" s="0" t="s">
-        <v>1627</v>
-      </c>
       <c r="J595" s="0" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D596" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F596" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G596" s="0" t="s">
@@ -24284,15 +24254,15 @@
         <v>251</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>80</v>
@@ -24301,10 +24271,10 @@
         <v>55</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F597" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G597" s="0" t="s">
@@ -24314,15 +24284,15 @@
         <v>251</v>
       </c>
       <c r="J597" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1632</v>
+        <v>88</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>80</v>
@@ -24331,91 +24301,94 @@
         <v>55</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>1633</v>
+        <v>89</v>
       </c>
       <c r="F598" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
         <v>0</v>
       </c>
       <c r="G598" s="0" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>251</v>
+        <v>58</v>
+      </c>
+      <c r="I598" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>1466</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>88</v>
+        <v>1631</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D599" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>89</v>
+        <v>1632</v>
       </c>
       <c r="F599" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>57</v>
+        <v>1633</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="I599" s="0" t="s">
-        <v>90</v>
+        <v>1634</v>
       </c>
       <c r="J599" s="0" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C600" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>55</v>
+        <v>1637</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="F600" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>1637</v>
+        <v>57</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>1639</v>
+        <v>253</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>1640</v>
@@ -24430,7 +24403,7 @@
         <v>1642</v>
       </c>
       <c r="F601" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G601" s="0" t="s">
@@ -24448,7 +24421,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>1644</v>
@@ -24463,7 +24436,7 @@
         <v>1646</v>
       </c>
       <c r="F602" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G602" s="0" t="s">
@@ -24481,22 +24454,22 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1648</v>
+        <v>95</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1649</v>
+        <v>81</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1650</v>
+        <v>96</v>
       </c>
       <c r="F603" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
         <v>0</v>
       </c>
       <c r="G603" s="0" t="s">
@@ -24506,18 +24479,18 @@
         <v>58</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>1651</v>
+        <v>97</v>
       </c>
       <c r="J603" s="0" t="s">
-        <v>253</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>80</v>
@@ -24526,10 +24499,10 @@
         <v>81</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F604" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G604" s="0" t="s">
@@ -24539,18 +24512,18 @@
         <v>58</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C605" s="0" t="s">
         <v>80</v>
@@ -24559,10 +24532,10 @@
         <v>81</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F605" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
         <v>0</v>
       </c>
       <c r="G605" s="0" t="s">
@@ -24572,18 +24545,18 @@
         <v>58</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J605" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C606" s="0" t="s">
         <v>80</v>
@@ -24592,10 +24565,10 @@
         <v>81</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F606" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G606" s="0" t="s">
@@ -24605,18 +24578,18 @@
         <v>58</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J606" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>80</v>
@@ -24625,10 +24598,10 @@
         <v>81</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F607" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G607" s="0" t="s">
@@ -24638,18 +24611,18 @@
         <v>58</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J607" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>80</v>
@@ -24658,10 +24631,10 @@
         <v>81</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F608" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G608" s="0" t="s">
@@ -24671,18 +24644,18 @@
         <v>58</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J608" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>80</v>
@@ -24691,10 +24664,10 @@
         <v>81</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F609" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G609" s="0" t="s">
@@ -24704,18 +24677,18 @@
         <v>58</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>80</v>
@@ -24724,10 +24697,10 @@
         <v>81</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F610" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G610" s="0" t="s">
@@ -24737,18 +24710,18 @@
         <v>58</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>80</v>
@@ -24757,10 +24730,10 @@
         <v>81</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F611" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G611" s="0" t="s">
@@ -24770,18 +24743,18 @@
         <v>58</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>80</v>
@@ -24790,10 +24763,10 @@
         <v>81</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F612" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G612" s="0" t="s">
@@ -24803,81 +24776,81 @@
         <v>58</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J612" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F613" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
         <v>0</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>71</v>
+        <v>1650</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>73</v>
+        <v>1651</v>
       </c>
       <c r="F614" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G614" s="0" t="s">
-        <v>74</v>
+        <v>1652</v>
       </c>
       <c r="H614" s="0" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>76</v>
+        <v>1653</v>
       </c>
       <c r="J614" s="0" t="s">
-        <v>1653</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>1654</v>
@@ -24892,7 +24865,7 @@
         <v>1655</v>
       </c>
       <c r="F615" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G615" s="0" t="s">
@@ -24905,12 +24878,12 @@
         <v>1657</v>
       </c>
       <c r="J615" s="0" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>1658</v>
@@ -24925,58 +24898,58 @@
         <v>1659</v>
       </c>
       <c r="F616" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G616" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H616" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I616" s="0" t="s">
         <v>1660</v>
       </c>
-      <c r="H616" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I616" s="0" t="s">
-        <v>1661</v>
-      </c>
       <c r="J616" s="0" t="s">
-        <v>1336</v>
+        <v>18</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B617" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E617" s="0" t="s">
         <v>1662</v>
       </c>
-      <c r="C617" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D617" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E617" s="0" t="s">
+      <c r="F617" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G617" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H617" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I617" s="0" t="s">
         <v>1663</v>
       </c>
-      <c r="F617" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G617" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H617" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I617" s="0" t="s">
+      <c r="J617" s="0" t="s">
         <v>1664</v>
-      </c>
-      <c r="J617" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>1665</v>
@@ -24991,11 +24964,11 @@
         <v>1666</v>
       </c>
       <c r="F618" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G618" s="0" t="s">
-        <v>1637</v>
+        <v>250</v>
       </c>
       <c r="H618" s="0" t="s">
         <v>251</v>
@@ -25004,27 +24977,27 @@
         <v>1667</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B619" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C619" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D619" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E619" s="0" t="s">
         <v>1669</v>
       </c>
-      <c r="C619" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D619" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E619" s="0" t="s">
-        <v>1670</v>
-      </c>
       <c r="F619" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G619" s="0" t="s">
@@ -25034,30 +25007,30 @@
         <v>251</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B620" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E620" s="0" t="s">
         <v>1672</v>
       </c>
-      <c r="C620" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D620" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E620" s="0" t="s">
-        <v>1673</v>
-      </c>
       <c r="F620" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G620" s="0" t="s">
@@ -25067,18 +25040,18 @@
         <v>251</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>1668</v>
+        <v>283</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>12</v>
@@ -25087,10 +25060,10 @@
         <v>304</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F621" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G621" s="0" t="s">
@@ -25100,7 +25073,7 @@
         <v>251</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>283</v>
@@ -25108,10 +25081,10 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>12</v>
@@ -25120,10 +25093,10 @@
         <v>304</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F622" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G622" s="0" t="s">
@@ -25133,7 +25106,7 @@
         <v>251</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>283</v>
@@ -25141,10 +25114,10 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>12</v>
@@ -25153,10 +25126,10 @@
         <v>304</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F623" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G623" s="0" t="s">
@@ -25166,7 +25139,7 @@
         <v>251</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>283</v>
@@ -25174,10 +25147,10 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>12</v>
@@ -25186,10 +25159,10 @@
         <v>304</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F624" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G624" s="0" t="s">
@@ -25199,7 +25172,7 @@
         <v>251</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>283</v>
@@ -25207,10 +25180,10 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>12</v>
@@ -25219,10 +25192,10 @@
         <v>304</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F625" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G625" s="0" t="s">
@@ -25232,7 +25205,7 @@
         <v>251</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>283</v>
@@ -25240,22 +25213,22 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B626" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D626" s="0" t="s">
         <v>1690</v>
-      </c>
-      <c r="C626" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D626" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="E626" s="0" t="s">
         <v>1691</v>
       </c>
       <c r="F626" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G626" s="0" t="s">
@@ -25273,7 +25246,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>1693</v>
@@ -25282,13 +25255,13 @@
         <v>12</v>
       </c>
       <c r="D627" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E627" s="0" t="s">
         <v>1694</v>
       </c>
-      <c r="E627" s="0" t="s">
-        <v>1695</v>
-      </c>
       <c r="F627" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G627" s="0" t="s">
@@ -25298,7 +25271,7 @@
         <v>251</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>283</v>
@@ -25306,22 +25279,22 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B628" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C628" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" s="0" t="s">
         <v>1697</v>
-      </c>
-      <c r="C628" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D628" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="E628" s="0" t="s">
         <v>1698</v>
       </c>
       <c r="F628" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G628" s="0" t="s">
@@ -25339,7 +25312,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>1700</v>
@@ -25348,13 +25321,13 @@
         <v>12</v>
       </c>
       <c r="D629" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E629" s="0" t="s">
         <v>1701</v>
       </c>
-      <c r="E629" s="0" t="s">
-        <v>1702</v>
-      </c>
       <c r="F629" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G629" s="0" t="s">
@@ -25364,7 +25337,7 @@
         <v>251</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>283</v>
@@ -25372,10 +25345,10 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>12</v>
@@ -25384,10 +25357,10 @@
         <v>304</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F630" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G630" s="0" t="s">
@@ -25397,7 +25370,7 @@
         <v>251</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>283</v>
@@ -25405,10 +25378,10 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C631" s="0" t="s">
         <v>12</v>
@@ -25417,10 +25390,10 @@
         <v>304</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F631" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G631" s="0" t="s">
@@ -25429,19 +25402,16 @@
       <c r="H631" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I631" s="0" t="s">
-        <v>1709</v>
-      </c>
       <c r="J631" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>12</v>
@@ -25450,10 +25420,10 @@
         <v>304</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F632" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G632" s="0" t="s">
@@ -25462,16 +25432,19 @@
       <c r="H632" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I632" s="0" t="s">
+        <v>1710</v>
+      </c>
       <c r="J632" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>12</v>
@@ -25480,10 +25453,10 @@
         <v>304</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F633" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G633" s="0" t="s">
@@ -25493,7 +25466,7 @@
         <v>251</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>283</v>
@@ -25501,10 +25474,10 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>12</v>
@@ -25513,10 +25486,10 @@
         <v>304</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F634" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G634" s="0" t="s">
@@ -25526,7 +25499,7 @@
         <v>251</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>283</v>
@@ -25534,10 +25507,10 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C635" s="0" t="s">
         <v>12</v>
@@ -25546,10 +25519,10 @@
         <v>304</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F635" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G635" s="0" t="s">
@@ -25559,7 +25532,7 @@
         <v>251</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>283</v>
@@ -25567,10 +25540,10 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>1721</v>
+        <v>309</v>
       </c>
       <c r="C636" s="0" t="s">
         <v>12</v>
@@ -25579,10 +25552,10 @@
         <v>304</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>1722</v>
+        <v>310</v>
       </c>
       <c r="F636" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G636" s="0" t="s">
@@ -25592,7 +25565,7 @@
         <v>251</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1723</v>
+        <v>311</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>283</v>
@@ -25600,43 +25573,43 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>309</v>
+        <v>1428</v>
       </c>
       <c r="C637" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>310</v>
+        <v>1429</v>
       </c>
       <c r="F637" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G637" s="0" t="s">
-        <v>250</v>
+        <v>1430</v>
       </c>
       <c r="H637" s="0" t="s">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>311</v>
+        <v>1431</v>
       </c>
       <c r="J637" s="0" t="s">
-        <v>283</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>12</v>
@@ -25645,31 +25618,31 @@
         <v>55</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="F638" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G638" s="0" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="H638" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="J638" s="0" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>1427</v>
+        <v>1721</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>12</v>
@@ -25678,28 +25651,28 @@
         <v>55</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>1428</v>
+        <v>1722</v>
       </c>
       <c r="F639" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G639" s="0" t="s">
-        <v>1429</v>
+        <v>1723</v>
       </c>
       <c r="H639" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1430</v>
+        <v>1724</v>
       </c>
       <c r="J639" s="0" t="s">
-        <v>1724</v>
+        <v>969</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>1725</v>
@@ -25714,7 +25687,7 @@
         <v>1726</v>
       </c>
       <c r="F640" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G640" s="0" t="s">
@@ -25724,7 +25697,7 @@
         <v>50</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>969</v>
@@ -25732,32 +25705,32 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B641" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E641" s="0" t="s">
         <v>1729</v>
       </c>
-      <c r="C641" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D641" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E641" s="0" t="s">
+      <c r="F641" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G641" s="0" t="s">
         <v>1730</v>
-      </c>
-      <c r="F641" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G641" s="0" t="s">
-        <v>1731</v>
       </c>
       <c r="H641" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>969</v>
@@ -25765,7 +25738,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>1732</v>
@@ -25780,7 +25753,7 @@
         <v>1733</v>
       </c>
       <c r="F642" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G642" s="0" t="s">
@@ -25790,7 +25763,7 @@
         <v>50</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>969</v>
@@ -25798,32 +25771,32 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B643" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E643" s="0" t="s">
         <v>1736</v>
       </c>
-      <c r="C643" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D643" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E643" s="0" t="s">
+      <c r="F643" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G643" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H643" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I643" s="0" t="s">
         <v>1737</v>
-      </c>
-      <c r="F643" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G643" s="0" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H643" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I643" s="0" t="s">
-        <v>1728</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>969</v>
@@ -25831,88 +25804,88 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>1739</v>
+        <v>1405</v>
       </c>
       <c r="C644" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>55</v>
+        <v>1402</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>1740</v>
+        <v>1406</v>
       </c>
       <c r="F644" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G644" s="0" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="H644" s="0" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1741</v>
+        <v>1408</v>
       </c>
       <c r="J644" s="0" t="s">
-        <v>969</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>1409</v>
+        <v>267</v>
       </c>
       <c r="C645" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>1406</v>
+        <v>268</v>
       </c>
       <c r="E645" s="0" t="s">
-        <v>1410</v>
+        <v>269</v>
       </c>
       <c r="F645" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G645" s="0" t="s">
-        <v>1411</v>
+        <v>250</v>
       </c>
       <c r="H645" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1412</v>
+        <v>270</v>
       </c>
       <c r="J645" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>267</v>
+        <v>1738</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>268</v>
+        <v>1739</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>269</v>
+        <v>1740</v>
       </c>
       <c r="F646" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G646" s="0" t="s">
@@ -25922,15 +25895,15 @@
         <v>251</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>270</v>
+        <v>1741</v>
       </c>
       <c r="J646" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>1742</v>
@@ -25945,7 +25918,7 @@
         <v>1744</v>
       </c>
       <c r="F647" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G647" s="0" t="s">
@@ -25958,12 +25931,12 @@
         <v>1745</v>
       </c>
       <c r="J647" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>1746</v>
@@ -25978,7 +25951,7 @@
         <v>1748</v>
       </c>
       <c r="F648" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G648" s="0" t="s">
@@ -25991,12 +25964,12 @@
         <v>1749</v>
       </c>
       <c r="J648" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>1750</v>
@@ -26005,13 +25978,13 @@
         <v>12</v>
       </c>
       <c r="D649" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E649" s="0" t="s">
         <v>1751</v>
       </c>
-      <c r="E649" s="0" t="s">
-        <v>1752</v>
-      </c>
       <c r="F649" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G649" s="0" t="s">
@@ -26021,30 +25994,30 @@
         <v>251</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>1753</v>
+        <v>1479</v>
       </c>
       <c r="J649" s="0" t="s">
-        <v>1484</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F650" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G650" s="0" t="s">
@@ -26054,30 +26027,30 @@
         <v>251</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>1483</v>
+        <v>1754</v>
       </c>
       <c r="J650" s="0" t="s">
-        <v>1639</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B651" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C651" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E651" s="0" t="s">
         <v>1756</v>
       </c>
-      <c r="C651" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D651" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E651" s="0" t="s">
-        <v>1757</v>
-      </c>
       <c r="F651" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G651" s="0" t="s">
@@ -26087,18 +26060,18 @@
         <v>251</v>
       </c>
       <c r="I651" s="0" t="s">
-        <v>1758</v>
+        <v>1479</v>
       </c>
       <c r="J651" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C652" s="0" t="s">
         <v>12</v>
@@ -26107,10 +26080,10 @@
         <v>55</v>
       </c>
       <c r="E652" s="0" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F652" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G652" s="0" t="s">
@@ -26120,18 +26093,18 @@
         <v>251</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="J652" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C653" s="0" t="s">
         <v>12</v>
@@ -26140,10 +26113,10 @@
         <v>55</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F653" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G653" s="0" t="s">
@@ -26152,61 +26125,61 @@
       <c r="H653" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I653" s="0" t="s">
-        <v>1483</v>
-      </c>
       <c r="J653" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>55</v>
+        <v>1637</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F654" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G654" s="0" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="H654" s="0" t="s">
-        <v>251</v>
+        <v>58</v>
+      </c>
+      <c r="I654" s="0" t="s">
+        <v>1724</v>
       </c>
       <c r="J654" s="0" t="s">
-        <v>1484</v>
+        <v>969</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>1765</v>
+        <v>1412</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>1641</v>
+        <v>55</v>
       </c>
       <c r="E655" s="0" t="s">
-        <v>1766</v>
+        <v>1413</v>
       </c>
       <c r="F655" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G655" s="0" t="s">
@@ -26215,19 +26188,16 @@
       <c r="H655" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I655" s="0" t="s">
-        <v>1728</v>
-      </c>
       <c r="J655" s="0" t="s">
-        <v>969</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>1416</v>
+        <v>1763</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>12</v>
@@ -26236,10 +26206,10 @@
         <v>55</v>
       </c>
       <c r="E656" s="0" t="s">
-        <v>1417</v>
+        <v>1764</v>
       </c>
       <c r="F656" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G656" s="0" t="s">
@@ -26248,82 +26218,85 @@
       <c r="H656" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="I656" s="0" t="s">
+        <v>1765</v>
+      </c>
       <c r="J656" s="0" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B657" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C657" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E657" s="0" t="s">
         <v>1767</v>
       </c>
-      <c r="C657" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D657" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E657" s="0" t="s">
+      <c r="F657" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G657" s="0" t="s">
         <v>1768</v>
       </c>
-      <c r="F657" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G657" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="H657" s="0" t="s">
-        <v>58</v>
+        <v>396</v>
       </c>
       <c r="I657" s="0" t="s">
         <v>1769</v>
       </c>
       <c r="J657" s="0" t="s">
-        <v>1724</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>1770</v>
+        <v>1167</v>
       </c>
       <c r="C658" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>1030</v>
+        <v>55</v>
       </c>
       <c r="E658" s="0" t="s">
-        <v>1771</v>
+        <v>1168</v>
       </c>
       <c r="F658" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G658" s="0" t="s">
-        <v>1772</v>
+        <v>74</v>
       </c>
       <c r="H658" s="0" t="s">
-        <v>396</v>
+        <v>75</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>1773</v>
+        <v>1169</v>
       </c>
       <c r="J658" s="0" t="s">
-        <v>1774</v>
+        <v>969</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>1167</v>
+        <v>1771</v>
       </c>
       <c r="C659" s="0" t="s">
         <v>12</v>
@@ -26332,20 +26305,20 @@
         <v>55</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>1168</v>
+        <v>1772</v>
       </c>
       <c r="F659" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G659" s="0" t="s">
-        <v>74</v>
+        <v>1411</v>
       </c>
       <c r="H659" s="0" t="s">
-        <v>75</v>
+        <v>396</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1169</v>
+        <v>1773</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>969</v>
@@ -26353,32 +26326,32 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B660" s="0" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E660" s="0" t="s">
         <v>1775</v>
       </c>
-      <c r="C660" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D660" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E660" s="0" t="s">
-        <v>1776</v>
-      </c>
       <c r="F660" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G660" s="0" t="s">
-        <v>1415</v>
+        <v>1143</v>
       </c>
       <c r="H660" s="0" t="s">
         <v>396</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>969</v>
@@ -26386,32 +26359,32 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C661" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>55</v>
+        <v>647</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F661" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G661" s="0" t="s">
-        <v>1143</v>
+        <v>1411</v>
       </c>
       <c r="H661" s="0" t="s">
         <v>396</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>969</v>
@@ -26419,76 +26392,70 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>1780</v>
+        <v>1409</v>
       </c>
       <c r="C662" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>647</v>
+        <v>55</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>1781</v>
+        <v>1410</v>
       </c>
       <c r="F662" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G662" s="0" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="H662" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="I662" s="0" t="s">
-        <v>1777</v>
-      </c>
       <c r="J662" s="0" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="C663" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>55</v>
+        <v>647</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="F663" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G663" s="0" t="s">
-        <v>1784</v>
+        <v>1411</v>
       </c>
       <c r="H663" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="I663" s="0" t="s">
-        <v>1777</v>
-      </c>
       <c r="J663" s="0" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>1785</v>
+        <v>1436</v>
       </c>
       <c r="C664" s="0" t="s">
         <v>12</v>
@@ -26497,91 +26464,64 @@
         <v>55</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1786</v>
+        <v>1437</v>
       </c>
       <c r="F664" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>1784</v>
+        <v>1438</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>1777</v>
+        <v>1439</v>
       </c>
       <c r="J664" s="0" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="0" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B665" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C665" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D665" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E665" s="0" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F665" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G665" s="0" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H665" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="J665" s="0" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>1460</v>
+        <v>1780</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>647</v>
+        <v>55</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="F666" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
         <v>0</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>1415</v>
+        <v>250</v>
       </c>
       <c r="H666" s="0" t="s">
-        <v>396</v>
+        <v>251</v>
+      </c>
+      <c r="I666" s="0" t="s">
+        <v>1783</v>
       </c>
       <c r="J666" s="0" t="s">
-        <v>969</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1460</v>
+        <v>1780</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1440</v>
+        <v>1785</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>12</v>
@@ -26590,43 +26530,76 @@
         <v>55</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1441</v>
+        <v>1786</v>
       </c>
       <c r="F667" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
         <v>0</v>
       </c>
       <c r="G667" s="0" t="s">
-        <v>1442</v>
+        <v>250</v>
       </c>
       <c r="H667" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>1443</v>
+        <v>1787</v>
       </c>
       <c r="J667" s="0" t="s">
-        <v>1016</v>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D668" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E668" s="0" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F668" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G668" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H668" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I668" s="0" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J668" s="0" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>1790</v>
+        <v>247</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1791</v>
+        <v>249</v>
       </c>
       <c r="F669" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G669" s="0" t="s">
@@ -26636,30 +26609,30 @@
         <v>251</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>1792</v>
+        <v>252</v>
       </c>
       <c r="J669" s="0" t="s">
-        <v>1793</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>1794</v>
+        <v>254</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1795</v>
+        <v>256</v>
       </c>
       <c r="F670" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
         <v>0</v>
       </c>
       <c r="G670" s="0" t="s">
@@ -26669,63 +26642,63 @@
         <v>251</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>1796</v>
+        <v>257</v>
       </c>
       <c r="J670" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>1797</v>
+        <v>258</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1798</v>
+        <v>260</v>
       </c>
       <c r="F671" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H671" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1799</v>
+        <v>262</v>
       </c>
       <c r="J671" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F672" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G672" s="0" t="s">
@@ -26735,30 +26708,30 @@
         <v>251</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J672" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>254</v>
+        <v>1791</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>255</v>
+        <v>1792</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>256</v>
+        <v>1793</v>
       </c>
       <c r="F673" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G673" s="0" t="s">
@@ -26768,63 +26741,63 @@
         <v>251</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>257</v>
+        <v>1794</v>
       </c>
       <c r="J673" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F674" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H674" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J674" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F675" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
         <v>0</v>
       </c>
       <c r="G675" s="0" t="s">
@@ -26834,30 +26807,30 @@
         <v>251</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J675" s="0" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>1800</v>
+        <v>295</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>1801</v>
+        <v>55</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1802</v>
+        <v>296</v>
       </c>
       <c r="F676" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
         <v>0</v>
       </c>
       <c r="G676" s="0" t="s">
@@ -26867,30 +26840,30 @@
         <v>251</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>1803</v>
+        <v>297</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>1462</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F677" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G677" s="0" t="s">
@@ -26899,31 +26872,28 @@
       <c r="H677" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I677" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="J677" s="0" t="s">
-        <v>1462</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F678" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
         <v>0</v>
       </c>
       <c r="G678" s="0" t="s">
@@ -26933,18 +26903,18 @@
         <v>251</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="J678" s="0" t="s">
-        <v>1462</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>295</v>
+        <v>1398</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>12</v>
@@ -26953,10 +26923,10 @@
         <v>55</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>296</v>
+        <v>1399</v>
       </c>
       <c r="F679" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
         <v>0</v>
       </c>
       <c r="G679" s="0" t="s">
@@ -26966,18 +26936,18 @@
         <v>251</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>297</v>
+        <v>1400</v>
       </c>
       <c r="J679" s="0" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>298</v>
+        <v>1797</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>12</v>
@@ -26986,10 +26956,10 @@
         <v>55</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>299</v>
+        <v>1798</v>
       </c>
       <c r="F680" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G680" s="0" t="s">
@@ -26999,15 +26969,15 @@
         <v>251</v>
       </c>
       <c r="J680" s="0" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>300</v>
+        <v>1799</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>12</v>
@@ -27016,31 +26986,31 @@
         <v>55</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>301</v>
+        <v>1800</v>
       </c>
       <c r="F681" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G681" s="0" t="s">
-        <v>250</v>
+        <v>1801</v>
       </c>
       <c r="H681" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>302</v>
+        <v>1802</v>
       </c>
       <c r="J681" s="0" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>1402</v>
+        <v>1804</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>12</v>
@@ -27049,10 +27019,10 @@
         <v>55</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1403</v>
+        <v>1805</v>
       </c>
       <c r="F682" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G682" s="0" t="s">
@@ -27062,18 +27032,18 @@
         <v>251</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1404</v>
+        <v>1806</v>
       </c>
       <c r="J682" s="0" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>12</v>
@@ -27082,28 +27052,31 @@
         <v>55</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="F683" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G683" s="0" t="s">
-        <v>250</v>
+        <v>1810</v>
       </c>
       <c r="H683" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I683" s="0" t="s">
+        <v>1811</v>
+      </c>
       <c r="J683" s="0" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>12</v>
@@ -27112,31 +27085,31 @@
         <v>55</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="F684" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
         <v>0</v>
       </c>
       <c r="G684" s="0" t="s">
-        <v>1810</v>
+        <v>250</v>
       </c>
       <c r="H684" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="J684" s="0" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C685" s="0" t="s">
         <v>12</v>
@@ -27145,10 +27118,10 @@
         <v>55</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="F685" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G685" s="0" t="s">
@@ -27157,19 +27130,16 @@
       <c r="H685" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I685" s="0" t="s">
-        <v>1815</v>
-      </c>
       <c r="J685" s="0" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>12</v>
@@ -27178,43 +27148,43 @@
         <v>55</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="F686" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G686" s="0" t="s">
-        <v>1819</v>
+        <v>250</v>
       </c>
       <c r="H686" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J686" s="0" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F687" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G687" s="0" t="s">
@@ -27224,30 +27194,30 @@
         <v>251</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J687" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F688" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G688" s="0" t="s">
@@ -27256,49 +27226,52 @@
       <c r="H688" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I688" s="0" t="s">
+        <v>1828</v>
+      </c>
       <c r="J688" s="0" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>1829</v>
+        <v>1549</v>
       </c>
       <c r="F689" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>250</v>
+        <v>1830</v>
       </c>
       <c r="H689" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="J689" s="0" t="s">
-        <v>1827</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>80</v>
@@ -27307,10 +27280,10 @@
         <v>55</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>1832</v>
+        <v>1551</v>
       </c>
       <c r="F690" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G690" s="0" t="s">
@@ -27319,19 +27292,16 @@
       <c r="H690" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I690" s="0" t="s">
-        <v>1833</v>
-      </c>
       <c r="J690" s="0" t="s">
-        <v>1834</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C691" s="0" t="s">
         <v>80</v>
@@ -27340,10 +27310,10 @@
         <v>55</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>1836</v>
+        <v>1554</v>
       </c>
       <c r="F691" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G691" s="0" t="s">
@@ -27352,19 +27322,16 @@
       <c r="H691" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I691" s="0" t="s">
-        <v>1837</v>
-      </c>
       <c r="J691" s="0" t="s">
-        <v>1834</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="C692" s="0" t="s">
         <v>80</v>
@@ -27373,31 +27340,31 @@
         <v>55</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>1553</v>
+        <v>1835</v>
       </c>
       <c r="F692" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>1839</v>
+        <v>250</v>
       </c>
       <c r="H692" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="J692" s="0" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C693" s="0" t="s">
         <v>80</v>
@@ -27406,10 +27373,10 @@
         <v>55</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>1555</v>
+        <v>1838</v>
       </c>
       <c r="F693" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
         <v>0</v>
       </c>
       <c r="G693" s="0" t="s">
@@ -27418,16 +27385,19 @@
       <c r="H693" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I693" s="0" t="s">
+        <v>1839</v>
+      </c>
       <c r="J693" s="0" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C694" s="0" t="s">
         <v>80</v>
@@ -27436,10 +27406,10 @@
         <v>55</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>1558</v>
+        <v>1841</v>
       </c>
       <c r="F694" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G694" s="0" t="s">
@@ -27448,13 +27418,16 @@
       <c r="H694" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I694" s="0" t="s">
+        <v>1842</v>
+      </c>
       <c r="J694" s="0" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>1843</v>
@@ -27463,13 +27436,13 @@
         <v>80</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>55</v>
+        <v>1844</v>
       </c>
       <c r="E695" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F695" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
         <v>0</v>
       </c>
       <c r="G695" s="0" t="s">
@@ -27479,18 +27452,18 @@
         <v>251</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J695" s="0" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C696" s="0" t="s">
         <v>80</v>
@@ -27499,31 +27472,28 @@
         <v>55</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="F696" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>250</v>
+        <v>1849</v>
       </c>
       <c r="H696" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I696" s="0" t="s">
-        <v>1848</v>
-      </c>
       <c r="J696" s="0" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C697" s="0" t="s">
         <v>80</v>
@@ -27532,116 +27502,20 @@
         <v>55</v>
       </c>
       <c r="E697" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F697" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>250</v>
+        <v>1852</v>
       </c>
       <c r="H697" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I697" s="0" t="s">
-        <v>1851</v>
-      </c>
       <c r="J697" s="0" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B698" s="0" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C698" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D698" s="0" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E698" s="0" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F698" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G698" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H698" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I698" s="0" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J698" s="0" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B699" s="0" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C699" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D699" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E699" s="0" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F699" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G699" s="0" t="s">
-        <v>1858</v>
-      </c>
-      <c r="H699" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="J699" s="0" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B700" s="0" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C700" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D700" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E700" s="0" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F700" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G700" s="0" t="s">
-        <v>1861</v>
-      </c>
-      <c r="H700" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="J700" s="0" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="1845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5867" uniqueCount="1852">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4303,6 +4303,51 @@
     <t xml:space="preserve">includes both liquid and solid phases</t>
   </si>
   <si>
+    <t xml:space="preserve">et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Evapotranspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS. Is now implemented as a monthly output from LPJ-GUESS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interception evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - evspsblveg - Total Evaporation of intercepted water from Canopy [kg m-2 s-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - tran - Transpiration [kg m-2 s-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpiration (may include dew formation as a negative flux).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsblpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential Evapotranspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Is now implemented as a monthly output from LPJ-GUESS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at surface; potential flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AERmonZ</t>
   </si>
   <si>
@@ -5143,18 +5188,6 @@
     <t xml:space="preserve">This annual mean flux refers to the transfer of carbon directly to the atmosphere due to any land-use or land-cover change activities.  Include carbon transferred due to deforestation or agricultural directly into atmosphere, and  emissions form anthropogenic pools into atmosphere</t>
   </si>
   <si>
-    <t xml:space="preserve">evspsblpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential Evapotranspiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in LPJ-GUESS.  Is now implemented as a monthly output from LPJ-GUESS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at surface; potential flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
-  </si>
-  <si>
     <t xml:space="preserve">DCPP,PMIP</t>
   </si>
   <si>
@@ -5357,18 +5390,6 @@
   </si>
   <si>
     <t xml:space="preserve">The canopy evaporation and sublimation (if present in model); may include dew formation as a negative flux.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transpiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - tran - Transpiration [kg m-2 s-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transpiration (may include dew formation as a negative flux).</t>
   </si>
   <si>
     <t xml:space="preserve">pastureFrac</t>
@@ -5664,13 +5685,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J690"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A505" activeCellId="0" sqref="505:505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -5680,7 +5701,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
@@ -5717,6 +5738,7 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
@@ -6011,6 +6033,7 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>52</v>
@@ -6137,6 +6160,7 @@
         <v>69</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>70</v>
@@ -6170,6 +6194,7 @@
         <v>77</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>78</v>
@@ -7424,6 +7449,7 @@
         <v>84</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>198</v>
@@ -7490,6 +7516,7 @@
         <v>18</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>209</v>
@@ -7751,6 +7778,7 @@
         <v>215</v>
       </c>
     </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>246</v>
@@ -8342,6 +8370,7 @@
         <v>283</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>312</v>
@@ -8936,6 +8965,7 @@
         <v>18</v>
       </c>
     </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>383</v>
@@ -9134,6 +9164,7 @@
         <v>387</v>
       </c>
     </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>405</v>
@@ -11210,6 +11241,7 @@
         <v>425</v>
       </c>
     </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>601</v>
@@ -11636,6 +11668,7 @@
         <v>628</v>
       </c>
     </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>633</v>
@@ -15560,6 +15593,7 @@
         <v>793</v>
       </c>
     </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>936</v>
@@ -15593,6 +15627,7 @@
         <v>18</v>
       </c>
     </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>942</v>
@@ -15689,6 +15724,7 @@
         <v>946</v>
       </c>
     </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>951</v>
@@ -16151,6 +16187,7 @@
         <v>989</v>
       </c>
     </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>990</v>
@@ -16250,6 +16287,7 @@
         <v>991</v>
       </c>
     </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>993</v>
@@ -16283,6 +16321,7 @@
         <v>997</v>
       </c>
     </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>998</v>
@@ -16382,6 +16421,7 @@
         <v>77</v>
       </c>
     </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>1006</v>
@@ -19778,6 +19818,7 @@
         <v>1016</v>
       </c>
     </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>1300</v>
@@ -20138,6 +20179,7 @@
         <v>1305</v>
       </c>
     </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>1318</v>
@@ -20237,6 +20279,7 @@
         <v>1319</v>
       </c>
     </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>1320</v>
@@ -20402,6 +20445,7 @@
         <v>77</v>
       </c>
     </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>1330</v>
@@ -20783,6 +20827,7 @@
         <v>1349</v>
       </c>
     </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>1361</v>
@@ -20981,6 +21026,7 @@
         <v>1365</v>
       </c>
     </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>1379</v>
@@ -21014,6 +21060,7 @@
         <v>1319</v>
       </c>
     </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>1384</v>
@@ -21371,210 +21418,134 @@
         <v>997</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B505" s="0" t="s">
         <v>1427</v>
       </c>
-      <c r="B505" s="0" t="s">
+      <c r="C505" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F505" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G505" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H505" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J505" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C506" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F506" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G506" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H506" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J506" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C507" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F507" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G507" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H507" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I507" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J507" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C508" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F508" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G508" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H508" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I508" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J508" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B511" s="0" t="s">
         <v>982</v>
-      </c>
-      <c r="C505" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D505" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E505" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F505" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G505" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H505" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I505" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="J505" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D506" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E506" s="0" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F506" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G506" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H506" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I506" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J506" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C507" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D507" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E507" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F507" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G507" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H507" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I507" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="J507" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C508" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D508" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E508" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F508" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G508" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H508" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I508" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J508" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C509" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D509" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E509" s="0" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F509" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G509" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H509" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I509" s="0" t="s">
-        <v>1433</v>
-      </c>
-      <c r="J509" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="C510" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D510" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="E510" s="0" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F510" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G510" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H510" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I510" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="J510" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>1234</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>12</v>
@@ -21583,10 +21554,10 @@
         <v>947</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>1235</v>
+        <v>1031</v>
       </c>
       <c r="F511" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G511" s="0" t="s">
@@ -21602,57 +21573,90 @@
         <v>77</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F512" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G512" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H512" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I512" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J512" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1041</v>
+        <v>1119</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>292</v>
+        <v>947</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>1435</v>
+        <v>1120</v>
       </c>
       <c r="F513" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
         <v>0</v>
       </c>
       <c r="G513" s="0" t="s">
-        <v>1043</v>
+        <v>74</v>
       </c>
       <c r="H513" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I513" s="0" t="s">
-        <v>1044</v>
+        <v>968</v>
       </c>
       <c r="J513" s="0" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>242</v>
+        <v>1443</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>1436</v>
+        <v>947</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>244</v>
+        <v>1444</v>
       </c>
       <c r="F514" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G514" s="0" t="s">
@@ -21662,30 +21666,30 @@
         <v>75</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>245</v>
+        <v>1445</v>
       </c>
       <c r="J514" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1113</v>
+        <v>1446</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1317</v>
+        <v>947</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1114</v>
+        <v>1447</v>
       </c>
       <c r="F515" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G515" s="0" t="s">
@@ -21695,291 +21699,261 @@
         <v>75</v>
       </c>
       <c r="I515" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J515" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F516" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G516" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H516" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I516" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J516" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F517" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G517" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H517" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I517" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J517" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F519" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G519" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H519" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I519" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J519" s="0" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E520" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F520" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G520" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H520" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I520" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J520" s="0" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F521" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G521" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H521" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I521" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="J515" s="0" t="s">
+      <c r="J521" s="0" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B517" s="0" t="s">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B523" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C517" s="0" t="s">
+      <c r="C523" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D517" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E517" s="0" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F517" s="0" t="n">
+      <c r="D523" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F523" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G517" s="0" t="s">
+      <c r="G523" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H517" s="0" t="s">
+      <c r="H523" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="I517" s="0" t="s">
+      <c r="I523" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="J517" s="0" t="s">
+      <c r="J523" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B518" s="0" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C518" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D518" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E518" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F518" s="0" t="n">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F524" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G518" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H518" s="0" t="s">
+      <c r="G524" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H524" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="I518" s="0" t="s">
+      <c r="I524" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="J518" s="0" t="s">
+      <c r="J524" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B520" s="0" t="s">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B526" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C520" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D520" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E520" s="0" t="s">
+      <c r="C526" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E526" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F520" s="0" t="n">
+      <c r="F526" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c08493dc9183b6ec7005a6be27f67f1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G520" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H520" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I520" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="J520" s="0" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C521" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D521" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E521" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F521" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G521" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H521" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I521" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J521" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C522" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D522" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E522" s="0" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F522" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G522" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H522" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I522" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J522" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D523" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E523" s="0" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F523" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G523" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H523" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I523" s="0" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J523" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D524" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E524" s="0" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F524" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G524" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H524" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="J524" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C525" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D525" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E525" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F525" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G525" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H525" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I525" s="0" t="s">
-        <v>1457</v>
-      </c>
-      <c r="J525" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C526" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D526" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E526" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F526" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G526" s="0" t="s">
@@ -21989,30 +21963,30 @@
         <v>251</v>
       </c>
       <c r="I526" s="0" t="s">
-        <v>1460</v>
+        <v>294</v>
       </c>
       <c r="J526" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1461</v>
+        <v>1380</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>55</v>
+        <v>1389</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>1462</v>
+        <v>1390</v>
       </c>
       <c r="F527" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G527" s="0" t="s">
@@ -22022,18 +21996,18 @@
         <v>251</v>
       </c>
       <c r="I527" s="0" t="s">
-        <v>1463</v>
+        <v>1383</v>
       </c>
       <c r="J527" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>12</v>
@@ -22042,10 +22016,10 @@
         <v>55</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="F528" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G528" s="0" t="s">
@@ -22055,30 +22029,30 @@
         <v>251</v>
       </c>
       <c r="I528" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J528" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E529" s="0" t="s">
         <v>1466</v>
       </c>
-      <c r="J528" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C529" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D529" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E529" s="0" t="s">
-        <v>1469</v>
-      </c>
       <c r="F529" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G529" s="0" t="s">
@@ -22088,18 +22062,18 @@
         <v>251</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="J529" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>12</v>
@@ -22108,10 +22082,10 @@
         <v>55</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F530" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G530" s="0" t="s">
@@ -22120,19 +22094,16 @@
       <c r="H530" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I530" s="0" t="s">
-        <v>1466</v>
-      </c>
       <c r="J530" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>12</v>
@@ -22141,10 +22112,10 @@
         <v>55</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F531" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G531" s="0" t="s">
@@ -22154,30 +22125,30 @@
         <v>251</v>
       </c>
       <c r="I531" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J531" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E532" s="0" t="s">
         <v>1474</v>
       </c>
-      <c r="J531" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E532" s="0" t="s">
-        <v>1476</v>
-      </c>
       <c r="F532" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G532" s="0" t="s">
@@ -22187,30 +22158,30 @@
         <v>251</v>
       </c>
       <c r="I532" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J532" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D533" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E533" s="0" t="s">
         <v>1477</v>
       </c>
-      <c r="J532" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B533" s="0" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C533" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D533" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E533" s="0" t="s">
-        <v>1479</v>
-      </c>
       <c r="F533" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G533" s="0" t="s">
@@ -22220,30 +22191,30 @@
         <v>251</v>
       </c>
       <c r="I533" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J533" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E534" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="J533" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C534" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D534" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E534" s="0" t="s">
-        <v>1482</v>
-      </c>
       <c r="F534" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G534" s="0" t="s">
@@ -22252,13 +22223,16 @@
       <c r="H534" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I534" s="0" t="s">
+        <v>1481</v>
+      </c>
       <c r="J534" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B535" s="0" t="s">
         <v>1483</v>
@@ -22273,7 +22247,7 @@
         <v>1484</v>
       </c>
       <c r="F535" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G535" s="0" t="s">
@@ -22282,13 +22256,16 @@
       <c r="H535" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I535" s="0" t="s">
+        <v>1481</v>
+      </c>
       <c r="J535" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>1485</v>
@@ -22303,7 +22280,7 @@
         <v>1486</v>
       </c>
       <c r="F536" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G536" s="0" t="s">
@@ -22312,13 +22289,16 @@
       <c r="H536" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I536" s="0" t="s">
+        <v>1481</v>
+      </c>
       <c r="J536" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>1487</v>
@@ -22333,7 +22313,7 @@
         <v>1488</v>
       </c>
       <c r="F537" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G537" s="0" t="s">
@@ -22342,16 +22322,19 @@
       <c r="H537" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I537" s="0" t="s">
+        <v>1489</v>
+      </c>
       <c r="J537" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>12</v>
@@ -22360,10 +22343,10 @@
         <v>55</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F538" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G538" s="0" t="s">
@@ -22372,16 +22355,19 @@
       <c r="H538" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I538" s="0" t="s">
+        <v>1492</v>
+      </c>
       <c r="J538" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>12</v>
@@ -22390,10 +22376,10 @@
         <v>55</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F539" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G539" s="0" t="s">
@@ -22403,18 +22389,18 @@
         <v>251</v>
       </c>
       <c r="I539" s="0" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="J539" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>12</v>
@@ -22423,10 +22409,10 @@
         <v>55</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F540" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G540" s="0" t="s">
@@ -22436,15 +22422,15 @@
         <v>251</v>
       </c>
       <c r="J540" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>12</v>
@@ -22453,10 +22439,10 @@
         <v>55</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F541" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G541" s="0" t="s">
@@ -22465,19 +22451,16 @@
       <c r="H541" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I541" s="0" t="s">
-        <v>1460</v>
-      </c>
       <c r="J541" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>12</v>
@@ -22486,10 +22469,10 @@
         <v>55</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F542" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G542" s="0" t="s">
@@ -22498,31 +22481,28 @@
       <c r="H542" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I542" s="0" t="s">
-        <v>1500</v>
-      </c>
       <c r="J542" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1502</v>
+        <v>55</v>
       </c>
       <c r="E543" s="0" t="s">
         <v>1503</v>
       </c>
       <c r="F543" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G543" s="0" t="s">
@@ -22531,31 +22511,28 @@
       <c r="H543" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I543" s="0" t="s">
+      <c r="J543" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B544" s="0" t="s">
         <v>1504</v>
       </c>
-      <c r="J543" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B544" s="0" t="s">
+      <c r="C544" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E544" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="C544" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D544" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E544" s="0" t="s">
-        <v>1507</v>
-      </c>
       <c r="F544" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G544" s="0" t="s">
@@ -22564,31 +22541,28 @@
       <c r="H544" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I544" s="0" t="s">
-        <v>1508</v>
-      </c>
       <c r="J544" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1510</v>
+        <v>55</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F545" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G545" s="0" t="s">
@@ -22598,30 +22572,30 @@
         <v>251</v>
       </c>
       <c r="I545" s="0" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="J545" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1514</v>
+        <v>55</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="F546" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G546" s="0" t="s">
@@ -22630,31 +22604,28 @@
       <c r="H546" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I546" s="0" t="s">
-        <v>1516</v>
-      </c>
       <c r="J546" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1518</v>
+        <v>55</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="F547" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G547" s="0" t="s">
@@ -22664,30 +22635,30 @@
         <v>251</v>
       </c>
       <c r="I547" s="0" t="s">
-        <v>1520</v>
+        <v>1475</v>
       </c>
       <c r="J547" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1522</v>
+        <v>55</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="F548" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G548" s="0" t="s">
@@ -22697,30 +22668,30 @@
         <v>251</v>
       </c>
       <c r="I548" s="0" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="J548" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="F549" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G549" s="0" t="s">
@@ -22730,30 +22701,30 @@
         <v>251</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="J549" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>55</v>
+        <v>1521</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F550" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G550" s="0" t="s">
@@ -22763,30 +22734,30 @@
         <v>251</v>
       </c>
       <c r="I550" s="0" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="J550" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>55</v>
+        <v>1525</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="F551" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G551" s="0" t="s">
@@ -22796,30 +22767,30 @@
         <v>251</v>
       </c>
       <c r="I551" s="0" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="J551" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>55</v>
+        <v>1529</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="F552" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G552" s="0" t="s">
@@ -22828,28 +22799,31 @@
       <c r="H552" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I552" s="0" t="s">
+        <v>1531</v>
+      </c>
       <c r="J552" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>55</v>
+        <v>1533</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="F553" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G553" s="0" t="s">
@@ -22859,30 +22833,30 @@
         <v>251</v>
       </c>
       <c r="I553" s="0" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="J553" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C554" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>55</v>
+        <v>1537</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="F554" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G554" s="0" t="s">
@@ -22892,30 +22866,30 @@
         <v>251</v>
       </c>
       <c r="I554" s="0" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="J554" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>55</v>
+        <v>1541</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="F555" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G555" s="0" t="s">
@@ -22925,18 +22899,18 @@
         <v>251</v>
       </c>
       <c r="I555" s="0" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="J555" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>80</v>
@@ -22945,10 +22919,10 @@
         <v>55</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F556" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G556" s="0" t="s">
@@ -22958,18 +22932,18 @@
         <v>251</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="J556" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>80</v>
@@ -22978,10 +22952,10 @@
         <v>55</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F557" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G557" s="0" t="s">
@@ -22991,18 +22965,18 @@
         <v>251</v>
       </c>
       <c r="I557" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J557" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B558" s="0" t="s">
         <v>1550</v>
-      </c>
-      <c r="J557" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B558" s="0" t="s">
-        <v>1551</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>80</v>
@@ -23011,10 +22985,10 @@
         <v>55</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F558" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G558" s="0" t="s">
@@ -23023,19 +22997,16 @@
       <c r="H558" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I558" s="0" t="s">
-        <v>1553</v>
-      </c>
       <c r="J558" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>80</v>
@@ -23044,10 +23015,10 @@
         <v>55</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="F559" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G559" s="0" t="s">
@@ -23057,18 +23028,18 @@
         <v>251</v>
       </c>
       <c r="I559" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="J559" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C560" s="0" t="s">
         <v>80</v>
@@ -23077,10 +23048,10 @@
         <v>55</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F560" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G560" s="0" t="s">
@@ -23090,18 +23061,18 @@
         <v>251</v>
       </c>
       <c r="I560" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J560" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C561" s="0" t="s">
         <v>80</v>
@@ -23110,10 +23081,10 @@
         <v>55</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F561" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G561" s="0" t="s">
@@ -23123,15 +23094,15 @@
         <v>251</v>
       </c>
       <c r="I561" s="0" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="J561" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>1561</v>
@@ -23146,7 +23117,7 @@
         <v>1562</v>
       </c>
       <c r="F562" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G562" s="0" t="s">
@@ -23156,18 +23127,18 @@
         <v>251</v>
       </c>
       <c r="I562" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J562" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B563" s="0" t="s">
         <v>1563</v>
-      </c>
-      <c r="J562" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B563" s="0" t="s">
-        <v>1564</v>
       </c>
       <c r="C563" s="0" t="s">
         <v>80</v>
@@ -23176,10 +23147,10 @@
         <v>55</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F563" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G563" s="0" t="s">
@@ -23189,18 +23160,18 @@
         <v>251</v>
       </c>
       <c r="I563" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J563" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B564" s="0" t="s">
         <v>1566</v>
-      </c>
-      <c r="J563" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B564" s="0" t="s">
-        <v>1567</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>80</v>
@@ -23209,10 +23180,10 @@
         <v>55</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F564" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G564" s="0" t="s">
@@ -23222,18 +23193,18 @@
         <v>251</v>
       </c>
       <c r="I564" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J564" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B565" s="0" t="s">
         <v>1569</v>
-      </c>
-      <c r="J564" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B565" s="0" t="s">
-        <v>1570</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>80</v>
@@ -23242,10 +23213,10 @@
         <v>55</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F565" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G565" s="0" t="s">
@@ -23255,18 +23226,18 @@
         <v>251</v>
       </c>
       <c r="I565" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J565" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B566" s="0" t="s">
         <v>1572</v>
-      </c>
-      <c r="J565" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B566" s="0" t="s">
-        <v>1573</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>80</v>
@@ -23275,10 +23246,10 @@
         <v>55</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F566" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G566" s="0" t="s">
@@ -23288,18 +23259,18 @@
         <v>251</v>
       </c>
       <c r="I566" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="J566" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>80</v>
@@ -23308,10 +23279,10 @@
         <v>55</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F567" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G567" s="0" t="s">
@@ -23321,18 +23292,18 @@
         <v>251</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="J567" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>80</v>
@@ -23341,10 +23312,10 @@
         <v>55</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="F568" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G568" s="0" t="s">
@@ -23354,18 +23325,18 @@
         <v>251</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="J568" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>80</v>
@@ -23374,10 +23345,10 @@
         <v>55</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F569" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G569" s="0" t="s">
@@ -23387,18 +23358,18 @@
         <v>251</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="J569" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>80</v>
@@ -23407,10 +23378,10 @@
         <v>55</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="F570" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G570" s="0" t="s">
@@ -23420,18 +23391,18 @@
         <v>251</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="J570" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>80</v>
@@ -23440,10 +23411,10 @@
         <v>55</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="F571" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G571" s="0" t="s">
@@ -23453,18 +23424,18 @@
         <v>251</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>1460</v>
+        <v>1587</v>
       </c>
       <c r="J571" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>80</v>
@@ -23473,10 +23444,10 @@
         <v>55</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F572" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G572" s="0" t="s">
@@ -23485,16 +23456,19 @@
       <c r="H572" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I572" s="0" t="s">
+        <v>1590</v>
+      </c>
       <c r="J572" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>80</v>
@@ -23503,10 +23477,10 @@
         <v>55</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F573" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G573" s="0" t="s">
@@ -23516,15 +23490,15 @@
         <v>251</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1531</v>
+        <v>1593</v>
       </c>
       <c r="J573" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>1594</v>
@@ -23539,7 +23513,7 @@
         <v>1595</v>
       </c>
       <c r="F574" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G574" s="0" t="s">
@@ -23552,12 +23526,12 @@
         <v>1596</v>
       </c>
       <c r="J574" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>1597</v>
@@ -23572,7 +23546,7 @@
         <v>1598</v>
       </c>
       <c r="F575" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G575" s="0" t="s">
@@ -23582,18 +23556,18 @@
         <v>251</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1534</v>
+        <v>1599</v>
       </c>
       <c r="J575" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>80</v>
@@ -23602,10 +23576,10 @@
         <v>55</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F576" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G576" s="0" t="s">
@@ -23614,16 +23588,19 @@
       <c r="H576" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I576" s="0" t="s">
+        <v>1602</v>
+      </c>
       <c r="J576" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>80</v>
@@ -23632,10 +23609,10 @@
         <v>55</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="F577" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G577" s="0" t="s">
@@ -23644,16 +23621,19 @@
       <c r="H577" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I577" s="0" t="s">
+        <v>1475</v>
+      </c>
       <c r="J577" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>80</v>
@@ -23662,10 +23642,10 @@
         <v>55</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="F578" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G578" s="0" t="s">
@@ -23675,15 +23655,15 @@
         <v>251</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>80</v>
@@ -23692,10 +23672,10 @@
         <v>55</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F579" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G579" s="0" t="s">
@@ -23705,18 +23685,18 @@
         <v>251</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>1607</v>
+        <v>1546</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>80</v>
@@ -23725,10 +23705,10 @@
         <v>55</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="F580" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G580" s="0" t="s">
@@ -23738,30 +23718,30 @@
         <v>251</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="J580" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D581" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F581" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G581" s="0" t="s">
@@ -23770,16 +23750,19 @@
       <c r="H581" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I581" s="0" t="s">
+        <v>1549</v>
+      </c>
       <c r="J581" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>80</v>
@@ -23788,10 +23771,10 @@
         <v>55</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="F582" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G582" s="0" t="s">
@@ -23801,15 +23784,15 @@
         <v>251</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>80</v>
@@ -23818,10 +23801,10 @@
         <v>55</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F583" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G583" s="0" t="s">
@@ -23831,15 +23814,15 @@
         <v>251</v>
       </c>
       <c r="J583" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>88</v>
+        <v>1618</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>80</v>
@@ -23848,208 +23831,196 @@
         <v>55</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>89</v>
+        <v>1619</v>
       </c>
       <c r="F584" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G584" s="0" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="H584" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I584" s="0" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="J584" s="0" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="F585" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G585" s="0" t="s">
-        <v>1620</v>
+        <v>250</v>
       </c>
       <c r="H585" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="J585" s="0" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B586" s="0" t="s">
         <v>1623</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D586" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E586" s="0" t="s">
         <v>1624</v>
       </c>
-      <c r="E586" s="0" t="s">
+      <c r="F586" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G586" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H586" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I586" s="0" t="s">
         <v>1625</v>
       </c>
-      <c r="F586" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G586" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H586" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I586" s="0" t="s">
+      <c r="J586" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B587" s="0" t="s">
         <v>1626</v>
       </c>
-      <c r="J586" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B587" s="0" t="s">
+      <c r="C587" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E587" s="0" t="s">
         <v>1627</v>
       </c>
-      <c r="C587" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D587" s="0" t="s">
+      <c r="F587" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G587" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H587" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J587" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B588" s="0" t="s">
         <v>1628</v>
       </c>
-      <c r="E587" s="0" t="s">
+      <c r="C588" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D588" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E588" s="0" t="s">
         <v>1629</v>
       </c>
-      <c r="F587" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G587" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H587" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I587" s="0" t="s">
+      <c r="F588" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G588" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H588" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J588" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B589" s="0" t="s">
         <v>1630</v>
-      </c>
-      <c r="J587" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B588" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C588" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D588" s="0" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E588" s="0" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F588" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G588" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H588" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I588" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="J588" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B589" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>96</v>
+        <v>1631</v>
       </c>
       <c r="F589" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G589" s="0" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I589" s="0" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F590" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
         <v>0</v>
       </c>
       <c r="G590" s="0" t="s">
@@ -24059,63 +24030,63 @@
         <v>58</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J590" s="0" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D591" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F591" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G591" s="0" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B591" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C591" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D591" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E591" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F591" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G591" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="H591" s="0" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>104</v>
+        <v>1636</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>105</v>
+        <v>1638</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>81</v>
+        <v>1639</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>106</v>
+        <v>1640</v>
       </c>
       <c r="F592" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G592" s="0" t="s">
@@ -24125,30 +24096,30 @@
         <v>58</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>107</v>
+        <v>1641</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>108</v>
+        <v>1642</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>81</v>
+        <v>1643</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>109</v>
+        <v>1644</v>
       </c>
       <c r="F593" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G593" s="0" t="s">
@@ -24158,30 +24129,30 @@
         <v>58</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>110</v>
+        <v>1645</v>
       </c>
       <c r="J593" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>111</v>
+        <v>1646</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>81</v>
+        <v>1647</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>112</v>
+        <v>1648</v>
       </c>
       <c r="F594" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G594" s="0" t="s">
@@ -24191,18 +24162,18 @@
         <v>58</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>113</v>
+        <v>1649</v>
       </c>
       <c r="J594" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>80</v>
@@ -24211,10 +24182,10 @@
         <v>81</v>
       </c>
       <c r="E595" s="0" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F595" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
         <v>0</v>
       </c>
       <c r="G595" s="0" t="s">
@@ -24224,18 +24195,18 @@
         <v>58</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J595" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>80</v>
@@ -24244,10 +24215,10 @@
         <v>81</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F596" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G596" s="0" t="s">
@@ -24257,18 +24228,18 @@
         <v>58</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>80</v>
@@ -24277,10 +24248,10 @@
         <v>81</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F597" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
         <v>0</v>
       </c>
       <c r="G597" s="0" t="s">
@@ -24290,18 +24261,18 @@
         <v>58</v>
       </c>
       <c r="I597" s="0" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J597" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>80</v>
@@ -24310,10 +24281,10 @@
         <v>81</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F598" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G598" s="0" t="s">
@@ -24323,129 +24294,129 @@
         <v>58</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F599" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I599" s="0" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="J599" s="0" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1637</v>
+        <v>111</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>1638</v>
+        <v>112</v>
       </c>
       <c r="F600" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>1639</v>
+        <v>57</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>1640</v>
+        <v>113</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1641</v>
+        <v>114</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>1642</v>
+        <v>115</v>
       </c>
       <c r="F601" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G601" s="0" t="s">
-        <v>1643</v>
+        <v>57</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>1644</v>
+        <v>116</v>
       </c>
       <c r="J601" s="0" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1645</v>
+        <v>117</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>1646</v>
+        <v>118</v>
       </c>
       <c r="F602" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G602" s="0" t="s">
@@ -24455,261 +24426,261 @@
         <v>58</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>1647</v>
+        <v>119</v>
       </c>
       <c r="J602" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1648</v>
+        <v>120</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1649</v>
+        <v>121</v>
       </c>
       <c r="F603" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G603" s="0" t="s">
-        <v>1620</v>
+        <v>57</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="I603" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J603" s="0" t="s">
         <v>1650</v>
       </c>
-      <c r="J603" s="0" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1652</v>
+        <v>123</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>1653</v>
+        <v>124</v>
       </c>
       <c r="F604" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1654</v>
+        <v>125</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>1655</v>
+        <v>71</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>1656</v>
+        <v>73</v>
       </c>
       <c r="F605" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
         <v>0</v>
       </c>
       <c r="G605" s="0" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>1657</v>
+        <v>76</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B606" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E606" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F606" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G606" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H606" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I606" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J606" s="0" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E607" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F607" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G607" s="0" t="s">
         <v>1658</v>
       </c>
-      <c r="C606" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D606" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E606" s="0" t="s">
+      <c r="H607" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I607" s="0" t="s">
         <v>1659</v>
       </c>
-      <c r="F606" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G606" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H606" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I606" s="0" t="s">
+      <c r="J607" s="0" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B608" s="0" t="s">
         <v>1660</v>
       </c>
-      <c r="J606" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B607" s="0" t="s">
+      <c r="C608" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E608" s="0" t="s">
         <v>1661</v>
       </c>
-      <c r="C607" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D607" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E607" s="0" t="s">
+      <c r="F608" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G608" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H608" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I608" s="0" t="s">
         <v>1662</v>
       </c>
-      <c r="F607" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G607" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H607" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I607" s="0" t="s">
+      <c r="J608" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B609" s="0" t="s">
         <v>1663</v>
       </c>
-      <c r="J607" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B608" s="0" t="s">
+      <c r="C609" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E609" s="0" t="s">
         <v>1664</v>
       </c>
-      <c r="C608" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D608" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E608" s="0" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F608" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G608" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H608" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I608" s="0" t="s">
-        <v>1666</v>
-      </c>
-      <c r="J608" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B609" s="0" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C609" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D609" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E609" s="0" t="s">
-        <v>1668</v>
-      </c>
       <c r="F609" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>250</v>
+        <v>1635</v>
       </c>
       <c r="H609" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="F610" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G610" s="0" t="s">
@@ -24719,30 +24690,30 @@
         <v>251</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F611" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G611" s="0" t="s">
@@ -24752,30 +24723,30 @@
         <v>251</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>1677</v>
+        <v>304</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F612" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G612" s="0" t="s">
@@ -24785,18 +24756,18 @@
         <v>251</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>12</v>
@@ -24805,10 +24776,10 @@
         <v>304</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F613" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G613" s="0" t="s">
@@ -24818,30 +24789,30 @@
         <v>251</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1684</v>
+        <v>304</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="F614" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G614" s="0" t="s">
@@ -24851,18 +24822,18 @@
         <v>251</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>12</v>
@@ -24871,10 +24842,10 @@
         <v>304</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="F615" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G615" s="0" t="s">
@@ -24884,18 +24855,18 @@
         <v>251</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>12</v>
@@ -24904,10 +24875,10 @@
         <v>304</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="F616" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G616" s="0" t="s">
@@ -24917,18 +24888,18 @@
         <v>251</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>12</v>
@@ -24937,10 +24908,10 @@
         <v>304</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="F617" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G617" s="0" t="s">
@@ -24949,28 +24920,31 @@
       <c r="H617" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I617" s="0" t="s">
+        <v>1690</v>
+      </c>
       <c r="J617" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>304</v>
+        <v>1692</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="F618" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G618" s="0" t="s">
@@ -24980,18 +24954,18 @@
         <v>251</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>12</v>
@@ -25000,10 +24974,10 @@
         <v>304</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="F619" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G619" s="0" t="s">
@@ -25013,30 +24987,30 @@
         <v>251</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>304</v>
+        <v>1699</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F620" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G620" s="0" t="s">
@@ -25046,18 +25020,18 @@
         <v>251</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>12</v>
@@ -25066,10 +25040,10 @@
         <v>304</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F621" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G621" s="0" t="s">
@@ -25079,18 +25053,18 @@
         <v>251</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>309</v>
+        <v>1705</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>12</v>
@@ -25099,10 +25073,10 @@
         <v>304</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>310</v>
+        <v>1706</v>
       </c>
       <c r="F622" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G622" s="0" t="s">
@@ -25112,216 +25086,213 @@
         <v>251</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>311</v>
+        <v>1707</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F623" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G623" s="0" t="s">
-        <v>1709</v>
+        <v>250</v>
       </c>
       <c r="H623" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I623" s="0" t="s">
+      <c r="J623" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B624" s="0" t="s">
         <v>1710</v>
       </c>
-      <c r="J623" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B624" s="0" t="s">
-        <v>1415</v>
-      </c>
       <c r="C624" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1416</v>
+        <v>1711</v>
       </c>
       <c r="F624" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G624" s="0" t="s">
-        <v>1417</v>
+        <v>250</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1418</v>
+        <v>1712</v>
       </c>
       <c r="J624" s="0" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1410</v>
+        <v>1713</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1411</v>
+        <v>1714</v>
       </c>
       <c r="F625" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G625" s="0" t="s">
-        <v>1412</v>
+        <v>250</v>
       </c>
       <c r="H625" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1413</v>
+        <v>1715</v>
       </c>
       <c r="J625" s="0" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="C626" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="F626" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G626" s="0" t="s">
-        <v>1714</v>
+        <v>250</v>
       </c>
       <c r="H626" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="J626" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F627" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G627" s="0" t="s">
-        <v>1718</v>
+        <v>250</v>
       </c>
       <c r="H627" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="J627" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>1719</v>
+        <v>309</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1720</v>
+        <v>310</v>
       </c>
       <c r="F628" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G628" s="0" t="s">
-        <v>1721</v>
+        <v>250</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1722</v>
+        <v>311</v>
       </c>
       <c r="J628" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>1723</v>
+        <v>1438</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>12</v>
@@ -25330,307 +25301,307 @@
         <v>55</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1724</v>
+        <v>1439</v>
       </c>
       <c r="F629" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G629" s="0" t="s">
-        <v>1725</v>
+        <v>1440</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1715</v>
+        <v>1441</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B630" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F630" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G630" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H630" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I630" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J630" s="0" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E631" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F631" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G631" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H631" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I631" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J631" s="0" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E632" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F632" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G632" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H632" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I632" s="0" t="s">
         <v>1726</v>
       </c>
-      <c r="C630" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D630" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E630" s="0" t="s">
+      <c r="J632" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B633" s="0" t="s">
         <v>1727</v>
       </c>
-      <c r="F630" s="0" t="n">
+      <c r="C633" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D633" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E633" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F633" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G633" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H633" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I633" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J633" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E634" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F634" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G634" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H634" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I634" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J634" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E635" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F635" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G635" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H635" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I635" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J635" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E636" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F636" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G630" s="0" t="s">
+      <c r="G636" s="0" t="s">
         <v>1398</v>
       </c>
-      <c r="H630" s="0" t="s">
+      <c r="H636" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="I630" s="0" t="s">
-        <v>1728</v>
-      </c>
-      <c r="J630" s="0" t="s">
+      <c r="I636" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J636" s="0" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B631" s="0" t="s">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B637" s="0" t="s">
         <v>1392</v>
       </c>
-      <c r="C631" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D631" s="0" t="s">
+      <c r="C637" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D637" s="0" t="s">
         <v>1389</v>
       </c>
-      <c r="E631" s="0" t="s">
+      <c r="E637" s="0" t="s">
         <v>1393</v>
       </c>
-      <c r="F631" s="0" t="n">
+      <c r="F637" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G631" s="0" t="s">
+      <c r="G637" s="0" t="s">
         <v>1394</v>
-      </c>
-      <c r="H631" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I631" s="0" t="s">
-        <v>1395</v>
-      </c>
-      <c r="J631" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B632" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C632" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D632" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="E632" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F632" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G632" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H632" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I632" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="J632" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B633" s="0" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C633" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D633" s="0" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E633" s="0" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F633" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G633" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H633" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I633" s="0" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J633" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B634" s="0" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C634" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D634" s="0" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E634" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F634" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G634" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H634" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I634" s="0" t="s">
-        <v>1736</v>
-      </c>
-      <c r="J634" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B635" s="0" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C635" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D635" s="0" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E635" s="0" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F635" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G635" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H635" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I635" s="0" t="s">
-        <v>1740</v>
-      </c>
-      <c r="J635" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B636" s="0" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C636" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D636" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E636" s="0" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F636" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G636" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H636" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I636" s="0" t="s">
-        <v>1466</v>
-      </c>
-      <c r="J636" s="0" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B637" s="0" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C637" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D637" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E637" s="0" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F637" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G637" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="H637" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1745</v>
+        <v>1395</v>
       </c>
       <c r="J637" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>1746</v>
+        <v>267</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>1747</v>
+        <v>269</v>
       </c>
       <c r="F638" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G638" s="0" t="s">
@@ -25640,30 +25611,30 @@
         <v>251</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1466</v>
+        <v>270</v>
       </c>
       <c r="J638" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>55</v>
+        <v>1741</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="F639" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G639" s="0" t="s">
@@ -25673,30 +25644,30 @@
         <v>251</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1466</v>
+        <v>1743</v>
       </c>
       <c r="J639" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>55</v>
+        <v>1745</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="F640" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G640" s="0" t="s">
@@ -25705,82 +25676,88 @@
       <c r="H640" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I640" s="0" t="s">
+        <v>1747</v>
+      </c>
       <c r="J640" s="0" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B641" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E641" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F641" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G641" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H641" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I641" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J641" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B642" s="0" t="s">
         <v>1752</v>
       </c>
-      <c r="C641" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D641" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E641" s="0" t="s">
+      <c r="C642" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E642" s="0" t="s">
         <v>1753</v>
       </c>
-      <c r="F641" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G641" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H641" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I641" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J641" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B642" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C642" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D642" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E642" s="0" t="s">
-        <v>1400</v>
-      </c>
       <c r="F642" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G642" s="0" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="H642" s="0" t="s">
-        <v>58</v>
+        <v>251</v>
+      </c>
+      <c r="I642" s="0" t="s">
+        <v>1481</v>
       </c>
       <c r="J642" s="0" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>55</v>
@@ -25789,25 +25766,25 @@
         <v>1755</v>
       </c>
       <c r="F643" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G643" s="0" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="H643" s="0" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="I643" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="J643" s="0" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>1757</v>
@@ -25816,469 +25793,463 @@
         <v>12</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>1008</v>
+        <v>55</v>
       </c>
       <c r="E644" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="F644" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G644" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H644" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I644" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J644" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B645" s="0" t="s">
         <v>1759</v>
       </c>
-      <c r="H644" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="I644" s="0" t="s">
+      <c r="C645" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E645" s="0" t="s">
         <v>1760</v>
       </c>
-      <c r="J644" s="0" t="s">
+      <c r="F645" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G645" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H645" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I645" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J645" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B646" s="0" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B645" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C645" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D645" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E645" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F645" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G645" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H645" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I645" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J645" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B646" s="0" t="s">
+      <c r="C646" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E646" s="0" t="s">
         <v>1762</v>
       </c>
-      <c r="C646" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D646" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E646" s="0" t="s">
+      <c r="F646" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G646" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H646" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J646" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B647" s="0" t="s">
         <v>1763</v>
       </c>
-      <c r="F646" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G646" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H646" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="I646" s="0" t="s">
+      <c r="C647" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E647" s="0" t="s">
         <v>1764</v>
       </c>
-      <c r="J646" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B647" s="0" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C647" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D647" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E647" s="0" t="s">
-        <v>1766</v>
-      </c>
       <c r="F647" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G647" s="0" t="s">
-        <v>1128</v>
+        <v>57</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>614</v>
+        <v>58</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1764</v>
+        <v>1726</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="B648" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E648" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F648" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G648" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H648" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J648" s="0" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E649" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F649" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G649" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H649" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I649" s="0" t="s">
         <v>1767</v>
       </c>
-      <c r="C648" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D648" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="E648" s="0" t="s">
+      <c r="J649" s="0" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B650" s="0" t="s">
         <v>1768</v>
       </c>
-      <c r="F648" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G648" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H648" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="I648" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J648" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B649" s="0" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C649" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D649" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E649" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F649" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G649" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H649" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="J649" s="0" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B650" s="0" t="s">
+      <c r="C650" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E650" s="0" t="s">
         <v>1769</v>
       </c>
-      <c r="C650" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D650" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="E650" s="0" t="s">
+      <c r="F650" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G650" s="0" t="s">
         <v>1770</v>
-      </c>
-      <c r="F650" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G650" s="0" t="s">
-        <v>1398</v>
       </c>
       <c r="H650" s="0" t="s">
         <v>614</v>
       </c>
+      <c r="I650" s="0" t="s">
+        <v>1771</v>
+      </c>
       <c r="J650" s="0" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C651" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E651" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F651" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G651" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H651" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I651" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J651" s="0" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B651" s="0" t="s">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D652" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E652" s="0" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F652" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G652" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H652" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="I652" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J652" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C653" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D653" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E653" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F653" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G653" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H653" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="I653" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J653" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E654" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F654" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G654" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H654" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="I654" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J654" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E655" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F655" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G655" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H655" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J655" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D656" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E656" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F656" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G656" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H656" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J656" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B657" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="C651" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D651" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E651" s="0" t="s">
+      <c r="C657" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E657" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="F651" s="0" t="n">
+      <c r="F657" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G651" s="0" t="s">
+      <c r="G657" s="0" t="s">
         <v>1425</v>
-      </c>
-      <c r="H651" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I651" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J651" s="0" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B653" s="0" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C653" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D653" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E653" s="0" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F653" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G653" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H653" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I653" s="0" t="s">
-        <v>1774</v>
-      </c>
-      <c r="J653" s="0" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B654" s="0" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C654" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D654" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E654" s="0" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F654" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G654" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H654" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I654" s="0" t="s">
-        <v>1778</v>
-      </c>
-      <c r="J654" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B655" s="0" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C655" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D655" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E655" s="0" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F655" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G655" s="0" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H655" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I655" s="0" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J655" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B656" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C656" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D656" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E656" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="F656" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G656" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H656" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I656" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="J656" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B657" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C657" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D657" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E657" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="F657" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G657" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="H657" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>257</v>
+        <v>1426</v>
       </c>
       <c r="J657" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B658" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C658" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D658" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="E658" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F658" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G658" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="H658" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I658" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="J658" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>263</v>
+        <v>1783</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>265</v>
+        <v>1784</v>
       </c>
       <c r="F659" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
         <v>0</v>
       </c>
       <c r="G659" s="0" t="s">
@@ -26288,30 +26259,30 @@
         <v>251</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>266</v>
+        <v>1785</v>
       </c>
       <c r="J659" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="C660" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1784</v>
+        <v>55</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="F660" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
         <v>0</v>
       </c>
       <c r="G660" s="0" t="s">
@@ -26321,63 +26292,63 @@
         <v>251</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="J660" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>271</v>
+        <v>1434</v>
       </c>
       <c r="C661" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>273</v>
+        <v>1435</v>
       </c>
       <c r="F661" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
         <v>0</v>
       </c>
       <c r="G661" s="0" t="s">
-        <v>250</v>
+        <v>1436</v>
       </c>
       <c r="H661" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>274</v>
+        <v>1437</v>
       </c>
       <c r="J661" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C662" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F662" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G662" s="0" t="s">
@@ -26387,30 +26358,30 @@
         <v>251</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="J662" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C663" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="F663" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
         <v>0</v>
       </c>
       <c r="G663" s="0" t="s">
@@ -26420,60 +26391,63 @@
         <v>251</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="J663" s="0" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="C664" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="F664" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H664" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I664" s="0" t="s">
+        <v>262</v>
+      </c>
       <c r="J664" s="0" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C665" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F665" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G665" s="0" t="s">
@@ -26483,30 +26457,30 @@
         <v>251</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="J665" s="0" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>1385</v>
+        <v>1790</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>55</v>
+        <v>1791</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1386</v>
+        <v>1792</v>
       </c>
       <c r="F666" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G666" s="0" t="s">
@@ -26516,30 +26490,30 @@
         <v>251</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1387</v>
+        <v>1793</v>
       </c>
       <c r="J666" s="0" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1789</v>
+        <v>271</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1790</v>
+        <v>273</v>
       </c>
       <c r="F667" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G667" s="0" t="s">
@@ -26548,49 +26522,52 @@
       <c r="H667" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I667" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="J667" s="0" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>1791</v>
+        <v>275</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1792</v>
+        <v>277</v>
       </c>
       <c r="F668" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
         <v>0</v>
       </c>
       <c r="G668" s="0" t="s">
-        <v>1793</v>
+        <v>250</v>
       </c>
       <c r="H668" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>1794</v>
+        <v>278</v>
       </c>
       <c r="J668" s="0" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>1796</v>
+        <v>295</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>12</v>
@@ -26599,10 +26576,10 @@
         <v>55</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1797</v>
+        <v>296</v>
       </c>
       <c r="F669" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
         <v>0</v>
       </c>
       <c r="G669" s="0" t="s">
@@ -26612,18 +26589,18 @@
         <v>251</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>1798</v>
+        <v>297</v>
       </c>
       <c r="J669" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>1800</v>
+        <v>298</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>12</v>
@@ -26632,31 +26609,28 @@
         <v>55</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1801</v>
+        <v>299</v>
       </c>
       <c r="F670" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>1802</v>
+        <v>250</v>
       </c>
       <c r="H670" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I670" s="0" t="s">
-        <v>1803</v>
-      </c>
       <c r="J670" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>1804</v>
+        <v>300</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>12</v>
@@ -26665,10 +26639,10 @@
         <v>55</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1805</v>
+        <v>301</v>
       </c>
       <c r="F671" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
         <v>0</v>
       </c>
       <c r="G671" s="0" t="s">
@@ -26678,18 +26652,18 @@
         <v>251</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1806</v>
+        <v>302</v>
       </c>
       <c r="J671" s="0" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>1808</v>
+        <v>1385</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>12</v>
@@ -26698,10 +26672,10 @@
         <v>55</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1809</v>
+        <v>1386</v>
       </c>
       <c r="F672" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
         <v>0</v>
       </c>
       <c r="G672" s="0" t="s">
@@ -26710,16 +26684,19 @@
       <c r="H672" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I672" s="0" t="s">
+        <v>1387</v>
+      </c>
       <c r="J672" s="0" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>12</v>
@@ -26728,10 +26705,10 @@
         <v>55</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="F673" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G673" s="0" t="s">
@@ -26740,64 +26717,61 @@
       <c r="H673" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I673" s="0" t="s">
-        <v>1813</v>
-      </c>
       <c r="J673" s="0" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="F674" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="H674" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>1816</v>
+        <v>1801</v>
       </c>
       <c r="J674" s="0" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D675" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
       <c r="F675" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G675" s="0" t="s">
@@ -26807,63 +26781,63 @@
         <v>251</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
       <c r="J675" s="0" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D676" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1536</v>
+        <v>1808</v>
       </c>
       <c r="F676" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
       <c r="H676" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1538</v>
+        <v>1812</v>
       </c>
       <c r="F677" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
         <v>0</v>
       </c>
       <c r="G677" s="0" t="s">
@@ -26872,28 +26846,31 @@
       <c r="H677" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="I677" s="0" t="s">
+        <v>1813</v>
+      </c>
       <c r="J677" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>1541</v>
+        <v>1816</v>
       </c>
       <c r="F678" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G678" s="0" t="s">
@@ -26903,27 +26880,27 @@
         <v>251</v>
       </c>
       <c r="J678" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D679" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="F679" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G679" s="0" t="s">
@@ -26933,18 +26910,18 @@
         <v>251</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="J679" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>80</v>
@@ -26953,10 +26930,10 @@
         <v>55</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="F680" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G680" s="0" t="s">
@@ -26966,18 +26943,18 @@
         <v>251</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="J680" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>80</v>
@@ -26986,10 +26963,10 @@
         <v>55</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="F681" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G681" s="0" t="s">
@@ -26999,51 +26976,51 @@
         <v>251</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="J681" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1836</v>
+        <v>55</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1837</v>
+        <v>1551</v>
       </c>
       <c r="F682" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>250</v>
+        <v>1829</v>
       </c>
       <c r="H682" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="J682" s="0" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>80</v>
@@ -27052,28 +27029,28 @@
         <v>55</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1840</v>
+        <v>1553</v>
       </c>
       <c r="F683" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G683" s="0" t="s">
-        <v>1841</v>
+        <v>250</v>
       </c>
       <c r="H683" s="0" t="s">
         <v>251</v>
       </c>
       <c r="J683" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>80</v>
@@ -27082,40 +27059,214 @@
         <v>55</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>1843</v>
+        <v>1556</v>
       </c>
       <c r="F684" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G684" s="0" t="s">
-        <v>1844</v>
+        <v>250</v>
       </c>
       <c r="H684" s="0" t="s">
         <v>251</v>
       </c>
       <c r="J684" s="0" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D685" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E685" s="0" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F685" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G685" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H685" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I685" s="0" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J685" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E686" s="0" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F686" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G686" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H686" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I686" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J686" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F687" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G687" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H687" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I687" s="0" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J687" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E688" s="0" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F688" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G688" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H688" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I688" s="0" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J688" s="0" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E689" s="0" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F689" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G689" s="0" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H689" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J689" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C690" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D690" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E690" s="0" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F690" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G690" s="0" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H690" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J690" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5867" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5867" uniqueCount="1850">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3766,9 +3766,6 @@
     <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #404</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
   </si>
   <si>
@@ -3953,9 +3950,6 @@
   </si>
   <si>
     <t xml:space="preserve">Surface Upwelling Clean Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #405</t>
   </si>
   <si>
     <t xml:space="preserve">Surface Upwelling Clear-sky, Aerosol Free Shortwave Radiation</t>
@@ -5687,8 +5681,8 @@
   </sheetPr>
   <dimension ref="A1:J690"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A505" activeCellId="0" sqref="505:505"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G455" activeCellId="0" sqref="G455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19248,13 +19242,13 @@
         <v>0</v>
       </c>
       <c r="G430" s="0" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="H430" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I430" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J430" s="0" t="s">
         <v>1016</v>
@@ -19265,29 +19259,29 @@
         <v>1006</v>
       </c>
       <c r="B431" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E431" s="0" t="s">
         <v>1250</v>
-      </c>
-      <c r="C431" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D431" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>1251</v>
       </c>
       <c r="F431" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G431" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H431" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I431" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J431" s="0" t="s">
         <v>1072</v>
@@ -19298,29 +19292,29 @@
         <v>1006</v>
       </c>
       <c r="B432" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E432" s="0" t="s">
         <v>1254</v>
-      </c>
-      <c r="C432" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D432" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E432" s="0" t="s">
-        <v>1255</v>
       </c>
       <c r="F432" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G432" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H432" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I432" s="0" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J432" s="0" t="s">
         <v>1072</v>
@@ -19331,7 +19325,7 @@
         <v>1006</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>12</v>
@@ -19340,7 +19334,7 @@
         <v>603</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F433" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8b3a5d37fefe0337625c64455cea4e80.html","web")</f>
@@ -19356,7 +19350,7 @@
         <v>968</v>
       </c>
       <c r="J433" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19364,16 +19358,16 @@
         <v>1006</v>
       </c>
       <c r="B434" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E434" s="0" t="s">
         <v>1260</v>
-      </c>
-      <c r="C434" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D434" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>1261</v>
       </c>
       <c r="F434" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cff597224d260da1a1c769aab1bbea9d.html","web")</f>
@@ -19397,16 +19391,16 @@
         <v>1006</v>
       </c>
       <c r="B435" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E435" s="0" t="s">
         <v>1262</v>
-      </c>
-      <c r="C435" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D435" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>1263</v>
       </c>
       <c r="F435" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
@@ -19419,7 +19413,7 @@
         <v>75</v>
       </c>
       <c r="I435" s="0" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J435" s="0" t="s">
         <v>1016</v>
@@ -19430,16 +19424,16 @@
         <v>1006</v>
       </c>
       <c r="B436" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E436" s="0" t="s">
         <v>1265</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>1266</v>
       </c>
       <c r="F436" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b1f3e86dde718e8c9697df0c3992c06.html","web")</f>
@@ -19452,7 +19446,7 @@
         <v>75</v>
       </c>
       <c r="I436" s="0" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J436" s="0" t="s">
         <v>1016</v>
@@ -19463,7 +19457,7 @@
         <v>1006</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>12</v>
@@ -19472,17 +19466,17 @@
         <v>603</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F437" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9982868916859ae8b64cc83cbed896af.html","web")</f>
         <v>0</v>
       </c>
       <c r="G437" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I437" s="0" t="s">
         <v>1270</v>
-      </c>
-      <c r="I437" s="0" t="s">
-        <v>1271</v>
       </c>
       <c r="J437" s="0" t="s">
         <v>1015</v>
@@ -19493,16 +19487,16 @@
         <v>1006</v>
       </c>
       <c r="B438" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E438" s="0" t="s">
         <v>1272</v>
-      </c>
-      <c r="C438" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D438" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E438" s="0" t="s">
-        <v>1273</v>
       </c>
       <c r="F438" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0b3fc46bf32dfbd9d36cdb72e827eb29.html","web")</f>
@@ -19515,7 +19509,7 @@
         <v>75</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J438" s="0" t="s">
         <v>1016</v>
@@ -19526,16 +19520,16 @@
         <v>1006</v>
       </c>
       <c r="B439" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E439" s="0" t="s">
         <v>1275</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D439" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>1276</v>
       </c>
       <c r="F439" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f914086f4c1cd76f867eef7cd71154d.html","web")</f>
@@ -19548,7 +19542,7 @@
         <v>75</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J439" s="0" t="s">
         <v>1055</v>
@@ -19559,16 +19553,16 @@
         <v>1006</v>
       </c>
       <c r="B440" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E440" s="0" t="s">
         <v>1278</v>
-      </c>
-      <c r="C440" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D440" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E440" s="0" t="s">
-        <v>1279</v>
       </c>
       <c r="F440" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa4309c2c15be0c9d7db2f9d38f348ca.html","web")</f>
@@ -19581,7 +19575,7 @@
         <v>75</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J440" s="0" t="s">
         <v>1016</v>
@@ -19592,16 +19586,16 @@
         <v>1006</v>
       </c>
       <c r="B441" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E441" s="0" t="s">
         <v>1281</v>
-      </c>
-      <c r="C441" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>1282</v>
       </c>
       <c r="F441" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2899d1c267c92e3fbaccd21b55472.html","web")</f>
@@ -19614,7 +19608,7 @@
         <v>75</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J441" s="0" t="s">
         <v>1016</v>
@@ -19625,16 +19619,16 @@
         <v>1006</v>
       </c>
       <c r="B442" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E442" s="0" t="s">
         <v>1284</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D442" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E442" s="0" t="s">
-        <v>1285</v>
       </c>
       <c r="F442" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ecfae3e2adc49321ec4c9d664fd425ec.html","web")</f>
@@ -19647,7 +19641,7 @@
         <v>75</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="J442" s="0" t="s">
         <v>1016</v>
@@ -19658,16 +19652,16 @@
         <v>1006</v>
       </c>
       <c r="B443" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E443" s="0" t="s">
         <v>1287</v>
-      </c>
-      <c r="C443" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D443" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E443" s="0" t="s">
-        <v>1288</v>
       </c>
       <c r="F443" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/646edc2e8f1c393b5569dba5d598f8c8.html","web")</f>
@@ -19680,7 +19674,7 @@
         <v>75</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J443" s="0" t="s">
         <v>1016</v>
@@ -19691,16 +19685,16 @@
         <v>1006</v>
       </c>
       <c r="B444" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E444" s="0" t="s">
         <v>1290</v>
-      </c>
-      <c r="C444" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D444" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E444" s="0" t="s">
-        <v>1291</v>
       </c>
       <c r="F444" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c670517b02de6212f3091aaa455f60ed.html","web")</f>
@@ -19713,7 +19707,7 @@
         <v>75</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J444" s="0" t="s">
         <v>1072</v>
@@ -19724,16 +19718,16 @@
         <v>1006</v>
       </c>
       <c r="B445" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E445" s="0" t="s">
         <v>1292</v>
-      </c>
-      <c r="C445" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D445" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E445" s="0" t="s">
-        <v>1293</v>
       </c>
       <c r="F445" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a3383a3abeddbcb0d27368a8cf9b9503.html","web")</f>
@@ -19746,7 +19740,7 @@
         <v>75</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J445" s="0" t="s">
         <v>1072</v>
@@ -19757,16 +19751,16 @@
         <v>1006</v>
       </c>
       <c r="B446" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E446" s="0" t="s">
         <v>1295</v>
-      </c>
-      <c r="C446" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D446" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E446" s="0" t="s">
-        <v>1296</v>
       </c>
       <c r="F446" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c97520628498eea6e19cc1be19c73677.html","web")</f>
@@ -19779,7 +19773,7 @@
         <v>75</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J446" s="0" t="s">
         <v>1072</v>
@@ -19790,16 +19784,16 @@
         <v>1006</v>
       </c>
       <c r="B447" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E447" s="0" t="s">
         <v>1298</v>
-      </c>
-      <c r="C447" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D447" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E447" s="0" t="s">
-        <v>1299</v>
       </c>
       <c r="F447" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/228d3ad84f6db126c53ac4ae0a18a014.html","web")</f>
@@ -19821,7 +19815,7 @@
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>224</v>
@@ -19846,12 +19840,12 @@
         <v>213</v>
       </c>
       <c r="J449" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>227</v>
@@ -19860,7 +19854,7 @@
         <v>12</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>630</v>
@@ -19879,12 +19873,12 @@
         <v>231</v>
       </c>
       <c r="J450" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>232</v>
@@ -19893,7 +19887,7 @@
         <v>12</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E451" s="0" t="s">
         <v>234</v>
@@ -19912,12 +19906,12 @@
         <v>236</v>
       </c>
       <c r="J451" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>237</v>
@@ -19926,7 +19920,7 @@
         <v>12</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E452" s="0" t="s">
         <v>239</v>
@@ -19945,15 +19939,15 @@
         <v>241</v>
       </c>
       <c r="J452" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C453" s="0" t="s">
         <v>12</v>
@@ -19962,31 +19956,31 @@
         <v>292</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F453" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G453" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H453" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J453" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>12</v>
@@ -19995,31 +19989,31 @@
         <v>292</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F454" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590daf66-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="H454" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J454" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>12</v>
@@ -20028,31 +20022,31 @@
         <v>292</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F455" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>1311</v>
+        <v>1244</v>
       </c>
       <c r="H455" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J455" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C456" s="0" t="s">
         <v>12</v>
@@ -20061,28 +20055,28 @@
         <v>292</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F456" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H456" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J456" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>982</v>
@@ -20091,7 +20085,7 @@
         <v>12</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E457" s="0" t="s">
         <v>1031</v>
@@ -20110,12 +20104,12 @@
         <v>968</v>
       </c>
       <c r="J457" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>973</v>
@@ -20124,7 +20118,7 @@
         <v>12</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E458" s="0" t="s">
         <v>1047</v>
@@ -20143,12 +20137,12 @@
         <v>968</v>
       </c>
       <c r="J458" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>965</v>
@@ -20157,7 +20151,7 @@
         <v>12</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E459" s="0" t="s">
         <v>1184</v>
@@ -20176,13 +20170,13 @@
         <v>968</v>
       </c>
       <c r="J459" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>994</v>
@@ -20210,12 +20204,12 @@
         <v>996</v>
       </c>
       <c r="J461" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>602</v>
@@ -20224,7 +20218,7 @@
         <v>54</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E462" s="0" t="s">
         <v>604</v>
@@ -20243,12 +20237,12 @@
         <v>604</v>
       </c>
       <c r="J462" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>616</v>
@@ -20257,7 +20251,7 @@
         <v>54</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E463" s="0" t="s">
         <v>617</v>
@@ -20276,25 +20270,25 @@
         <v>617</v>
       </c>
       <c r="J463" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E465" s="0" t="s">
         <v>1320</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C465" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D465" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E465" s="0" t="s">
-        <v>1322</v>
       </c>
       <c r="F465" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f70b088300f35ad3b19c67d2490612dd.html","web")</f>
@@ -20307,7 +20301,7 @@
         <v>75</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J465" s="0" t="s">
         <v>77</v>
@@ -20315,10 +20309,10 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C466" s="0" t="s">
         <v>12</v>
@@ -20327,7 +20321,7 @@
         <v>55</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F466" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a503e8c8011c952b0b832e6074ad387d.html","web")</f>
@@ -20340,7 +20334,7 @@
         <v>75</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="J466" s="0" t="s">
         <v>77</v>
@@ -20348,7 +20342,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>1197</v>
@@ -20381,10 +20375,10 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>12</v>
@@ -20393,7 +20387,7 @@
         <v>55</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F468" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0656a67a-b896-11e6-a189-5404a60d96b5.html","web")</f>
@@ -20414,10 +20408,10 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>12</v>
@@ -20426,7 +20420,7 @@
         <v>55</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F469" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/79fec430c1dca1ac4b48b0fc36c48449.html","web")</f>
@@ -20439,7 +20433,7 @@
         <v>75</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J469" s="0" t="s">
         <v>77</v>
@@ -20448,7 +20442,7 @@
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>126</v>
@@ -20457,10 +20451,10 @@
         <v>54</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F471" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/120719dde7f96f9bc088acd33b97967f.html","web")</f>
@@ -20476,12 +20470,12 @@
         <v>128</v>
       </c>
       <c r="J471" s="0" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>129</v>
@@ -20490,10 +20484,10 @@
         <v>54</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F472" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52b1076476b074a18a91b9da1baa6bc3.html","web")</f>
@@ -20509,24 +20503,24 @@
         <v>131</v>
       </c>
       <c r="J472" s="0" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F473" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70094996b08eba1d39c13d30dc44b30f.html","web")</f>
@@ -20539,12 +20533,12 @@
         <v>58</v>
       </c>
       <c r="J473" s="0" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>132</v>
@@ -20553,10 +20547,10 @@
         <v>54</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F474" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dfd869cd3463de6a57b2a9e10605efe7.html","web")</f>
@@ -20572,24 +20566,24 @@
         <v>134</v>
       </c>
       <c r="J474" s="0" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C475" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F475" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5f19c4be9ae133db06403c986c8136d6.html","web")</f>
@@ -20602,24 +20596,24 @@
         <v>58</v>
       </c>
       <c r="J475" s="0" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F476" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9e50f2bc84a18f56a9c317be11770663.html","web")</f>
@@ -20632,24 +20626,24 @@
         <v>58</v>
       </c>
       <c r="J476" s="0" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F477" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/abb3f8b62cc0e93f4ef5487c41ef10cb.html","web")</f>
@@ -20662,24 +20656,24 @@
         <v>58</v>
       </c>
       <c r="J477" s="0" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C478" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F478" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1cf6c7fa0adedf95b3eaad5fb3f96b1c.html","web")</f>
@@ -20692,27 +20686,27 @@
         <v>58</v>
       </c>
       <c r="I478" s="0" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J478" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C479" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F479" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b02d071fff99f2632aa8ac5e83e92215.html","web")</f>
@@ -20725,27 +20719,27 @@
         <v>58</v>
       </c>
       <c r="I479" s="0" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J479" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C480" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F480" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/478c43820503be64675fb49227d2f999.html","web")</f>
@@ -20758,24 +20752,24 @@
         <v>58</v>
       </c>
       <c r="J480" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C481" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F481" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb27046ce21470dfbbecdd4f7eca546a.html","web")</f>
@@ -20788,27 +20782,27 @@
         <v>58</v>
       </c>
       <c r="I481" s="0" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="J481" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C482" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F482" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f56a3a44b60650b58309b1d8cf58b913.html","web")</f>
@@ -20821,19 +20815,19 @@
         <v>58</v>
       </c>
       <c r="I482" s="0" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J482" s="0" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>12</v>
@@ -20842,7 +20836,7 @@
         <v>938</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F484" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f1b8ddb539cb96eb65453dce4c8bb978.html","web")</f>
@@ -20855,15 +20849,15 @@
         <v>58</v>
       </c>
       <c r="I484" s="0" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="J484" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>658</v>
@@ -20872,10 +20866,10 @@
         <v>12</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F485" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9122e7b627c429163fd0857dc366e14e.html","web")</f>
@@ -20896,10 +20890,10 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C486" s="0" t="s">
         <v>12</v>
@@ -20908,7 +20902,7 @@
         <v>938</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F486" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62c5b9728a01c0031e3a788ac4c8eff5.html","web")</f>
@@ -20921,27 +20915,27 @@
         <v>58</v>
       </c>
       <c r="I486" s="0" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J486" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B487" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E487" s="0" t="s">
         <v>1371</v>
-      </c>
-      <c r="C487" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D487" s="0" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E487" s="0" t="s">
-        <v>1373</v>
       </c>
       <c r="F487" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/20e7d22ad09b324af00f41f6060701a7.html","web")</f>
@@ -20954,18 +20948,18 @@
         <v>58</v>
       </c>
       <c r="I487" s="0" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J487" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C488" s="0" t="s">
         <v>12</v>
@@ -20974,7 +20968,7 @@
         <v>938</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F488" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d3ef4c73895a317948f1f3870f65834.html","web")</f>
@@ -20987,15 +20981,15 @@
         <v>58</v>
       </c>
       <c r="I488" s="0" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J488" s="0" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>757</v>
@@ -21023,25 +21017,25 @@
         <v>759</v>
       </c>
       <c r="J489" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F491" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -21054,28 +21048,28 @@
         <v>251</v>
       </c>
       <c r="I491" s="0" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J491" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E493" s="0" t="s">
         <v>1384</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C493" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D493" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E493" s="0" t="s">
-        <v>1386</v>
       </c>
       <c r="F493" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
@@ -21088,27 +21082,27 @@
         <v>251</v>
       </c>
       <c r="I493" s="0" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J493" s="0" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C494" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D494" s="0" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F494" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -21121,51 +21115,51 @@
         <v>251</v>
       </c>
       <c r="I494" s="0" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J494" s="0" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C495" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F495" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G495" s="0" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H495" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I495" s="0" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="J495" s="0" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C496" s="0" t="s">
         <v>12</v>
@@ -21174,28 +21168,28 @@
         <v>55</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F496" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G496" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H496" s="0" t="s">
         <v>614</v>
       </c>
       <c r="J496" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C497" s="0" t="s">
         <v>80</v>
@@ -21204,7 +21198,7 @@
         <v>55</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F497" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
@@ -21222,10 +21216,10 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C498" s="0" t="s">
         <v>12</v>
@@ -21234,31 +21228,31 @@
         <v>55</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F498" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ea93e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G498" s="0" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H498" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="J498" s="0" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C499" s="0" t="s">
         <v>12</v>
@@ -21267,31 +21261,31 @@
         <v>55</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F499" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G499" s="0" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H499" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I499" s="0" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="J499" s="0" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C500" s="0" t="s">
         <v>12</v>
@@ -21300,31 +21294,31 @@
         <v>55</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F500" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G500" s="0" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H500" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I500" s="0" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="J500" s="0" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C501" s="0" t="s">
         <v>12</v>
@@ -21333,31 +21327,31 @@
         <v>55</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F501" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G501" s="0" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H501" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I501" s="0" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J501" s="0" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C502" s="0" t="s">
         <v>12</v>
@@ -21366,20 +21360,20 @@
         <v>55</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F502" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93e06dd7c756aade75235d7841c05269.html","web")</f>
         <v>0</v>
       </c>
       <c r="G502" s="0" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="H502" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I502" s="0" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="J502" s="0" t="s">
         <v>946</v>
@@ -21387,10 +21381,10 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>12</v>
@@ -21399,20 +21393,20 @@
         <v>55</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F503" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G503" s="0" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H503" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I503" s="0" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J503" s="0" t="s">
         <v>997</v>
@@ -21420,10 +21414,10 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>1</v>
@@ -21432,13 +21426,13 @@
         <v>55</v>
       </c>
       <c r="E505" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F505" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G505" s="0" t="s">
         <v>1428</v>
-      </c>
-      <c r="F505" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G505" s="0" t="s">
-        <v>1430</v>
       </c>
       <c r="H505" s="0" t="s">
         <v>251</v>
@@ -21449,10 +21443,10 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>1</v>
@@ -21461,13 +21455,13 @@
         <v>55</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G506" s="0" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H506" s="0" t="s">
         <v>251</v>
@@ -21478,10 +21472,10 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>1</v>
@@ -21490,19 +21484,19 @@
         <v>55</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G507" s="0" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="H507" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I507" s="0" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="J507" s="0" t="s">
         <v>25</v>
@@ -21510,10 +21504,10 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>1</v>
@@ -21522,19 +21516,19 @@
         <v>55</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G508" s="0" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H508" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I508" s="0" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J508" s="0" t="s">
         <v>25</v>
@@ -21542,7 +21536,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>982</v>
@@ -21575,7 +21569,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>1113</v>
@@ -21608,7 +21602,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>1119</v>
@@ -21641,10 +21635,10 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>12</v>
@@ -21653,7 +21647,7 @@
         <v>947</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F514" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
@@ -21666,7 +21660,7 @@
         <v>75</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J514" s="0" t="s">
         <v>77</v>
@@ -21674,10 +21668,10 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>12</v>
@@ -21686,7 +21680,7 @@
         <v>947</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F515" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
@@ -21699,7 +21693,7 @@
         <v>75</v>
       </c>
       <c r="I515" s="0" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="J515" s="0" t="s">
         <v>77</v>
@@ -21707,7 +21701,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>965</v>
@@ -21740,7 +21734,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>1234</v>
@@ -21773,7 +21767,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>1041</v>
@@ -21785,7 +21779,7 @@
         <v>292</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F519" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
@@ -21801,12 +21795,12 @@
         <v>1044</v>
       </c>
       <c r="J519" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>242</v>
@@ -21815,7 +21809,7 @@
         <v>80</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E520" s="0" t="s">
         <v>244</v>
@@ -21834,12 +21828,12 @@
         <v>245</v>
       </c>
       <c r="J520" s="0" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>1113</v>
@@ -21848,7 +21842,7 @@
         <v>80</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E521" s="0" t="s">
         <v>1114</v>
@@ -21867,12 +21861,12 @@
         <v>1115</v>
       </c>
       <c r="J521" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>199</v>
@@ -21884,7 +21878,7 @@
         <v>55</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F523" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -21905,11 +21899,11 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B524" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="B524" s="0" t="s">
-        <v>1455</v>
-      </c>
       <c r="C524" s="0" t="s">
         <v>12</v>
       </c>
@@ -21917,14 +21911,14 @@
         <v>55</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F524" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G524" s="0" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H524" s="0" t="s">
         <v>614</v>
@@ -21938,7 +21932,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>291</v>
@@ -21966,24 +21960,24 @@
         <v>294</v>
       </c>
       <c r="J526" s="0" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F527" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -21996,18 +21990,18 @@
         <v>251</v>
       </c>
       <c r="I527" s="0" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J527" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>12</v>
@@ -22016,7 +22010,7 @@
         <v>55</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F528" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22029,18 +22023,18 @@
         <v>251</v>
       </c>
       <c r="I528" s="0" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="J528" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>12</v>
@@ -22049,7 +22043,7 @@
         <v>55</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F529" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22062,18 +22056,18 @@
         <v>251</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J529" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>12</v>
@@ -22082,7 +22076,7 @@
         <v>55</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F530" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22095,15 +22089,15 @@
         <v>251</v>
       </c>
       <c r="J530" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>12</v>
@@ -22112,7 +22106,7 @@
         <v>55</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F531" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22125,18 +22119,18 @@
         <v>251</v>
       </c>
       <c r="I531" s="0" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="J531" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>12</v>
@@ -22145,7 +22139,7 @@
         <v>55</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="F532" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22158,18 +22152,18 @@
         <v>251</v>
       </c>
       <c r="I532" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="J532" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>12</v>
@@ -22178,7 +22172,7 @@
         <v>55</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F533" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22191,18 +22185,18 @@
         <v>251</v>
       </c>
       <c r="I533" s="0" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="J533" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>12</v>
@@ -22211,7 +22205,7 @@
         <v>55</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F534" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22224,18 +22218,18 @@
         <v>251</v>
       </c>
       <c r="I534" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J534" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>12</v>
@@ -22244,7 +22238,7 @@
         <v>55</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F535" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22257,18 +22251,18 @@
         <v>251</v>
       </c>
       <c r="I535" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J535" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>12</v>
@@ -22277,7 +22271,7 @@
         <v>55</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F536" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22290,18 +22284,18 @@
         <v>251</v>
       </c>
       <c r="I536" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J536" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>12</v>
@@ -22310,7 +22304,7 @@
         <v>55</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F537" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22323,18 +22317,18 @@
         <v>251</v>
       </c>
       <c r="I537" s="0" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="J537" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>12</v>
@@ -22343,7 +22337,7 @@
         <v>55</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F538" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22356,18 +22350,18 @@
         <v>251</v>
       </c>
       <c r="I538" s="0" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="J538" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>12</v>
@@ -22376,7 +22370,7 @@
         <v>55</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F539" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -22389,18 +22383,18 @@
         <v>251</v>
       </c>
       <c r="I539" s="0" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="J539" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>12</v>
@@ -22409,7 +22403,7 @@
         <v>55</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F540" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22422,15 +22416,15 @@
         <v>251</v>
       </c>
       <c r="J540" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>12</v>
@@ -22439,7 +22433,7 @@
         <v>55</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F541" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22452,15 +22446,15 @@
         <v>251</v>
       </c>
       <c r="J541" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>12</v>
@@ -22469,7 +22463,7 @@
         <v>55</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F542" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22482,15 +22476,15 @@
         <v>251</v>
       </c>
       <c r="J542" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>12</v>
@@ -22499,7 +22493,7 @@
         <v>55</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F543" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22512,15 +22506,15 @@
         <v>251</v>
       </c>
       <c r="J543" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>12</v>
@@ -22529,7 +22523,7 @@
         <v>55</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F544" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22542,15 +22536,15 @@
         <v>251</v>
       </c>
       <c r="J544" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>12</v>
@@ -22559,7 +22553,7 @@
         <v>55</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F545" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22572,18 +22566,18 @@
         <v>251</v>
       </c>
       <c r="I545" s="0" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="J545" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>12</v>
@@ -22592,7 +22586,7 @@
         <v>55</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F546" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22605,15 +22599,15 @@
         <v>251</v>
       </c>
       <c r="J546" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>12</v>
@@ -22622,7 +22616,7 @@
         <v>55</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F547" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22635,18 +22629,18 @@
         <v>251</v>
       </c>
       <c r="I547" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="J547" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>12</v>
@@ -22655,7 +22649,7 @@
         <v>55</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F548" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -22668,27 +22662,27 @@
         <v>251</v>
       </c>
       <c r="I548" s="0" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J548" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B549" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D549" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E549" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="C549" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D549" s="0" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E549" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="F549" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22701,27 +22695,27 @@
         <v>251</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="J549" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B550" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E550" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="C550" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D550" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E550" s="0" t="s">
-        <v>1522</v>
       </c>
       <c r="F550" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22734,27 +22728,27 @@
         <v>251</v>
       </c>
       <c r="I550" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="J550" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B551" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D551" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E551" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="C551" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D551" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E551" s="0" t="s">
-        <v>1526</v>
       </c>
       <c r="F551" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22767,27 +22761,27 @@
         <v>251</v>
       </c>
       <c r="I551" s="0" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="J551" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B552" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D552" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E552" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="C552" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D552" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E552" s="0" t="s">
-        <v>1530</v>
       </c>
       <c r="F552" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22800,27 +22794,27 @@
         <v>251</v>
       </c>
       <c r="I552" s="0" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="J552" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B553" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D553" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E553" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="C553" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D553" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E553" s="0" t="s">
-        <v>1534</v>
       </c>
       <c r="F553" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22833,27 +22827,27 @@
         <v>251</v>
       </c>
       <c r="I553" s="0" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="J553" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C554" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F554" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -22866,27 +22860,27 @@
         <v>251</v>
       </c>
       <c r="I554" s="0" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="J554" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="F555" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -22899,18 +22893,18 @@
         <v>251</v>
       </c>
       <c r="I555" s="0" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="J555" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>80</v>
@@ -22919,7 +22913,7 @@
         <v>55</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F556" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22932,18 +22926,18 @@
         <v>251</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="J556" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>80</v>
@@ -22952,7 +22946,7 @@
         <v>55</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="F557" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22965,18 +22959,18 @@
         <v>251</v>
       </c>
       <c r="I557" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J557" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>80</v>
@@ -22985,7 +22979,7 @@
         <v>55</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F558" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -22998,15 +22992,15 @@
         <v>251</v>
       </c>
       <c r="J558" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>80</v>
@@ -23015,7 +23009,7 @@
         <v>55</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F559" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23028,18 +23022,18 @@
         <v>251</v>
       </c>
       <c r="I559" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="J559" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C560" s="0" t="s">
         <v>80</v>
@@ -23048,7 +23042,7 @@
         <v>55</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="F560" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23061,18 +23055,18 @@
         <v>251</v>
       </c>
       <c r="I560" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="J560" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C561" s="0" t="s">
         <v>80</v>
@@ -23081,7 +23075,7 @@
         <v>55</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F561" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23094,18 +23088,18 @@
         <v>251</v>
       </c>
       <c r="I561" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="J561" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C562" s="0" t="s">
         <v>80</v>
@@ -23114,7 +23108,7 @@
         <v>55</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="F562" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23127,18 +23121,18 @@
         <v>251</v>
       </c>
       <c r="I562" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="J562" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C563" s="0" t="s">
         <v>80</v>
@@ -23147,7 +23141,7 @@
         <v>55</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F563" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23160,18 +23154,18 @@
         <v>251</v>
       </c>
       <c r="I563" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="J563" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>80</v>
@@ -23180,7 +23174,7 @@
         <v>55</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F564" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23193,18 +23187,18 @@
         <v>251</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="J564" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>80</v>
@@ -23213,7 +23207,7 @@
         <v>55</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F565" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23226,18 +23220,18 @@
         <v>251</v>
       </c>
       <c r="I565" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J565" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>80</v>
@@ -23246,7 +23240,7 @@
         <v>55</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F566" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23259,18 +23253,18 @@
         <v>251</v>
       </c>
       <c r="I566" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J566" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>80</v>
@@ -23279,7 +23273,7 @@
         <v>55</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F567" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23292,18 +23286,18 @@
         <v>251</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J567" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>80</v>
@@ -23312,7 +23306,7 @@
         <v>55</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F568" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23325,18 +23319,18 @@
         <v>251</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="J568" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>80</v>
@@ -23345,7 +23339,7 @@
         <v>55</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="F569" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23358,18 +23352,18 @@
         <v>251</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="J569" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>80</v>
@@ -23378,7 +23372,7 @@
         <v>55</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F570" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23391,18 +23385,18 @@
         <v>251</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="J570" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>80</v>
@@ -23411,7 +23405,7 @@
         <v>55</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F571" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23424,18 +23418,18 @@
         <v>251</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J571" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>80</v>
@@ -23444,7 +23438,7 @@
         <v>55</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F572" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23457,18 +23451,18 @@
         <v>251</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J572" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>80</v>
@@ -23477,7 +23471,7 @@
         <v>55</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F573" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23490,18 +23484,18 @@
         <v>251</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="J573" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>80</v>
@@ -23510,7 +23504,7 @@
         <v>55</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F574" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23523,18 +23517,18 @@
         <v>251</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="J574" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>80</v>
@@ -23543,7 +23537,7 @@
         <v>55</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F575" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
@@ -23556,18 +23550,18 @@
         <v>251</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="J575" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>80</v>
@@ -23576,7 +23570,7 @@
         <v>55</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F576" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23589,18 +23583,18 @@
         <v>251</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>80</v>
@@ -23609,7 +23603,7 @@
         <v>55</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="F577" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23622,18 +23616,18 @@
         <v>251</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="J577" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>80</v>
@@ -23642,7 +23636,7 @@
         <v>55</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F578" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23655,15 +23649,15 @@
         <v>251</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>80</v>
@@ -23672,7 +23666,7 @@
         <v>55</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="F579" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23685,18 +23679,18 @@
         <v>251</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>80</v>
@@ -23705,7 +23699,7 @@
         <v>55</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F580" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23718,18 +23712,18 @@
         <v>251</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J580" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>80</v>
@@ -23738,7 +23732,7 @@
         <v>55</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F581" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23751,18 +23745,18 @@
         <v>251</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J581" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>80</v>
@@ -23771,7 +23765,7 @@
         <v>55</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F582" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23784,15 +23778,15 @@
         <v>251</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>80</v>
@@ -23801,7 +23795,7 @@
         <v>55</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F583" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
@@ -23814,15 +23808,15 @@
         <v>251</v>
       </c>
       <c r="J583" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>80</v>
@@ -23831,7 +23825,7 @@
         <v>55</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F584" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
@@ -23844,15 +23838,15 @@
         <v>251</v>
       </c>
       <c r="J584" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>80</v>
@@ -23861,7 +23855,7 @@
         <v>55</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F585" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23874,18 +23868,18 @@
         <v>251</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="J585" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>80</v>
@@ -23894,7 +23888,7 @@
         <v>55</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F586" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23907,18 +23901,18 @@
         <v>251</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="J586" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>12</v>
@@ -23927,7 +23921,7 @@
         <v>55</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F587" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23940,15 +23934,15 @@
         <v>251</v>
       </c>
       <c r="J587" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C588" s="0" t="s">
         <v>80</v>
@@ -23957,7 +23951,7 @@
         <v>55</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F588" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -23970,15 +23964,15 @@
         <v>251</v>
       </c>
       <c r="J588" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>80</v>
@@ -23987,7 +23981,7 @@
         <v>55</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F589" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24000,12 +23994,12 @@
         <v>251</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>88</v>
@@ -24033,15 +24027,15 @@
         <v>90</v>
       </c>
       <c r="J590" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>12</v>
@@ -24050,40 +24044,40 @@
         <v>55</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="F591" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="H591" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B592" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E592" s="0" t="s">
         <v>1638</v>
-      </c>
-      <c r="C592" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D592" s="0" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E592" s="0" t="s">
-        <v>1640</v>
       </c>
       <c r="F592" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24096,7 +24090,7 @@
         <v>58</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="J592" s="0" t="s">
         <v>253</v>
@@ -24104,19 +24098,19 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B593" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C593" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E593" s="0" t="s">
         <v>1642</v>
-      </c>
-      <c r="C593" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D593" s="0" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E593" s="0" t="s">
-        <v>1644</v>
       </c>
       <c r="F593" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24129,7 +24123,7 @@
         <v>58</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>253</v>
@@ -24137,19 +24131,19 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B594" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C594" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D594" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E594" s="0" t="s">
         <v>1646</v>
-      </c>
-      <c r="C594" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D594" s="0" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E594" s="0" t="s">
-        <v>1648</v>
       </c>
       <c r="F594" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24162,7 +24156,7 @@
         <v>58</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>253</v>
@@ -24170,7 +24164,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>95</v>
@@ -24198,12 +24192,12 @@
         <v>97</v>
       </c>
       <c r="J595" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>99</v>
@@ -24231,12 +24225,12 @@
         <v>101</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>102</v>
@@ -24264,12 +24258,12 @@
         <v>104</v>
       </c>
       <c r="J597" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>105</v>
@@ -24297,12 +24291,12 @@
         <v>107</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B599" s="0" t="s">
         <v>108</v>
@@ -24330,12 +24324,12 @@
         <v>110</v>
       </c>
       <c r="J599" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>111</v>
@@ -24363,12 +24357,12 @@
         <v>113</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>114</v>
@@ -24396,12 +24390,12 @@
         <v>116</v>
       </c>
       <c r="J601" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>117</v>
@@ -24429,12 +24423,12 @@
         <v>119</v>
       </c>
       <c r="J602" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>120</v>
@@ -24462,12 +24456,12 @@
         <v>122</v>
       </c>
       <c r="J603" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>123</v>
@@ -24495,12 +24489,12 @@
         <v>125</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>71</v>
@@ -24528,15 +24522,15 @@
         <v>76</v>
       </c>
       <c r="J605" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C606" s="0" t="s">
         <v>12</v>
@@ -24545,31 +24539,31 @@
         <v>55</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F606" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H606" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="J606" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>12</v>
@@ -24578,31 +24572,31 @@
         <v>55</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F607" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G607" s="0" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H607" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="J607" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>12</v>
@@ -24611,7 +24605,7 @@
         <v>55</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F608" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24624,7 +24618,7 @@
         <v>58</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>18</v>
@@ -24632,10 +24626,10 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>12</v>
@@ -24644,31 +24638,31 @@
         <v>55</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F609" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="H609" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>12</v>
@@ -24677,7 +24671,7 @@
         <v>55</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F610" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
@@ -24690,18 +24684,18 @@
         <v>251</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>80</v>
@@ -24710,7 +24704,7 @@
         <v>55</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F611" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
@@ -24723,18 +24717,18 @@
         <v>251</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>12</v>
@@ -24743,7 +24737,7 @@
         <v>304</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F612" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24756,7 +24750,7 @@
         <v>251</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>283</v>
@@ -24764,10 +24758,10 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>12</v>
@@ -24776,7 +24770,7 @@
         <v>304</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F613" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24789,7 +24783,7 @@
         <v>251</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>283</v>
@@ -24797,10 +24791,10 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>12</v>
@@ -24809,7 +24803,7 @@
         <v>304</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F614" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24822,7 +24816,7 @@
         <v>251</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>283</v>
@@ -24830,10 +24824,10 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>12</v>
@@ -24842,7 +24836,7 @@
         <v>304</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F615" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24855,7 +24849,7 @@
         <v>251</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>283</v>
@@ -24863,10 +24857,10 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>12</v>
@@ -24875,7 +24869,7 @@
         <v>304</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F616" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24888,7 +24882,7 @@
         <v>251</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>283</v>
@@ -24896,10 +24890,10 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>12</v>
@@ -24908,7 +24902,7 @@
         <v>304</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F617" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24921,7 +24915,7 @@
         <v>251</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>283</v>
@@ -24929,19 +24923,19 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B618" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C618" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E618" s="0" t="s">
         <v>1691</v>
-      </c>
-      <c r="C618" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D618" s="0" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E618" s="0" t="s">
-        <v>1693</v>
       </c>
       <c r="F618" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24954,7 +24948,7 @@
         <v>251</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>283</v>
@@ -24962,10 +24956,10 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>12</v>
@@ -24974,7 +24968,7 @@
         <v>304</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F619" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -24987,7 +24981,7 @@
         <v>251</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>283</v>
@@ -24995,19 +24989,19 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B620" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E620" s="0" t="s">
         <v>1698</v>
-      </c>
-      <c r="C620" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D620" s="0" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E620" s="0" t="s">
-        <v>1700</v>
       </c>
       <c r="F620" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25020,7 +25014,7 @@
         <v>251</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>283</v>
@@ -25028,10 +25022,10 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>12</v>
@@ -25040,7 +25034,7 @@
         <v>304</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F621" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25053,7 +25047,7 @@
         <v>251</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>283</v>
@@ -25061,10 +25055,10 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>12</v>
@@ -25073,7 +25067,7 @@
         <v>304</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F622" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25086,7 +25080,7 @@
         <v>251</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>283</v>
@@ -25094,10 +25088,10 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>12</v>
@@ -25106,7 +25100,7 @@
         <v>304</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F623" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -25124,10 +25118,10 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>12</v>
@@ -25136,7 +25130,7 @@
         <v>304</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F624" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -25149,7 +25143,7 @@
         <v>251</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>283</v>
@@ -25157,10 +25151,10 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>12</v>
@@ -25169,7 +25163,7 @@
         <v>304</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F625" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -25182,7 +25176,7 @@
         <v>251</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>283</v>
@@ -25190,10 +25184,10 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C626" s="0" t="s">
         <v>12</v>
@@ -25202,7 +25196,7 @@
         <v>304</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F626" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -25215,7 +25209,7 @@
         <v>251</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>283</v>
@@ -25223,10 +25217,10 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>12</v>
@@ -25235,7 +25229,7 @@
         <v>304</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F627" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -25248,7 +25242,7 @@
         <v>251</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>283</v>
@@ -25256,7 +25250,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>309</v>
@@ -25289,10 +25283,10 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>12</v>
@@ -25301,20 +25295,20 @@
         <v>55</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F629" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G629" s="0" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H629" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>946</v>
@@ -25322,10 +25316,10 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>12</v>
@@ -25334,31 +25328,31 @@
         <v>55</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F630" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G630" s="0" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H630" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J630" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C631" s="0" t="s">
         <v>12</v>
@@ -25367,31 +25361,31 @@
         <v>55</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F631" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G631" s="0" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H631" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="J631" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>12</v>
@@ -25400,20 +25394,20 @@
         <v>55</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="F632" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G632" s="0" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H632" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>946</v>
@@ -25421,10 +25415,10 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>12</v>
@@ -25433,20 +25427,20 @@
         <v>55</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F633" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G633" s="0" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H633" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>946</v>
@@ -25454,10 +25448,10 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>12</v>
@@ -25466,20 +25460,20 @@
         <v>55</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F634" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G634" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H634" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>946</v>
@@ -25487,10 +25481,10 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C635" s="0" t="s">
         <v>12</v>
@@ -25499,20 +25493,20 @@
         <v>55</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F635" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G635" s="0" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H635" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>946</v>
@@ -25520,10 +25514,10 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C636" s="0" t="s">
         <v>12</v>
@@ -25532,20 +25526,20 @@
         <v>55</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F636" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
         <v>0</v>
       </c>
       <c r="G636" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H636" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>946</v>
@@ -25553,40 +25547,40 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C637" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F637" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G637" s="0" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H637" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="J637" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>267</v>
@@ -25614,24 +25608,24 @@
         <v>270</v>
       </c>
       <c r="J638" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B639" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E639" s="0" t="s">
         <v>1740</v>
-      </c>
-      <c r="C639" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D639" s="0" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E639" s="0" t="s">
-        <v>1742</v>
       </c>
       <c r="F639" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25644,27 +25638,27 @@
         <v>251</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J639" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B640" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D640" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E640" s="0" t="s">
         <v>1744</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D640" s="0" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E640" s="0" t="s">
-        <v>1746</v>
       </c>
       <c r="F640" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25677,27 +25671,27 @@
         <v>251</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J640" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B641" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E641" s="0" t="s">
         <v>1748</v>
-      </c>
-      <c r="C641" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D641" s="0" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E641" s="0" t="s">
-        <v>1750</v>
       </c>
       <c r="F641" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25710,18 +25704,18 @@
         <v>251</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J641" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>12</v>
@@ -25730,7 +25724,7 @@
         <v>55</v>
       </c>
       <c r="E642" s="0" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F642" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25743,18 +25737,18 @@
         <v>251</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J642" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C643" s="0" t="s">
         <v>80</v>
@@ -25763,7 +25757,7 @@
         <v>55</v>
       </c>
       <c r="E643" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F643" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25776,18 +25770,18 @@
         <v>251</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J643" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C644" s="0" t="s">
         <v>12</v>
@@ -25796,7 +25790,7 @@
         <v>55</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F644" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25809,18 +25803,18 @@
         <v>251</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J644" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C645" s="0" t="s">
         <v>12</v>
@@ -25829,7 +25823,7 @@
         <v>55</v>
       </c>
       <c r="E645" s="0" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F645" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25842,18 +25836,18 @@
         <v>251</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J645" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>12</v>
@@ -25862,7 +25856,7 @@
         <v>55</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F646" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25875,24 +25869,24 @@
         <v>251</v>
       </c>
       <c r="J646" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C647" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F647" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -25905,7 +25899,7 @@
         <v>58</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>946</v>
@@ -25913,10 +25907,10 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>12</v>
@@ -25925,7 +25919,7 @@
         <v>55</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F648" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
@@ -25938,15 +25932,15 @@
         <v>58</v>
       </c>
       <c r="J648" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C649" s="0" t="s">
         <v>12</v>
@@ -25955,7 +25949,7 @@
         <v>55</v>
       </c>
       <c r="E649" s="0" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F649" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
@@ -25968,18 +25962,18 @@
         <v>58</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="J649" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C650" s="0" t="s">
         <v>12</v>
@@ -25988,28 +25982,28 @@
         <v>1008</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F650" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G650" s="0" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H650" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J650" s="0" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>1152</v>
@@ -26042,10 +26036,10 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C652" s="0" t="s">
         <v>12</v>
@@ -26054,20 +26048,20 @@
         <v>55</v>
       </c>
       <c r="E652" s="0" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F652" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H652" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>946</v>
@@ -26075,10 +26069,10 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C653" s="0" t="s">
         <v>12</v>
@@ -26087,7 +26081,7 @@
         <v>55</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F653" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -26100,7 +26094,7 @@
         <v>614</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>946</v>
@@ -26108,10 +26102,10 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>12</v>
@@ -26120,20 +26114,20 @@
         <v>603</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F654" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G654" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H654" s="0" t="s">
         <v>614</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>946</v>
@@ -26141,10 +26135,10 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>12</v>
@@ -26153,14 +26147,14 @@
         <v>55</v>
       </c>
       <c r="E655" s="0" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F655" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G655" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H655" s="0" t="s">
         <v>614</v>
@@ -26171,10 +26165,10 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>12</v>
@@ -26183,14 +26177,14 @@
         <v>603</v>
       </c>
       <c r="E656" s="0" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F656" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G656" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H656" s="0" t="s">
         <v>614</v>
@@ -26201,10 +26195,10 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C657" s="0" t="s">
         <v>12</v>
@@ -26213,20 +26207,20 @@
         <v>55</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F657" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G657" s="0" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H657" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>997</v>
@@ -26234,10 +26228,10 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C659" s="0" t="s">
         <v>80</v>
@@ -26246,7 +26240,7 @@
         <v>55</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F659" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
@@ -26259,18 +26253,18 @@
         <v>251</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J659" s="0" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C660" s="0" t="s">
         <v>12</v>
@@ -26279,7 +26273,7 @@
         <v>55</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F660" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
@@ -26292,18 +26286,18 @@
         <v>251</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="J660" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C661" s="0" t="s">
         <v>12</v>
@@ -26312,28 +26306,28 @@
         <v>55</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F661" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
         <v>0</v>
       </c>
       <c r="G661" s="0" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="H661" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="J661" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>247</v>
@@ -26361,12 +26355,12 @@
         <v>252</v>
       </c>
       <c r="J662" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>254</v>
@@ -26394,12 +26388,12 @@
         <v>257</v>
       </c>
       <c r="J663" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>258</v>
@@ -26427,12 +26421,12 @@
         <v>262</v>
       </c>
       <c r="J664" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>263</v>
@@ -26460,24 +26454,24 @@
         <v>266</v>
       </c>
       <c r="J665" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B666" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C666" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E666" s="0" t="s">
         <v>1790</v>
-      </c>
-      <c r="C666" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D666" s="0" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E666" s="0" t="s">
-        <v>1792</v>
       </c>
       <c r="F666" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
@@ -26490,15 +26484,15 @@
         <v>251</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J666" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>271</v>
@@ -26526,12 +26520,12 @@
         <v>274</v>
       </c>
       <c r="J667" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>275</v>
@@ -26559,12 +26553,12 @@
         <v>278</v>
       </c>
       <c r="J668" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>295</v>
@@ -26592,12 +26586,12 @@
         <v>297</v>
       </c>
       <c r="J669" s="0" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>298</v>
@@ -26622,12 +26616,12 @@
         <v>251</v>
       </c>
       <c r="J670" s="0" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>300</v>
@@ -26655,15 +26649,15 @@
         <v>302</v>
       </c>
       <c r="J671" s="0" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>12</v>
@@ -26672,7 +26666,7 @@
         <v>55</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F672" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
@@ -26685,18 +26679,18 @@
         <v>251</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J672" s="0" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>12</v>
@@ -26705,7 +26699,7 @@
         <v>55</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F673" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
@@ -26718,15 +26712,15 @@
         <v>251</v>
       </c>
       <c r="J673" s="0" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>12</v>
@@ -26735,31 +26729,31 @@
         <v>55</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F674" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H674" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="J674" s="0" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>12</v>
@@ -26768,7 +26762,7 @@
         <v>55</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F675" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
@@ -26781,18 +26775,18 @@
         <v>251</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="J675" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>12</v>
@@ -26801,31 +26795,31 @@
         <v>55</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F676" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H676" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>12</v>
@@ -26834,7 +26828,7 @@
         <v>55</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F677" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
@@ -26847,18 +26841,18 @@
         <v>251</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="J677" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>12</v>
@@ -26867,7 +26861,7 @@
         <v>55</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F678" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
@@ -26880,15 +26874,15 @@
         <v>251</v>
       </c>
       <c r="J678" s="0" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>12</v>
@@ -26897,7 +26891,7 @@
         <v>55</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F679" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
@@ -26910,18 +26904,18 @@
         <v>251</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J679" s="0" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>80</v>
@@ -26930,7 +26924,7 @@
         <v>55</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F680" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
@@ -26943,18 +26937,18 @@
         <v>251</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J680" s="0" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>80</v>
@@ -26963,7 +26957,7 @@
         <v>55</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F681" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
@@ -26976,18 +26970,18 @@
         <v>251</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J681" s="0" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>80</v>
@@ -26996,31 +26990,31 @@
         <v>55</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F682" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="H682" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="J682" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>80</v>
@@ -27029,7 +27023,7 @@
         <v>55</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F683" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
@@ -27042,15 +27036,15 @@
         <v>251</v>
       </c>
       <c r="J683" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>80</v>
@@ -27059,7 +27053,7 @@
         <v>55</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="F684" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
@@ -27072,15 +27066,15 @@
         <v>251</v>
       </c>
       <c r="J684" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C685" s="0" t="s">
         <v>80</v>
@@ -27089,7 +27083,7 @@
         <v>55</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="F685" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
@@ -27102,18 +27096,18 @@
         <v>251</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J685" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>80</v>
@@ -27122,7 +27116,7 @@
         <v>55</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="F686" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
@@ -27135,18 +27129,18 @@
         <v>251</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J686" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C687" s="0" t="s">
         <v>80</v>
@@ -27155,7 +27149,7 @@
         <v>55</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F687" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
@@ -27168,27 +27162,27 @@
         <v>251</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="J687" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C688" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F688" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
@@ -27201,18 +27195,18 @@
         <v>251</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="J688" s="0" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C689" s="0" t="s">
         <v>80</v>
@@ -27221,28 +27215,28 @@
         <v>55</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F689" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="H689" s="0" t="s">
         <v>251</v>
       </c>
       <c r="J689" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>80</v>
@@ -27251,20 +27245,20 @@
         <v>55</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F690" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G690" s="0" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="H690" s="0" t="s">
         <v>251</v>
       </c>
       <c r="J690" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1852">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4348,6 +4348,15 @@
     <t xml:space="preserve">at surface; potential flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
   </si>
   <si>
+    <t xml:space="preserve">prrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Rainfall rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availlable in IFS: Precip. flux from convection liquid grib 128.107, this is a 3D field so the surface field has to be extracted from this. So only level 91 needs to be outputted.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AERmonZ</t>
   </si>
   <si>
@@ -4385,15 +4394,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rainfall Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Rainfall rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availlable in IFS: Precip. flux from convection liquid grib 128.107, this is a 3D field so the surface field has to be extracted from this. So only level 91 needs to be outputted.</t>
   </si>
   <si>
     <t xml:space="preserve">Emon</t>
@@ -5689,10 +5689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J691"/>
+  <dimension ref="A1:J692"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G196" activeCellId="5" sqref="G13:G16 G21:G58 G110:G115 G117:G148 G150:G179 G196:G197 G199:G212 G214:G238 G240:G242 G244:G248 G250 G255:G313 G317 G319 G336:G338 G472:G483 G485:G490 G498 G591 G593:G605 G609 G648:G650"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A486" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A511" activeCellId="0" sqref="A511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21577,45 +21577,45 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B511" s="0" t="s">
         <v>1442</v>
       </c>
-      <c r="B512" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="C512" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D512" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="E512" s="0" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F512" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G512" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H512" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I512" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="J512" s="0" t="s">
-        <v>77</v>
+      <c r="C511" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F511" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="G511" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H511" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="I511" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J511" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1115</v>
+        <v>984</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>12</v>
@@ -21624,10 +21624,10 @@
         <v>949</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="F513" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7f4c49e8abe3230e87fa7299b73448fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G513" s="0" t="s">
@@ -21637,7 +21637,7 @@
         <v>75</v>
       </c>
       <c r="I513" s="0" t="s">
-        <v>1117</v>
+        <v>970</v>
       </c>
       <c r="J513" s="0" t="s">
         <v>77</v>
@@ -21645,10 +21645,10 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>12</v>
@@ -21657,10 +21657,10 @@
         <v>949</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F514" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G514" s="0" t="s">
@@ -21670,7 +21670,7 @@
         <v>75</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>970</v>
+        <v>1117</v>
       </c>
       <c r="J514" s="0" t="s">
         <v>77</v>
@@ -21678,10 +21678,10 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1443</v>
+        <v>1121</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>12</v>
@@ -21690,10 +21690,10 @@
         <v>949</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1444</v>
+        <v>1122</v>
       </c>
       <c r="F515" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/07ae8a0c132c9bf65a2722885a2fcd08.html","web")</f>
         <v>0</v>
       </c>
       <c r="G515" s="0" t="s">
@@ -21703,7 +21703,7 @@
         <v>75</v>
       </c>
       <c r="I515" s="0" t="s">
-        <v>1445</v>
+        <v>970</v>
       </c>
       <c r="J515" s="0" t="s">
         <v>77</v>
@@ -21711,7 +21711,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>1446</v>
@@ -21726,7 +21726,7 @@
         <v>1447</v>
       </c>
       <c r="F516" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96f51020-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G516" s="0" t="s">
@@ -21744,10 +21744,10 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>967</v>
+        <v>1449</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>12</v>
@@ -21756,10 +21756,10 @@
         <v>949</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>1186</v>
+        <v>1450</v>
       </c>
       <c r="F517" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e29fbc42-b095-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G517" s="0" t="s">
@@ -21769,7 +21769,7 @@
         <v>75</v>
       </c>
       <c r="I517" s="0" t="s">
-        <v>970</v>
+        <v>1451</v>
       </c>
       <c r="J517" s="0" t="s">
         <v>77</v>
@@ -21777,10 +21777,10 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1236</v>
+        <v>967</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>12</v>
@@ -21789,10 +21789,10 @@
         <v>949</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>1237</v>
+        <v>1186</v>
       </c>
       <c r="F518" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G518" s="0" t="s">
@@ -21808,90 +21808,90 @@
         <v>77</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C520" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D520" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E520" s="0" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F520" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G520" s="0" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H520" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I520" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J520" s="0" t="s">
-        <v>1302</v>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F519" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/609d47152c2ed8122caa2528117aff9a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G519" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H519" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I519" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="J519" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>245</v>
+        <v>1043</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1451</v>
+        <v>295</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>247</v>
+        <v>1453</v>
       </c>
       <c r="F521" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4e6ce0bc3ad0814b4c0523304965513f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G521" s="0" t="s">
-        <v>74</v>
+        <v>1045</v>
       </c>
       <c r="H521" s="0" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I521" s="0" t="s">
-        <v>248</v>
+        <v>1046</v>
       </c>
       <c r="J521" s="0" t="s">
-        <v>1452</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1115</v>
+        <v>245</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1317</v>
+        <v>1454</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>1116</v>
+        <v>247</v>
       </c>
       <c r="F522" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G522" s="0" t="s">
@@ -21901,70 +21901,70 @@
         <v>75</v>
       </c>
       <c r="I522" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J522" s="0" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F523" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a7cf325e9bf994ade073a1297378a57c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G523" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H523" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I523" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="J522" s="0" t="s">
+      <c r="J523" s="0" t="s">
         <v>1302</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D524" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E524" s="0" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F524" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G524" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H524" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="I524" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J524" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1455</v>
+        <v>202</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D525" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F525" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G525" s="0" t="s">
-        <v>1457</v>
+        <v>205</v>
       </c>
       <c r="H525" s="0" t="s">
-        <v>617</v>
+        <v>206</v>
       </c>
       <c r="I525" s="0" t="s">
         <v>207</v>
@@ -21973,37 +21973,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B527" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C527" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D527" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E527" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F527" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c08493dc9183b6ec7005a6be27f67f1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G527" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H527" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I527" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="J527" s="0" t="s">
-        <v>1459</v>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F526" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G526" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H526" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="I526" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J526" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22011,19 +22011,19 @@
         <v>1458</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1380</v>
+        <v>294</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1389</v>
+        <v>55</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>1390</v>
+        <v>296</v>
       </c>
       <c r="F528" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c08493dc9183b6ec7005a6be27f67f1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G528" s="0" t="s">
@@ -22033,10 +22033,10 @@
         <v>254</v>
       </c>
       <c r="I528" s="0" t="s">
-        <v>1383</v>
+        <v>297</v>
       </c>
       <c r="J528" s="0" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22044,19 +22044,19 @@
         <v>1458</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1461</v>
+        <v>1380</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>55</v>
+        <v>1389</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>1462</v>
+        <v>1390</v>
       </c>
       <c r="F529" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591389b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G529" s="0" t="s">
@@ -22066,10 +22066,10 @@
         <v>254</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1463</v>
+        <v>1383</v>
       </c>
       <c r="J529" s="0" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22077,7 +22077,7 @@
         <v>1458</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>12</v>
@@ -22086,10 +22086,10 @@
         <v>55</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="F530" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ddf9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G530" s="0" t="s">
@@ -22099,7 +22099,7 @@
         <v>254</v>
       </c>
       <c r="I530" s="0" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="J530" s="0" t="s">
         <v>1464</v>
@@ -22110,7 +22110,7 @@
         <v>1458</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>12</v>
@@ -22119,10 +22119,10 @@
         <v>55</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="F531" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f58de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G531" s="0" t="s">
@@ -22130,6 +22130,9 @@
       </c>
       <c r="H531" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I531" s="0" t="s">
+        <v>1467</v>
       </c>
       <c r="J531" s="0" t="s">
         <v>1464</v>
@@ -22140,7 +22143,7 @@
         <v>1458</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>12</v>
@@ -22149,10 +22152,10 @@
         <v>55</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F532" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f933a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G532" s="0" t="s">
@@ -22160,9 +22163,6 @@
       </c>
       <c r="H532" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I532" s="0" t="s">
-        <v>1472</v>
       </c>
       <c r="J532" s="0" t="s">
         <v>1464</v>
@@ -22173,7 +22173,7 @@
         <v>1458</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>12</v>
@@ -22182,10 +22182,10 @@
         <v>55</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="F533" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149f2e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G533" s="0" t="s">
@@ -22195,7 +22195,7 @@
         <v>254</v>
       </c>
       <c r="I533" s="0" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="J533" s="0" t="s">
         <v>1464</v>
@@ -22206,7 +22206,7 @@
         <v>1458</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>12</v>
@@ -22215,10 +22215,10 @@
         <v>55</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="F534" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913de9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G534" s="0" t="s">
@@ -22228,7 +22228,7 @@
         <v>254</v>
       </c>
       <c r="I534" s="0" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="J534" s="0" t="s">
         <v>1464</v>
@@ -22239,7 +22239,7 @@
         <v>1458</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>12</v>
@@ -22248,10 +22248,10 @@
         <v>55</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="F535" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G535" s="0" t="s">
@@ -22261,10 +22261,10 @@
         <v>254</v>
       </c>
       <c r="I535" s="0" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="J535" s="0" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22272,7 +22272,7 @@
         <v>1458</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>12</v>
@@ -22281,10 +22281,10 @@
         <v>55</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="F536" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e70f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G536" s="0" t="s">
@@ -22305,7 +22305,7 @@
         <v>1458</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>12</v>
@@ -22314,10 +22314,10 @@
         <v>55</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F537" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917f21e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G537" s="0" t="s">
@@ -22338,7 +22338,7 @@
         <v>1458</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>12</v>
@@ -22347,10 +22347,10 @@
         <v>55</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F538" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59142e0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G538" s="0" t="s">
@@ -22360,10 +22360,10 @@
         <v>254</v>
       </c>
       <c r="I538" s="0" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="J538" s="0" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22371,7 +22371,7 @@
         <v>1458</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>12</v>
@@ -22380,10 +22380,10 @@
         <v>55</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="F539" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913fa10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G539" s="0" t="s">
@@ -22393,7 +22393,7 @@
         <v>254</v>
       </c>
       <c r="I539" s="0" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J539" s="0" t="s">
         <v>1464</v>
@@ -22404,7 +22404,7 @@
         <v>1458</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>12</v>
@@ -22413,10 +22413,10 @@
         <v>55</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="F540" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591478be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G540" s="0" t="s">
@@ -22426,7 +22426,7 @@
         <v>254</v>
       </c>
       <c r="I540" s="0" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="J540" s="0" t="s">
         <v>1464</v>
@@ -22437,7 +22437,7 @@
         <v>1458</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>12</v>
@@ -22446,10 +22446,10 @@
         <v>55</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F541" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09af8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G541" s="0" t="s">
@@ -22457,6 +22457,9 @@
       </c>
       <c r="H541" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I541" s="0" t="s">
+        <v>1495</v>
       </c>
       <c r="J541" s="0" t="s">
         <v>1464</v>
@@ -22467,7 +22470,7 @@
         <v>1458</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>12</v>
@@ -22476,10 +22479,10 @@
         <v>55</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F542" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bfe6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G542" s="0" t="s">
@@ -22497,7 +22500,7 @@
         <v>1458</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>12</v>
@@ -22506,10 +22509,10 @@
         <v>55</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F543" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2ed8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G543" s="0" t="s">
@@ -22519,7 +22522,7 @@
         <v>254</v>
       </c>
       <c r="J543" s="0" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22527,7 +22530,7 @@
         <v>1458</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>12</v>
@@ -22536,10 +22539,10 @@
         <v>55</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F544" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G544" s="0" t="s">
@@ -22557,7 +22560,7 @@
         <v>1458</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>12</v>
@@ -22566,10 +22569,10 @@
         <v>55</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F545" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dda36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G545" s="0" t="s">
@@ -22579,7 +22582,7 @@
         <v>254</v>
       </c>
       <c r="J545" s="0" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22587,7 +22590,7 @@
         <v>1458</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>12</v>
@@ -22596,10 +22599,10 @@
         <v>55</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F546" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913ba00-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G546" s="0" t="s">
@@ -22607,9 +22610,6 @@
       </c>
       <c r="H546" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I546" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="J546" s="0" t="s">
         <v>1464</v>
@@ -22620,7 +22620,7 @@
         <v>1458</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>12</v>
@@ -22629,10 +22629,10 @@
         <v>55</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="F547" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151c42-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G547" s="0" t="s">
@@ -22640,6 +22640,9 @@
       </c>
       <c r="H547" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I547" s="0" t="s">
+        <v>1508</v>
       </c>
       <c r="J547" s="0" t="s">
         <v>1464</v>
@@ -22650,7 +22653,7 @@
         <v>1458</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>12</v>
@@ -22659,10 +22662,10 @@
         <v>55</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F548" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ded6e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G548" s="0" t="s">
@@ -22670,9 +22673,6 @@
       </c>
       <c r="H548" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I548" s="0" t="s">
-        <v>1475</v>
       </c>
       <c r="J548" s="0" t="s">
         <v>1464</v>
@@ -22683,7 +22683,7 @@
         <v>1458</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>12</v>
@@ -22692,10 +22692,10 @@
         <v>55</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F549" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e3e0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G549" s="0" t="s">
@@ -22705,7 +22705,7 @@
         <v>254</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1515</v>
+        <v>1475</v>
       </c>
       <c r="J549" s="0" t="s">
         <v>1464</v>
@@ -22716,19 +22716,19 @@
         <v>1458</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1517</v>
+        <v>55</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F550" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ea44-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G550" s="0" t="s">
@@ -22738,10 +22738,10 @@
         <v>254</v>
       </c>
       <c r="I550" s="0" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="J550" s="0" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22749,19 +22749,19 @@
         <v>1458</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C551" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="F551" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131672-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G551" s="0" t="s">
@@ -22771,7 +22771,7 @@
         <v>254</v>
       </c>
       <c r="I551" s="0" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="J551" s="0" t="s">
         <v>1482</v>
@@ -22782,19 +22782,19 @@
         <v>1458</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C552" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="F552" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914dbb0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G552" s="0" t="s">
@@ -22804,7 +22804,7 @@
         <v>254</v>
       </c>
       <c r="I552" s="0" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="J552" s="0" t="s">
         <v>1482</v>
@@ -22815,19 +22815,19 @@
         <v>1458</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="F553" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ccba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G553" s="0" t="s">
@@ -22837,7 +22837,7 @@
         <v>254</v>
       </c>
       <c r="I553" s="0" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="J553" s="0" t="s">
         <v>1482</v>
@@ -22848,19 +22848,19 @@
         <v>1458</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C554" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="F554" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc8ac-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G554" s="0" t="s">
@@ -22870,7 +22870,7 @@
         <v>254</v>
       </c>
       <c r="I554" s="0" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="J554" s="0" t="s">
         <v>1482</v>
@@ -22881,19 +22881,19 @@
         <v>1458</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="F555" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dc37a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G555" s="0" t="s">
@@ -22903,10 +22903,10 @@
         <v>254</v>
       </c>
       <c r="I555" s="0" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="J555" s="0" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22914,19 +22914,19 @@
         <v>1458</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F556" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f091c0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G556" s="0" t="s">
@@ -22936,7 +22936,7 @@
         <v>254</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="J556" s="0" t="s">
         <v>1464</v>
@@ -22947,19 +22947,19 @@
         <v>1458</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>55</v>
+        <v>1541</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="F557" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84eff3c8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G557" s="0" t="s">
@@ -22969,7 +22969,7 @@
         <v>254</v>
       </c>
       <c r="I557" s="0" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="J557" s="0" t="s">
         <v>1464</v>
@@ -22980,7 +22980,7 @@
         <v>1458</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>80</v>
@@ -22989,10 +22989,10 @@
         <v>55</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="F558" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171df8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G558" s="0" t="s">
@@ -23002,7 +23002,7 @@
         <v>254</v>
       </c>
       <c r="I558" s="0" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="J558" s="0" t="s">
         <v>1464</v>
@@ -23013,7 +23013,7 @@
         <v>1458</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>80</v>
@@ -23022,10 +23022,10 @@
         <v>55</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="F559" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b748-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G559" s="0" t="s">
@@ -23033,6 +23033,9 @@
       </c>
       <c r="H559" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I559" s="0" t="s">
+        <v>1549</v>
       </c>
       <c r="J559" s="0" t="s">
         <v>1464</v>
@@ -23043,7 +23046,7 @@
         <v>1458</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C560" s="0" t="s">
         <v>80</v>
@@ -23052,10 +23055,10 @@
         <v>55</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F560" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912b196-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G560" s="0" t="s">
@@ -23063,9 +23066,6 @@
       </c>
       <c r="H560" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I560" s="0" t="s">
-        <v>1554</v>
       </c>
       <c r="J560" s="0" t="s">
         <v>1464</v>
@@ -23076,7 +23076,7 @@
         <v>1458</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C561" s="0" t="s">
         <v>80</v>
@@ -23085,10 +23085,10 @@
         <v>55</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F561" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f4c7c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G561" s="0" t="s">
@@ -23098,7 +23098,7 @@
         <v>254</v>
       </c>
       <c r="I561" s="0" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="J561" s="0" t="s">
         <v>1464</v>
@@ -23109,7 +23109,7 @@
         <v>1458</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C562" s="0" t="s">
         <v>80</v>
@@ -23118,10 +23118,10 @@
         <v>55</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="F562" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913b4ec-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G562" s="0" t="s">
@@ -23131,7 +23131,7 @@
         <v>254</v>
       </c>
       <c r="I562" s="0" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="J562" s="0" t="s">
         <v>1464</v>
@@ -23142,7 +23142,7 @@
         <v>1458</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C563" s="0" t="s">
         <v>80</v>
@@ -23151,10 +23151,10 @@
         <v>55</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="F563" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e2f36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G563" s="0" t="s">
@@ -23175,7 +23175,7 @@
         <v>1458</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>80</v>
@@ -23184,10 +23184,10 @@
         <v>55</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F564" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914f2a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G564" s="0" t="s">
@@ -23197,7 +23197,7 @@
         <v>254</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="J564" s="0" t="s">
         <v>1464</v>
@@ -23208,7 +23208,7 @@
         <v>1458</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>80</v>
@@ -23217,10 +23217,10 @@
         <v>55</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="F565" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eb456-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G565" s="0" t="s">
@@ -23230,7 +23230,7 @@
         <v>254</v>
       </c>
       <c r="I565" s="0" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="J565" s="0" t="s">
         <v>1464</v>
@@ -23241,7 +23241,7 @@
         <v>1458</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>80</v>
@@ -23250,10 +23250,10 @@
         <v>55</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="F566" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591491e6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G566" s="0" t="s">
@@ -23263,7 +23263,7 @@
         <v>254</v>
       </c>
       <c r="I566" s="0" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="J566" s="0" t="s">
         <v>1464</v>
@@ -23274,7 +23274,7 @@
         <v>1458</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>80</v>
@@ -23283,10 +23283,10 @@
         <v>55</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="F567" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590db236-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G567" s="0" t="s">
@@ -23307,7 +23307,7 @@
         <v>1458</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>80</v>
@@ -23316,10 +23316,10 @@
         <v>55</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F568" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2bfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G568" s="0" t="s">
@@ -23340,7 +23340,7 @@
         <v>1458</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>80</v>
@@ -23349,10 +23349,10 @@
         <v>55</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F569" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b2cc-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G569" s="0" t="s">
@@ -23362,7 +23362,7 @@
         <v>254</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>1464</v>
@@ -23373,7 +23373,7 @@
         <v>1458</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>80</v>
@@ -23382,10 +23382,10 @@
         <v>55</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="F570" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136654-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G570" s="0" t="s">
@@ -23395,7 +23395,7 @@
         <v>254</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="J570" s="0" t="s">
         <v>1464</v>
@@ -23406,7 +23406,7 @@
         <v>1458</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>80</v>
@@ -23415,10 +23415,10 @@
         <v>55</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F571" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G571" s="0" t="s">
@@ -23428,7 +23428,7 @@
         <v>254</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="J571" s="0" t="s">
         <v>1464</v>
@@ -23439,7 +23439,7 @@
         <v>1458</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>80</v>
@@ -23448,10 +23448,10 @@
         <v>55</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="F572" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10236-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G572" s="0" t="s">
@@ -23461,7 +23461,7 @@
         <v>254</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="J572" s="0" t="s">
         <v>1464</v>
@@ -23472,7 +23472,7 @@
         <v>1458</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>80</v>
@@ -23481,10 +23481,10 @@
         <v>55</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="F573" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0afac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G573" s="0" t="s">
@@ -23494,7 +23494,7 @@
         <v>254</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J573" s="0" t="s">
         <v>1464</v>
@@ -23505,7 +23505,7 @@
         <v>1458</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>80</v>
@@ -23514,10 +23514,10 @@
         <v>55</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="F574" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10e7a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G574" s="0" t="s">
@@ -23527,7 +23527,7 @@
         <v>254</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J574" s="0" t="s">
         <v>1464</v>
@@ -23538,7 +23538,7 @@
         <v>1458</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>80</v>
@@ -23547,10 +23547,10 @@
         <v>55</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="F575" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b8d0-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G575" s="0" t="s">
@@ -23560,7 +23560,7 @@
         <v>254</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J575" s="0" t="s">
         <v>1464</v>
@@ -23571,7 +23571,7 @@
         <v>1458</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>80</v>
@@ -23580,10 +23580,10 @@
         <v>55</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="F576" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0b5e2-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G576" s="0" t="s">
@@ -23593,7 +23593,7 @@
         <v>254</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="J576" s="0" t="s">
         <v>1464</v>
@@ -23604,7 +23604,7 @@
         <v>1458</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>80</v>
@@ -23613,10 +23613,10 @@
         <v>55</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="F577" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f105a6-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G577" s="0" t="s">
@@ -23626,7 +23626,7 @@
         <v>254</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="J577" s="0" t="s">
         <v>1464</v>
@@ -23637,7 +23637,7 @@
         <v>1458</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>80</v>
@@ -23646,10 +23646,10 @@
         <v>55</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="F578" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d9f1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G578" s="0" t="s">
@@ -23659,7 +23659,7 @@
         <v>254</v>
       </c>
       <c r="I578" s="0" t="s">
-        <v>1475</v>
+        <v>1602</v>
       </c>
       <c r="J578" s="0" t="s">
         <v>1464</v>
@@ -23670,7 +23670,7 @@
         <v>1458</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>80</v>
@@ -23679,10 +23679,10 @@
         <v>55</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F579" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591324be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G579" s="0" t="s">
@@ -23690,6 +23690,9 @@
       </c>
       <c r="H579" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I579" s="0" t="s">
+        <v>1475</v>
       </c>
       <c r="J579" s="0" t="s">
         <v>1464</v>
@@ -23700,7 +23703,7 @@
         <v>1458</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>80</v>
@@ -23709,10 +23712,10 @@
         <v>55</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="F580" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591397be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G580" s="0" t="s">
@@ -23720,9 +23723,6 @@
       </c>
       <c r="H580" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I580" s="0" t="s">
-        <v>1546</v>
       </c>
       <c r="J580" s="0" t="s">
         <v>1464</v>
@@ -23733,7 +23733,7 @@
         <v>1458</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>80</v>
@@ -23742,10 +23742,10 @@
         <v>55</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F581" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59128f0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G581" s="0" t="s">
@@ -23755,7 +23755,7 @@
         <v>254</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1611</v>
+        <v>1546</v>
       </c>
       <c r="J581" s="0" t="s">
         <v>1464</v>
@@ -23766,7 +23766,7 @@
         <v>1458</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>80</v>
@@ -23775,10 +23775,10 @@
         <v>55</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="F582" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136dfc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G582" s="0" t="s">
@@ -23788,7 +23788,7 @@
         <v>254</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1549</v>
+        <v>1611</v>
       </c>
       <c r="J582" s="0" t="s">
         <v>1464</v>
@@ -23799,7 +23799,7 @@
         <v>1458</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>80</v>
@@ -23808,10 +23808,10 @@
         <v>55</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F583" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cc94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G583" s="0" t="s">
@@ -23819,6 +23819,9 @@
       </c>
       <c r="H583" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I583" s="0" t="s">
+        <v>1549</v>
       </c>
       <c r="J583" s="0" t="s">
         <v>1464</v>
@@ -23829,7 +23832,7 @@
         <v>1458</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>80</v>
@@ -23838,10 +23841,10 @@
         <v>55</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F584" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914de26-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G584" s="0" t="s">
@@ -23859,7 +23862,7 @@
         <v>1458</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>80</v>
@@ -23868,10 +23871,10 @@
         <v>55</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F585" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c982aa-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G585" s="0" t="s">
@@ -23889,7 +23892,7 @@
         <v>1458</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>80</v>
@@ -23898,10 +23901,10 @@
         <v>55</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F586" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71c9768e-b8ab-11e6-97ab-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G586" s="0" t="s">
@@ -23909,9 +23912,6 @@
       </c>
       <c r="H586" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I586" s="0" t="s">
-        <v>1622</v>
       </c>
       <c r="J586" s="0" t="s">
         <v>1464</v>
@@ -23922,7 +23922,7 @@
         <v>1458</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>80</v>
@@ -23931,10 +23931,10 @@
         <v>55</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="F587" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59151012-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G587" s="0" t="s">
@@ -23944,7 +23944,7 @@
         <v>254</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="J587" s="0" t="s">
         <v>1464</v>
@@ -23955,19 +23955,19 @@
         <v>1458</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="F588" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59129468-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G588" s="0" t="s">
@@ -23976,8 +23976,11 @@
       <c r="H588" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="I588" s="0" t="s">
+        <v>1625</v>
+      </c>
       <c r="J588" s="0" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23985,19 +23988,19 @@
         <v>1458</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D589" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F589" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591514ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G589" s="0" t="s">
@@ -24007,7 +24010,7 @@
         <v>254</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24015,7 +24018,7 @@
         <v>1458</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>80</v>
@@ -24024,10 +24027,10 @@
         <v>55</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F590" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174d14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G590" s="0" t="s">
@@ -24045,7 +24048,7 @@
         <v>1458</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>91</v>
+        <v>1630</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>80</v>
@@ -24054,23 +24057,20 @@
         <v>55</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>92</v>
+        <v>1631</v>
       </c>
       <c r="F591" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913e156-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I591" s="0" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>1632</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24078,32 +24078,32 @@
         <v>1458</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1633</v>
+        <v>91</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D592" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1634</v>
+        <v>92</v>
       </c>
       <c r="F592" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/180d4bd9a18a9d5ecf3d45690b8e9c75.html","web")</f>
         <v>0</v>
       </c>
       <c r="G592" s="0" t="s">
-        <v>1635</v>
+        <v>57</v>
       </c>
       <c r="H592" s="0" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1636</v>
+        <v>93</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24111,32 +24111,32 @@
         <v>1458</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="C593" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1639</v>
+        <v>55</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="F593" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G593" s="0" t="s">
-        <v>57</v>
+        <v>1635</v>
       </c>
       <c r="H593" s="0" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="J593" s="0" t="s">
-        <v>256</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24144,19 +24144,19 @@
         <v>1458</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C594" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="F594" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d2b9a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G594" s="0" t="s">
@@ -24166,7 +24166,7 @@
         <v>58</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>256</v>
@@ -24177,19 +24177,19 @@
         <v>1458</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="E595" s="0" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="F595" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eda94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G595" s="0" t="s">
@@ -24199,7 +24199,7 @@
         <v>58</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="J595" s="0" t="s">
         <v>256</v>
@@ -24210,19 +24210,19 @@
         <v>1458</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>98</v>
+        <v>1646</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>81</v>
+        <v>1647</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>99</v>
+        <v>1648</v>
       </c>
       <c r="F596" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130bf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G596" s="0" t="s">
@@ -24232,10 +24232,10 @@
         <v>58</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>100</v>
+        <v>1649</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>1650</v>
+        <v>256</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24243,7 +24243,7 @@
         <v>1458</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>80</v>
@@ -24252,10 +24252,10 @@
         <v>81</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F597" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4c0cce59536f11df06a045fa8d0c091.html","web")</f>
         <v>0</v>
       </c>
       <c r="G597" s="0" t="s">
@@ -24265,7 +24265,7 @@
         <v>58</v>
       </c>
       <c r="I597" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J597" s="0" t="s">
         <v>1650</v>
@@ -24276,7 +24276,7 @@
         <v>1458</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>80</v>
@@ -24285,10 +24285,10 @@
         <v>81</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F598" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/479c5de8-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G598" s="0" t="s">
@@ -24298,7 +24298,7 @@
         <v>58</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J598" s="0" t="s">
         <v>1650</v>
@@ -24309,7 +24309,7 @@
         <v>1458</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>80</v>
@@ -24318,10 +24318,10 @@
         <v>81</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F599" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c172481027367670eaf1e53fb8d2e841.html","web")</f>
         <v>0</v>
       </c>
       <c r="G599" s="0" t="s">
@@ -24331,7 +24331,7 @@
         <v>58</v>
       </c>
       <c r="I599" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J599" s="0" t="s">
         <v>1650</v>
@@ -24342,7 +24342,7 @@
         <v>1458</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C600" s="0" t="s">
         <v>80</v>
@@ -24351,10 +24351,10 @@
         <v>81</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F600" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c5c71f969a6318b3fa5ff2875272caf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G600" s="0" t="s">
@@ -24364,7 +24364,7 @@
         <v>58</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J600" s="0" t="s">
         <v>1650</v>
@@ -24375,7 +24375,7 @@
         <v>1458</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C601" s="0" t="s">
         <v>80</v>
@@ -24384,10 +24384,10 @@
         <v>81</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F601" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c4b3f6005f73f2fc2d0e348fdff3c2bc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G601" s="0" t="s">
@@ -24397,7 +24397,7 @@
         <v>58</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J601" s="0" t="s">
         <v>1650</v>
@@ -24408,7 +24408,7 @@
         <v>1458</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C602" s="0" t="s">
         <v>80</v>
@@ -24417,10 +24417,10 @@
         <v>81</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F602" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14d70240caeb3a95922af16eca2d497b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G602" s="0" t="s">
@@ -24430,7 +24430,7 @@
         <v>58</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J602" s="0" t="s">
         <v>1650</v>
@@ -24441,7 +24441,7 @@
         <v>1458</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>80</v>
@@ -24450,10 +24450,10 @@
         <v>81</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F603" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4f1bd1a2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G603" s="0" t="s">
@@ -24463,7 +24463,7 @@
         <v>58</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J603" s="0" t="s">
         <v>1650</v>
@@ -24474,7 +24474,7 @@
         <v>1458</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>80</v>
@@ -24483,10 +24483,10 @@
         <v>81</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F604" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f507e49404f47a6255539751483d8bdc.html","web")</f>
         <v>0</v>
       </c>
       <c r="G604" s="0" t="s">
@@ -24496,7 +24496,7 @@
         <v>58</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>1650</v>
@@ -24507,7 +24507,7 @@
         <v>1458</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C605" s="0" t="s">
         <v>80</v>
@@ -24516,10 +24516,10 @@
         <v>81</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F605" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/02e08dbdee260db0debd5685cb62934f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G605" s="0" t="s">
@@ -24529,7 +24529,7 @@
         <v>58</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>1650</v>
@@ -24540,32 +24540,32 @@
         <v>1458</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="F606" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a41ce7d71eb9622c88b8f18438cbe36c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="J606" s="0" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24573,32 +24573,32 @@
         <v>1458</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1652</v>
+        <v>71</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1653</v>
+        <v>73</v>
       </c>
       <c r="F607" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
         <v>0</v>
       </c>
       <c r="G607" s="0" t="s">
-        <v>1654</v>
+        <v>74</v>
       </c>
       <c r="H607" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1655</v>
+        <v>76</v>
       </c>
       <c r="J607" s="0" t="s">
-        <v>1319</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24606,7 +24606,7 @@
         <v>1458</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>12</v>
@@ -24615,20 +24615,20 @@
         <v>55</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="F608" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G608" s="0" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="H608" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>1319</v>
@@ -24639,7 +24639,7 @@
         <v>1458</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>12</v>
@@ -24648,23 +24648,23 @@
         <v>55</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="F609" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>57</v>
+        <v>1658</v>
       </c>
       <c r="H609" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>18</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24672,7 +24672,7 @@
         <v>1458</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>12</v>
@@ -24681,23 +24681,23 @@
         <v>55</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="F610" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591505ae-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G610" s="0" t="s">
-        <v>1635</v>
+        <v>57</v>
       </c>
       <c r="H610" s="0" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>1666</v>
+        <v>18</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24705,7 +24705,7 @@
         <v>1458</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>12</v>
@@ -24714,20 +24714,20 @@
         <v>55</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="F611" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G611" s="0" t="s">
-        <v>253</v>
+        <v>1635</v>
       </c>
       <c r="H611" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>1666</v>
@@ -24738,19 +24738,19 @@
         <v>1458</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D612" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="F612" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2191e3410c3a2beedfec222f81f028b6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G612" s="0" t="s">
@@ -24760,7 +24760,7 @@
         <v>254</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>1666</v>
@@ -24771,19 +24771,19 @@
         <v>1458</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F613" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64d818a9a2f9e72570449c024070950e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G613" s="0" t="s">
@@ -24793,10 +24793,10 @@
         <v>254</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>286</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24804,7 +24804,7 @@
         <v>1458</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>12</v>
@@ -24813,10 +24813,10 @@
         <v>307</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F614" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590a8976-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G614" s="0" t="s">
@@ -24826,7 +24826,7 @@
         <v>254</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>286</v>
@@ -24837,7 +24837,7 @@
         <v>1458</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>12</v>
@@ -24846,10 +24846,10 @@
         <v>307</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="F615" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140726-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G615" s="0" t="s">
@@ -24859,7 +24859,7 @@
         <v>254</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>286</v>
@@ -24870,7 +24870,7 @@
         <v>1458</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>12</v>
@@ -24879,10 +24879,10 @@
         <v>307</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F616" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148a84-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G616" s="0" t="s">
@@ -24892,7 +24892,7 @@
         <v>254</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>286</v>
@@ -24903,7 +24903,7 @@
         <v>1458</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>12</v>
@@ -24912,10 +24912,10 @@
         <v>307</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="F617" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148f52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G617" s="0" t="s">
@@ -24925,7 +24925,7 @@
         <v>254</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>286</v>
@@ -24936,7 +24936,7 @@
         <v>1458</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>12</v>
@@ -24945,10 +24945,10 @@
         <v>307</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="F618" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a174-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G618" s="0" t="s">
@@ -24958,7 +24958,7 @@
         <v>254</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>286</v>
@@ -24969,19 +24969,19 @@
         <v>1458</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1692</v>
+        <v>307</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F619" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed0a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G619" s="0" t="s">
@@ -24991,7 +24991,7 @@
         <v>254</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>286</v>
@@ -25002,19 +25002,19 @@
         <v>1458</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>307</v>
+        <v>1692</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="F620" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170110-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G620" s="0" t="s">
@@ -25024,7 +25024,7 @@
         <v>254</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>286</v>
@@ -25035,19 +25035,19 @@
         <v>1458</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1699</v>
+        <v>307</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="F621" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8d36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G621" s="0" t="s">
@@ -25057,7 +25057,7 @@
         <v>254</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>286</v>
@@ -25068,19 +25068,19 @@
         <v>1458</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>307</v>
+        <v>1699</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="F622" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f983a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G622" s="0" t="s">
@@ -25090,7 +25090,7 @@
         <v>254</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>286</v>
@@ -25101,7 +25101,7 @@
         <v>1458</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>12</v>
@@ -25110,10 +25110,10 @@
         <v>307</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F623" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913bc80-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G623" s="0" t="s">
@@ -25123,7 +25123,7 @@
         <v>254</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>286</v>
@@ -25134,7 +25134,7 @@
         <v>1458</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>12</v>
@@ -25143,10 +25143,10 @@
         <v>307</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="F624" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d606a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G624" s="0" t="s">
@@ -25154,6 +25154,9 @@
       </c>
       <c r="H624" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I624" s="0" t="s">
+        <v>1707</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>286</v>
@@ -25164,7 +25167,7 @@
         <v>1458</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>12</v>
@@ -25173,10 +25176,10 @@
         <v>307</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F625" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f305b94-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G625" s="0" t="s">
@@ -25184,9 +25187,6 @@
       </c>
       <c r="H625" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I625" s="0" t="s">
-        <v>1712</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>286</v>
@@ -25197,7 +25197,7 @@
         <v>1458</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C626" s="0" t="s">
         <v>12</v>
@@ -25206,10 +25206,10 @@
         <v>307</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F626" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3074ee-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G626" s="0" t="s">
@@ -25219,7 +25219,7 @@
         <v>254</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>286</v>
@@ -25230,7 +25230,7 @@
         <v>1458</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>12</v>
@@ -25239,10 +25239,10 @@
         <v>307</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F627" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30714c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G627" s="0" t="s">
@@ -25252,7 +25252,7 @@
         <v>254</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>286</v>
@@ -25263,7 +25263,7 @@
         <v>1458</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>12</v>
@@ -25272,10 +25272,10 @@
         <v>307</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F628" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3067e2-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G628" s="0" t="s">
@@ -25285,7 +25285,7 @@
         <v>254</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>286</v>
@@ -25296,7 +25296,7 @@
         <v>1458</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>312</v>
+        <v>1719</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>12</v>
@@ -25305,10 +25305,10 @@
         <v>307</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>313</v>
+        <v>1720</v>
       </c>
       <c r="F629" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f3051c6-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G629" s="0" t="s">
@@ -25318,7 +25318,7 @@
         <v>254</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>314</v>
+        <v>1721</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>286</v>
@@ -25329,32 +25329,32 @@
         <v>1458</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>1438</v>
+        <v>312</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1439</v>
+        <v>313</v>
       </c>
       <c r="F630" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591423aa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G630" s="0" t="s">
-        <v>1440</v>
+        <v>253</v>
       </c>
       <c r="H630" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1441</v>
+        <v>314</v>
       </c>
       <c r="J630" s="0" t="s">
-        <v>948</v>
+        <v>286</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25362,7 +25362,7 @@
         <v>1458</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>1415</v>
+        <v>1438</v>
       </c>
       <c r="C631" s="0" t="s">
         <v>12</v>
@@ -25371,23 +25371,23 @@
         <v>55</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1416</v>
+        <v>1439</v>
       </c>
       <c r="F631" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G631" s="0" t="s">
-        <v>1417</v>
+        <v>1440</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1418</v>
+        <v>1441</v>
       </c>
       <c r="J631" s="0" t="s">
-        <v>1722</v>
+        <v>948</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25395,7 +25395,7 @@
         <v>1458</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>12</v>
@@ -25404,20 +25404,20 @@
         <v>55</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="F632" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e7348adedb540627808da06a211c81c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G632" s="0" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="H632" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>1722</v>
@@ -25428,7 +25428,7 @@
         <v>1458</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>1723</v>
+        <v>1410</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>12</v>
@@ -25437,23 +25437,23 @@
         <v>55</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1724</v>
+        <v>1411</v>
       </c>
       <c r="F633" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cdd8f95be110061697bc323f6bcaba2d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G633" s="0" t="s">
-        <v>1725</v>
+        <v>1412</v>
       </c>
       <c r="H633" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1726</v>
+        <v>1413</v>
       </c>
       <c r="J633" s="0" t="s">
-        <v>948</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25461,7 +25461,7 @@
         <v>1458</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>12</v>
@@ -25470,14 +25470,14 @@
         <v>55</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="F634" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G634" s="0" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="H634" s="0" t="s">
         <v>50</v>
@@ -25494,7 +25494,7 @@
         <v>1458</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C635" s="0" t="s">
         <v>12</v>
@@ -25503,20 +25503,20 @@
         <v>55</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="F635" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G635" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="H635" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>948</v>
@@ -25527,7 +25527,7 @@
         <v>1458</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C636" s="0" t="s">
         <v>12</v>
@@ -25536,20 +25536,20 @@
         <v>55</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="F636" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G636" s="0" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="H636" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>948</v>
@@ -25560,7 +25560,7 @@
         <v>1458</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C637" s="0" t="s">
         <v>12</v>
@@ -25569,20 +25569,20 @@
         <v>55</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="F637" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G637" s="0" t="s">
-        <v>1398</v>
+        <v>1736</v>
       </c>
       <c r="H637" s="0" t="s">
-        <v>617</v>
+        <v>50</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>948</v>
@@ -25593,32 +25593,32 @@
         <v>1458</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>1392</v>
+        <v>1737</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>1389</v>
+        <v>55</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>1393</v>
+        <v>1738</v>
       </c>
       <c r="F638" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/23ecf19e478a3ed9026b011e1e1fed02.html","web")</f>
         <v>0</v>
       </c>
       <c r="G638" s="0" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="H638" s="0" t="s">
-        <v>254</v>
+        <v>617</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1395</v>
+        <v>1739</v>
       </c>
       <c r="J638" s="0" t="s">
-        <v>1482</v>
+        <v>948</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25626,29 +25626,29 @@
         <v>1458</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>270</v>
+        <v>1392</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>271</v>
+        <v>1389</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>272</v>
+        <v>1393</v>
       </c>
       <c r="F639" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G639" s="0" t="s">
-        <v>253</v>
+        <v>1394</v>
       </c>
       <c r="H639" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>273</v>
+        <v>1395</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>1482</v>
@@ -25659,19 +25659,19 @@
         <v>1458</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>1740</v>
+        <v>270</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>1741</v>
+        <v>271</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1742</v>
+        <v>272</v>
       </c>
       <c r="F640" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e75c2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G640" s="0" t="s">
@@ -25681,7 +25681,7 @@
         <v>254</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1743</v>
+        <v>273</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>1482</v>
@@ -25692,19 +25692,19 @@
         <v>1458</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C641" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F641" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144f06-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G641" s="0" t="s">
@@ -25714,7 +25714,7 @@
         <v>254</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>1482</v>
@@ -25725,19 +25725,19 @@
         <v>1458</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E642" s="0" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="F642" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5916fc60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G642" s="0" t="s">
@@ -25747,7 +25747,7 @@
         <v>254</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>1482</v>
@@ -25758,19 +25758,19 @@
         <v>1458</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C643" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>55</v>
+        <v>1749</v>
       </c>
       <c r="E643" s="0" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="F643" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170444-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G643" s="0" t="s">
@@ -25780,10 +25780,10 @@
         <v>254</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1481</v>
+        <v>1751</v>
       </c>
       <c r="J643" s="0" t="s">
-        <v>1637</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25791,19 +25791,19 @@
         <v>1458</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F644" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917aa7a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G644" s="0" t="s">
@@ -25813,10 +25813,10 @@
         <v>254</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1756</v>
+        <v>1481</v>
       </c>
       <c r="J644" s="0" t="s">
-        <v>1482</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25824,19 +25824,19 @@
         <v>1458</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E645" s="0" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="F645" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136000-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G645" s="0" t="s">
@@ -25846,7 +25846,7 @@
         <v>254</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1481</v>
+        <v>1756</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>1482</v>
@@ -25857,7 +25857,7 @@
         <v>1458</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>12</v>
@@ -25866,10 +25866,10 @@
         <v>55</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F646" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176128-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G646" s="0" t="s">
@@ -25890,7 +25890,7 @@
         <v>1458</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C647" s="0" t="s">
         <v>12</v>
@@ -25899,10 +25899,10 @@
         <v>55</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F647" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5100-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G647" s="0" t="s">
@@ -25910,6 +25910,9 @@
       </c>
       <c r="H647" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I647" s="0" t="s">
+        <v>1481</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>1482</v>
@@ -25920,32 +25923,29 @@
         <v>1458</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1639</v>
+        <v>55</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F648" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914d462-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I648" s="0" t="s">
-        <v>1726</v>
+        <v>254</v>
       </c>
       <c r="J648" s="0" t="s">
-        <v>948</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25953,19 +25953,19 @@
         <v>1458</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>1399</v>
+        <v>1763</v>
       </c>
       <c r="C649" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>55</v>
+        <v>1639</v>
       </c>
       <c r="E649" s="0" t="s">
-        <v>1400</v>
+        <v>1764</v>
       </c>
       <c r="F649" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59138f8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G649" s="0" t="s">
@@ -25974,8 +25974,11 @@
       <c r="H649" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="I649" s="0" t="s">
+        <v>1726</v>
+      </c>
       <c r="J649" s="0" t="s">
-        <v>1722</v>
+        <v>948</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25983,7 +25986,7 @@
         <v>1458</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>1765</v>
+        <v>1399</v>
       </c>
       <c r="C650" s="0" t="s">
         <v>12</v>
@@ -25992,10 +25995,10 @@
         <v>55</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>1766</v>
+        <v>1400</v>
       </c>
       <c r="F650" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/46bc4ce008d1306ea0780510304cfa88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G650" s="0" t="s">
@@ -26003,9 +26006,6 @@
       </c>
       <c r="H650" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="I650" s="0" t="s">
-        <v>1767</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>1722</v>
@@ -26016,32 +26016,32 @@
         <v>1458</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C651" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>1010</v>
+        <v>55</v>
       </c>
       <c r="E651" s="0" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="F651" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b5bc9b1fa92a35cec5989eeac3d77d1a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>1770</v>
+        <v>57</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>617</v>
+        <v>58</v>
       </c>
       <c r="I651" s="0" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="J651" s="0" t="s">
-        <v>1772</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26049,32 +26049,32 @@
         <v>1458</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>1154</v>
+        <v>1768</v>
       </c>
       <c r="C652" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>55</v>
+        <v>1010</v>
       </c>
       <c r="E652" s="0" t="s">
-        <v>1155</v>
+        <v>1769</v>
       </c>
       <c r="F652" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>74</v>
+        <v>1770</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>75</v>
+        <v>617</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1156</v>
+        <v>1771</v>
       </c>
       <c r="J652" s="0" t="s">
-        <v>948</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26082,7 +26082,7 @@
         <v>1458</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>1773</v>
+        <v>1154</v>
       </c>
       <c r="C653" s="0" t="s">
         <v>12</v>
@@ -26091,20 +26091,20 @@
         <v>55</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>1774</v>
+        <v>1155</v>
       </c>
       <c r="F653" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11619ca70c37ffd25d5b234c03ca4d4f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G653" s="0" t="s">
-        <v>1398</v>
+        <v>74</v>
       </c>
       <c r="H653" s="0" t="s">
-        <v>617</v>
+        <v>75</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>1775</v>
+        <v>1156</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>948</v>
@@ -26115,7 +26115,7 @@
         <v>1458</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>12</v>
@@ -26124,14 +26124,14 @@
         <v>55</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="F654" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59131910-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G654" s="0" t="s">
-        <v>1130</v>
+        <v>1398</v>
       </c>
       <c r="H654" s="0" t="s">
         <v>617</v>
@@ -26148,23 +26148,23 @@
         <v>1458</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>606</v>
+        <v>55</v>
       </c>
       <c r="E655" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F655" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917c046-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G655" s="0" t="s">
-        <v>1398</v>
+        <v>1130</v>
       </c>
       <c r="H655" s="0" t="s">
         <v>617</v>
@@ -26181,19 +26181,19 @@
         <v>1458</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>1396</v>
+        <v>1778</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>55</v>
+        <v>606</v>
       </c>
       <c r="E656" s="0" t="s">
-        <v>1397</v>
+        <v>1779</v>
       </c>
       <c r="F656" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4674-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G656" s="0" t="s">
@@ -26201,6 +26201,9 @@
       </c>
       <c r="H656" s="0" t="s">
         <v>617</v>
+      </c>
+      <c r="I656" s="0" t="s">
+        <v>1775</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>948</v>
@@ -26211,19 +26214,19 @@
         <v>1458</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>1780</v>
+        <v>1396</v>
       </c>
       <c r="C657" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>606</v>
+        <v>55</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>1781</v>
+        <v>1397</v>
       </c>
       <c r="F657" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c23a39645d860d5a2d7f34ea91d1fd82.html","web")</f>
         <v>0</v>
       </c>
       <c r="G657" s="0" t="s">
@@ -26241,65 +26244,62 @@
         <v>1458</v>
       </c>
       <c r="B658" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E658" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F658" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a9e338f20a1b85e4758c5b3cb0ad961c.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G658" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H658" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="J658" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B659" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="C658" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D658" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E658" s="0" t="s">
+      <c r="C659" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E659" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="F658" s="0" t="n">
+      <c r="F659" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/81f029ba-b63d-11e6-98cb-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G658" s="0" t="s">
+      <c r="G659" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="H658" s="0" t="s">
+      <c r="H659" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="I658" s="0" t="s">
+      <c r="I659" s="0" t="s">
         <v>1426</v>
       </c>
-      <c r="J658" s="0" t="s">
+      <c r="J659" s="0" t="s">
         <v>999</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="0" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B660" s="0" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C660" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D660" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E660" s="0" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F660" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G660" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H660" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I660" s="0" t="s">
-        <v>1785</v>
-      </c>
-      <c r="J660" s="0" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26307,19 +26307,19 @@
         <v>1782</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D661" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="F661" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e54a3eda3d5fc42a9cd1354038ad45ed.html","web")</f>
         <v>0</v>
       </c>
       <c r="G661" s="0" t="s">
@@ -26329,10 +26329,10 @@
         <v>254</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="J661" s="0" t="s">
-        <v>1460</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26340,7 +26340,7 @@
         <v>1782</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>1434</v>
+        <v>1787</v>
       </c>
       <c r="C662" s="0" t="s">
         <v>12</v>
@@ -26349,20 +26349,20 @@
         <v>55</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>1435</v>
+        <v>1788</v>
       </c>
       <c r="F662" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/32ed0e80b1ae2adc7d4fb4b71bce9285.html","web")</f>
         <v>0</v>
       </c>
       <c r="G662" s="0" t="s">
-        <v>1436</v>
+        <v>253</v>
       </c>
       <c r="H662" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>1437</v>
+        <v>1789</v>
       </c>
       <c r="J662" s="0" t="s">
         <v>1460</v>
@@ -26373,29 +26373,29 @@
         <v>1782</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>250</v>
+        <v>1434</v>
       </c>
       <c r="C663" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>252</v>
+        <v>1435</v>
       </c>
       <c r="F663" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/19e117c2298a016c96c496ee22f39976.html","web")</f>
         <v>0</v>
       </c>
       <c r="G663" s="0" t="s">
-        <v>253</v>
+        <v>1436</v>
       </c>
       <c r="H663" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>255</v>
+        <v>1437</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>1460</v>
@@ -26406,19 +26406,19 @@
         <v>1782</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C664" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F664" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3eb8c36759afa5ef2c8363e0c16db88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G664" s="0" t="s">
@@ -26428,7 +26428,7 @@
         <v>254</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>1460</v>
@@ -26439,29 +26439,29 @@
         <v>1782</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C665" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F665" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f972af18f1817a7bb5f961b534641394.html","web")</f>
         <v>0</v>
       </c>
       <c r="G665" s="0" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H665" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>1460</v>
@@ -26472,29 +26472,29 @@
         <v>1782</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F666" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H666" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>1460</v>
@@ -26505,19 +26505,19 @@
         <v>1782</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1790</v>
+        <v>266</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>1791</v>
+        <v>267</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1792</v>
+        <v>268</v>
       </c>
       <c r="F667" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f730de87987b0357d3954c93c4a0c7f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G667" s="0" t="s">
@@ -26527,7 +26527,7 @@
         <v>254</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>1793</v>
+        <v>269</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>1460</v>
@@ -26538,19 +26538,19 @@
         <v>1782</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>274</v>
+        <v>1790</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>275</v>
+        <v>1791</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>276</v>
+        <v>1792</v>
       </c>
       <c r="F668" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c3bc72c46203646eb28fee17f6a5f7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G668" s="0" t="s">
@@ -26560,7 +26560,7 @@
         <v>254</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>277</v>
+        <v>1793</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>1460</v>
@@ -26571,19 +26571,19 @@
         <v>1782</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F669" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9cdb8d54d49e98acadd87e2a1139225e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G669" s="0" t="s">
@@ -26593,7 +26593,7 @@
         <v>254</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>1460</v>
@@ -26604,19 +26604,19 @@
         <v>1782</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F670" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e1ca31ce340d507b1dce7a537bbef951.html","web")</f>
         <v>0</v>
       </c>
       <c r="G670" s="0" t="s">
@@ -26626,10 +26626,10 @@
         <v>254</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J670" s="0" t="s">
-        <v>1794</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26637,7 +26637,7 @@
         <v>1782</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>12</v>
@@ -26646,10 +26646,10 @@
         <v>55</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F671" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3434c274f8ad8754f594d2b23c2d37db.html","web")</f>
         <v>0</v>
       </c>
       <c r="G671" s="0" t="s">
@@ -26657,6 +26657,9 @@
       </c>
       <c r="H671" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I671" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>1794</v>
@@ -26667,7 +26670,7 @@
         <v>1782</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>12</v>
@@ -26676,10 +26679,10 @@
         <v>55</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F672" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ece03799edff3053efe82e9512d55ed9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G672" s="0" t="s">
@@ -26687,9 +26690,6 @@
       </c>
       <c r="H672" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I672" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>1794</v>
@@ -26700,7 +26700,7 @@
         <v>1782</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>1385</v>
+        <v>303</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>12</v>
@@ -26709,10 +26709,10 @@
         <v>55</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1386</v>
+        <v>304</v>
       </c>
       <c r="F673" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/57c2e414bde585cc60a7b2f980e1f870.html","web")</f>
         <v>0</v>
       </c>
       <c r="G673" s="0" t="s">
@@ -26722,10 +26722,10 @@
         <v>254</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>1387</v>
+        <v>305</v>
       </c>
       <c r="J673" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26733,7 +26733,7 @@
         <v>1782</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>1796</v>
+        <v>1385</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>12</v>
@@ -26742,10 +26742,10 @@
         <v>55</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1797</v>
+        <v>1386</v>
       </c>
       <c r="F674" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c3e8db1b45a6ae7e80ca5a265c0fd50.html","web")</f>
         <v>0</v>
       </c>
       <c r="G674" s="0" t="s">
@@ -26754,8 +26754,11 @@
       <c r="H674" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="I674" s="0" t="s">
+        <v>1387</v>
+      </c>
       <c r="J674" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26763,7 +26766,7 @@
         <v>1782</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>12</v>
@@ -26772,23 +26775,20 @@
         <v>55</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F675" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b3267e6a8cd7e4a5401e7fbca2c4bf5a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G675" s="0" t="s">
-        <v>1800</v>
+        <v>253</v>
       </c>
       <c r="H675" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="I675" s="0" t="s">
-        <v>1801</v>
-      </c>
       <c r="J675" s="0" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26796,7 +26796,7 @@
         <v>1782</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>12</v>
@@ -26805,23 +26805,23 @@
         <v>55</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="F676" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>253</v>
+        <v>1800</v>
       </c>
       <c r="H676" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26829,7 +26829,7 @@
         <v>1782</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>12</v>
@@ -26838,20 +26838,20 @@
         <v>55</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="F677" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b78f432cc8fbadf21b9a1fcf07d781a7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G677" s="0" t="s">
-        <v>1809</v>
+        <v>253</v>
       </c>
       <c r="H677" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="J677" s="0" t="s">
         <v>1806</v>
@@ -26862,7 +26862,7 @@
         <v>1782</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>12</v>
@@ -26871,23 +26871,23 @@
         <v>55</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="F678" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G678" s="0" t="s">
-        <v>253</v>
+        <v>1809</v>
       </c>
       <c r="H678" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="J678" s="0" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26895,7 +26895,7 @@
         <v>1782</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>12</v>
@@ -26904,10 +26904,10 @@
         <v>55</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="F679" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/337d362541c3e2a3f907abcaffa5c262.html","web")</f>
         <v>0</v>
       </c>
       <c r="G679" s="0" t="s">
@@ -26916,8 +26916,11 @@
       <c r="H679" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="I679" s="0" t="s">
+        <v>1813</v>
+      </c>
       <c r="J679" s="0" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26925,7 +26928,7 @@
         <v>1782</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>12</v>
@@ -26934,10 +26937,10 @@
         <v>55</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="F680" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/43cf738374ffa1253a603ea54447203f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G680" s="0" t="s">
@@ -26945,9 +26948,6 @@
       </c>
       <c r="H680" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I680" s="0" t="s">
-        <v>1820</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>1817</v>
@@ -26958,19 +26958,19 @@
         <v>1782</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="F681" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/45f5477848196383f1ac8039e0dcfcab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G681" s="0" t="s">
@@ -26980,10 +26980,10 @@
         <v>254</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="J681" s="0" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26991,7 +26991,7 @@
         <v>1782</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>80</v>
@@ -27000,10 +27000,10 @@
         <v>55</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="F682" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/50e31118c282faf3bfc90b25909433c1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G682" s="0" t="s">
@@ -27013,7 +27013,7 @@
         <v>254</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>1824</v>
@@ -27024,7 +27024,7 @@
         <v>1782</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>80</v>
@@ -27033,23 +27033,23 @@
         <v>55</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1551</v>
+        <v>1826</v>
       </c>
       <c r="F683" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e897309433f283b8bf1a4c60dc310edd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G683" s="0" t="s">
-        <v>1829</v>
+        <v>253</v>
       </c>
       <c r="H683" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="J683" s="0" t="s">
-        <v>1806</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27057,7 +27057,7 @@
         <v>1782</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>80</v>
@@ -27066,17 +27066,20 @@
         <v>55</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F684" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G684" s="0" t="s">
-        <v>253</v>
+        <v>1829</v>
       </c>
       <c r="H684" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="I684" s="0" t="s">
+        <v>1830</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>1806</v>
@@ -27087,7 +27090,7 @@
         <v>1782</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C685" s="0" t="s">
         <v>80</v>
@@ -27096,10 +27099,10 @@
         <v>55</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F685" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/edffed802a10e341650e8d25ed05581f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G685" s="0" t="s">
@@ -27117,7 +27120,7 @@
         <v>1782</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>80</v>
@@ -27126,10 +27129,10 @@
         <v>55</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1834</v>
+        <v>1556</v>
       </c>
       <c r="F686" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/226e0454adb91fa1d508255d66ed8daf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G686" s="0" t="s">
@@ -27137,9 +27140,6 @@
       </c>
       <c r="H686" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="I686" s="0" t="s">
-        <v>1835</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>1806</v>
@@ -27150,7 +27150,7 @@
         <v>1782</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C687" s="0" t="s">
         <v>80</v>
@@ -27159,10 +27159,10 @@
         <v>55</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="F687" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e072c35c161c93f2320579511ed1849f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G687" s="0" t="s">
@@ -27172,7 +27172,7 @@
         <v>254</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>1806</v>
@@ -27183,7 +27183,7 @@
         <v>1782</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C688" s="0" t="s">
         <v>80</v>
@@ -27192,10 +27192,10 @@
         <v>55</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="F688" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/da701000818e31103a9b7d9eedee14a2.html","web")</f>
         <v>0</v>
       </c>
       <c r="G688" s="0" t="s">
@@ -27205,7 +27205,7 @@
         <v>254</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>1806</v>
@@ -27216,19 +27216,19 @@
         <v>1782</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C689" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>1843</v>
+        <v>55</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F689" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/369a3a9e55ca8e6729a62a79bf701e5d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G689" s="0" t="s">
@@ -27238,10 +27238,10 @@
         <v>254</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="J689" s="0" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27249,29 +27249,32 @@
         <v>1782</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>55</v>
+        <v>1843</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="F690" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3710647d155ec76d2c4cdfa866be579.html","web")</f>
         <v>0</v>
       </c>
       <c r="G690" s="0" t="s">
-        <v>1848</v>
+        <v>253</v>
       </c>
       <c r="H690" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="I690" s="0" t="s">
+        <v>1845</v>
+      </c>
       <c r="J690" s="0" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27279,7 +27282,7 @@
         <v>1782</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C691" s="0" t="s">
         <v>80</v>
@@ -27288,19 +27291,49 @@
         <v>55</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="F691" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G691" s="0" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="H691" s="0" t="s">
         <v>254</v>
       </c>
       <c r="J691" s="0" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C692" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D692" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E692" s="0" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F692" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G692" s="0" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H692" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J692" s="0" t="s">
         <v>1806</v>
       </c>
     </row>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1108">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3317,6 +3317,33 @@
   </si>
   <si>
     <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - evspsblveg - Total Evaporation of intercepted water from Canopy [kg m-2 s-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Greenland this is the same as sftgif. We do not have an Antarctic ice sheet.</t>
   </si>
 </sst>
 </file>
@@ -3428,8 +3455,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A362" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A377" activeCellId="0" sqref="377:382"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A366" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A388" activeCellId="0" sqref="A388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3443,7 +3470,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -16298,6 +16325,116 @@
         <v>27</v>
       </c>
     </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F385" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H385" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I385" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J385" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K385" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F386" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H386" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I386" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J386" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K386" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F387" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I387" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J387" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K387" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="356">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1061,6 +1061,33 @@
   </si>
   <si>
     <t xml:space="preserve">The  downward northward stress associated with the models parameterization of the planetary boundary layer. (This request is related to a WGNE effort to understand how models parameterize the surface stresses.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Greenland this is the same as sftgif. We do not have an Antarctic ice sheet.</t>
   </si>
 </sst>
 </file>
@@ -1144,12 +1171,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,10 +1201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4035,6 +4066,158 @@
         <v>342</v>
       </c>
     </row>
+    <row r="101" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G101" s="2" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -667,25 +667,25 @@
     <t xml:space="preserve">Sinking Particulate Organic Nitrogen Flux</t>
   </si>
   <si>
+    <t xml:space="preserve">Available in PISCES: EXPC * (16/122). Not available inLPJ-GUESS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.   'Sinking' is the gravitational settling of particulate matter suspended in a liquid. A sinking flux is positive downwards and is calculated relative to the movement of the surrounding fluid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CMIP,GeoMIP,LUMIP,OMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinking Particulate Organic Phosphorus Flux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Available in PISCES: EXPC * (1/122). Not available inLPJ-GUESS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.   'Sinking' is the gravitational settling of particulate matter suspended in a liquid. A sinking flux is positive downwards and is calculated relative to the movement of the surrounding fluid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CMIP,GeoMIP,LUMIP,OMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinking Particulate Organic Phosphorus Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in PISCES: EXPC * (16/122). Not available inLPJ-GUESS.</t>
   </si>
   <si>
     <t xml:space="preserve">AERmon</t>
@@ -1203,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,7 +1218,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="256">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in IFS: T-tendency from radiation: grib 128.95</t>
+    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">s-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
   </si>
   <si>
     <t xml:space="preserve">tnhusc</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in IFS: q-tendency from convection: grib 128.106</t>
+    <t xml:space="preserve">grib 126.106                                                              Available in IFS: q-tendency from convection: grib 128.106</t>
   </si>
   <si>
     <t xml:space="preserve">tnhusmp</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                      Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: ISCCP total cloud area, CVEXTRA(5)='94 ISCCP_TOTALCLDAREA'</t>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'</t>
   </si>
   <si>
     <t xml:space="preserve">Klaus</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: ISCCP cloud albedo, CVEXTRA(7)='96 ISCCP_MEANALBEDOCLD'</t>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'</t>
   </si>
   <si>
     <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Pa</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: ISCCP cloud top pressure, CVEXTRA(6)='95 ISCCP_MEANPTOP'</t>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'</t>
   </si>
   <si>
     <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: CALIPSO total cloud cover, CVEXTRA(4)='93 CALIPSO_CLDLAYER TOTAL'</t>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'</t>
   </si>
   <si>
     <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: CALIPSO low cloud cover, CVEXTRA(1)='90 CALIPSO_CLDLAYER LOW'</t>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: CALIPSO mid cloud cover, CVEXTRA(2)='91 CALIPSO_CLDLAYER MID'</t>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP: CALIPSO high cloud cover, CVEXTRA(3)='92 CALIPSO_CLDLAYER HIGH'</t>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
@@ -466,19 +466,64 @@
     <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
   </si>
   <si>
+    <t xml:space="preserve">Omon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfibthermds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude olevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Flux into Sea Water Due to Iceberg Thermodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="hflx_cal_cea"  long_name="heat flux due to calving"   standard_name="heat_flux_into_sea_water_due_to_iceberg_thermodynamics   &lt;!-- available if key_oasis3 + conservative method --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.  The specification of a physical process by the phrase due_to_process means that the quantity named is a  single term in a sum of terms which together compose the general quantity  named by omitting the phrase.  ' Iceberg thermodynamics' refers to the addition or subtraction of mass due to surface and basal fluxes, i.e., due to melting, sublimation and fusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,OMIP,VolMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">AERmon</t>
   </si>
   <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.20 / 126.22  in namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">rlutaf</t>
   </si>
   <si>
     <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">W m-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #403</t>
+    <t xml:space="preserve">grib 126.73                      Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -493,7 +538,7 @@
     <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #404</t>
+    <t xml:space="preserve">grib 126.72                       Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -505,7 +550,7 @@
     <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #403   aerosol free</t>
+    <t xml:space="preserve">grib 128.212-126.069  Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -515,39 +560,6 @@
   </si>
   <si>
     <t xml:space="preserve">Emon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conccn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol Number Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in TM5, though yet to be added by Tommi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommi Bergman, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Number concentration' means the number of particles or other specified objects per unit volume. 'Aerosol' means the system of suspended liquid or solid particles in air (except cloud droplets) and their carrier gas, the air itself. 'Ambient_aerosol' means that the aerosol is measured or modelled at the ambient state of pressure, temperature and relative humidity that exists in its immediate environment. 'Ambient aerosol particles' are aerosol particles that have taken up ambient water through hygroscopic growth. The extent of hygroscopic growth depends on the relative humidity and the composition of the particles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeoMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sconcss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Concentration of Sea-Salt Aerosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg m-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass concentration of sea-salt dry aerosol in air in model lowest layer</t>
   </si>
   <si>
     <t xml:space="preserve">uqint</t>
@@ -891,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="69:78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1890,73 +1902,37 @@
         <v>149</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd938fec017c18d3eee106db55f924c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>159</v>
@@ -1965,73 +1941,109 @@
         <v>13</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>160</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
         <v>0</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G39" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70b0b8239a6ffb48b4a4f3086da12150.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
@@ -2040,70 +2052,34 @@
         <v>70</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/31a3caf70db7a8ed71e8d0a226365105.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
@@ -2112,31 +2088,31 @@
         <v>70</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>186</v>
@@ -2151,31 +2127,31 @@
         <v>187</v>
       </c>
       <c r="F43" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>13</v>
@@ -2184,31 +2160,31 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>196</v>
@@ -2223,31 +2199,31 @@
         <v>197</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>13</v>
@@ -2256,13 +2232,13 @@
         <v>70</v>
       </c>
       <c r="E46" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="G46" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H46" s="0" t="s">
@@ -2275,12 +2251,12 @@
         <v>204</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>205</v>
@@ -2289,73 +2265,73 @@
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="0" t="n">
+      <c r="I47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I47" s="0" t="s">
+      <c r="H48" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>212</v>
+      <c r="J48" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
@@ -2364,34 +2340,34 @@
         <v>70</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
@@ -2400,34 +2376,34 @@
         <v>70</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>13</v>
@@ -2436,427 +2412,427 @@
         <v>70</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J55" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>215</v>
+      <c r="K56" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="0" t="n">
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="I61" s="0" t="s">
+      <c r="H62" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="0" t="s">
+      <c r="J62" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>181</v>
+      <c r="K62" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G64" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>0</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>80</v>
       </c>
       <c r="J64" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K64" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>140</v>
+      <c r="F65" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>233</v>
@@ -2865,37 +2841,37 @@
         <v>13</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>13</v>
@@ -2904,175 +2880,211 @@
         <v>238</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>0</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="2" t="str">
+      <c r="G74" s="2" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="E77" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G76" s="0" t="str">
+      <c r="G77" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="H77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J76" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="B78" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G77" s="0" t="str">
+      <c r="G78" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I77" s="2" t="s">
+      <c r="H78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J77" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="K77" s="0" t="s">
+      <c r="J78" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B78" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="0" t="str">
+      <c r="G79" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="H79" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J79" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="0" t="s">
+      <c r="K79" s="0" t="s">
         <v>140</v>
       </c>
     </row>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="247">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -466,61 +466,34 @@
     <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
   </si>
   <si>
-    <t xml:space="preserve">Omon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfibthermds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude olevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat Flux into Sea Water Due to Iceberg Thermodynamics</t>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.20 / 126.22  in namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
     <t xml:space="preserve">W m-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in OPA: &lt;field id="hflx_cal_cea"  long_name="heat flux due to calving"   standard_name="heat_flux_into_sea_water_due_to_iceberg_thermodynamics   &lt;!-- available if key_oasis3 + conservative method --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.  The specification of a physical process by the phrase due_to_process means that the quantity named is a  single term in a sum of terms which together compose the general quantity  named by omitting the phrase.  ' Iceberg thermodynamics' refers to the addition or subtraction of mass due to surface and basal fluxes, i.e., due to melting, sublimation and fusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,OMIP,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.20 / 126.22  in namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
     <t xml:space="preserve">grib 126.73                      Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
@@ -903,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1902,73 +1875,109 @@
         <v>149</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="G35" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="I35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd938fec017c18d3eee106db55f924c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="K35" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>157</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>165</v>
@@ -1983,10 +1992,10 @@
         <v>166</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H38" s="0" t="s">
@@ -2002,48 +2011,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
@@ -2052,34 +2025,70 @@
         <v>70</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>178</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
@@ -2088,34 +2097,34 @@
         <v>70</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
@@ -2124,34 +2133,34 @@
         <v>70</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>13</v>
@@ -2160,31 +2169,31 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G44" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>196</v>
@@ -2199,10 +2208,10 @@
         <v>197</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H45" s="0" t="s">
@@ -2215,12 +2224,12 @@
         <v>199</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>200</v>
@@ -2229,109 +2238,109 @@
         <v>13</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="G46" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>203</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>204</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
@@ -2340,34 +2349,34 @@
         <v>70</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
@@ -2376,718 +2385,647 @@
         <v>70</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>100</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="I60" s="0" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="G62" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>0</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I64" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J64" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>185</v>
+      <c r="J63" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="E66" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="F66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>185</v>
+      <c r="I66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="E67" s="0" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K68" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="72" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G74" s="2" t="str">
+      <c r="G72" s="2" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="F77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G77" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -876,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="244">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -250,34 +250,25 @@
     <t xml:space="preserve">CFmon</t>
   </si>
   <si>
-    <t xml:space="preserve">tnt</t>
+    <t xml:space="preserve">tntr</t>
   </si>
   <si>
     <t xml:space="preserve">longitude latitude alevel time</t>
   </si>
   <si>
-    <t xml:space="preserve">Tendency of Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
   </si>
   <si>
     <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
   </si>
   <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
     <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
   </si>
   <si>
     <t xml:space="preserve">tnhus</t>
@@ -876,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -891,7 +882,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1347,7 +1338,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
         <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -1357,10 +1348,10 @@
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,7 +1359,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
@@ -1377,26 +1368,26 @@
         <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
         <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,7 +1395,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>13</v>
@@ -1413,26 +1404,26 @@
         <v>77</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G19" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1431,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
@@ -1449,13 +1440,13 @@
         <v>77</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G20" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
@@ -1465,10 +1456,10 @@
         <v>80</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,10 +1479,10 @@
         <v>91</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G21" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
         <v>0</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -1501,10 +1492,10 @@
         <v>80</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,35 +1503,35 @@
         <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1539,7 @@
         <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>13</v>
@@ -1557,26 +1548,26 @@
         <v>70</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1575,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>13</v>
@@ -1593,26 +1584,26 @@
         <v>70</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1611,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>13</v>
@@ -1629,26 +1620,26 @@
         <v>70</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G25" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,35 +1647,35 @@
         <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,35 +1683,35 @@
         <v>75</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,187 +1719,187 @@
         <v>75</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="G30" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="I30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="C32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="F32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="s">
+      <c r="K32" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>140</v>
+      <c r="F34" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>13</v>
@@ -1917,34 +1908,34 @@
         <v>70</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G36" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>13</v>
@@ -1953,70 +1944,70 @@
         <v>70</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="K38" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>169</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
@@ -2025,34 +2016,34 @@
         <v>70</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
@@ -2061,34 +2052,34 @@
         <v>70</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G41" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
@@ -2097,34 +2088,34 @@
         <v>70</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
@@ -2133,34 +2124,34 @@
         <v>70</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>13</v>
@@ -2169,106 +2160,106 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G44" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="0" t="s">
+      <c r="E47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
@@ -2277,34 +2268,34 @@
         <v>70</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>13</v>
@@ -2313,34 +2304,34 @@
         <v>70</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G49" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
@@ -2349,386 +2340,350 @@
         <v>70</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="0" t="s">
+      <c r="E55" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" s="0" t="s">
+      <c r="G55" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" s="0" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="E56" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="F60" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I60" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" s="0" t="s">
+      <c r="B61" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="K60" s="0" t="s">
+      <c r="D61" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="E61" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J62" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>176</v>
+      <c r="J61" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,296 +2691,262 @@
         <v>220</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="F63" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G63" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>176</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="K66" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="70" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="2" t="str">
+      <c r="G70" s="2" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J77" s="0" t="s">
+      <c r="H75" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K75" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="237">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -226,228 +226,213 @@
     <t xml:space="preserve">DynVar,VolMIP</t>
   </si>
   <si>
-    <t xml:space="preserve">E3hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prrc</t>
+    <t xml:space="preserve">CFmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.106                                                              Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                      Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltisccp</t>
   </si>
   <si>
     <t xml:space="preserve">longitude latitude time</t>
   </si>
   <si>
-    <t xml:space="preserve">Convective Rainfall Rate</t>
+    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pctisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cllcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clmcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clhcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfxGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areacellg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISMIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImonGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Ice Runoff Flux</t>
   </si>
   <si>
     <t xml:space="preserve">kg m-2 s-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Availlable in IFS: Precip. flux from convection liquid grib 128.107, this is a 3D field so the surface field has to be extracted from this. So only level 91 needs to be outputted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.106                                                              Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                      Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pctisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cllcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clmcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clhcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areacellg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISMIP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImonGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrroLi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Ice Runoff Flux</t>
-  </si>
-  <si>
     <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
   </si>
   <si>
@@ -713,12 +698,6 @@
   </si>
   <si>
     <t xml:space="preserve">longitude latitude time typegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Rainfall rate</t>
   </si>
   <si>
     <t xml:space="preserve">IyrGre</t>
@@ -867,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,28 +1278,64 @@
         <v>71</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>74</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>76</v>
@@ -1329,70 +1344,70 @@
         <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G18" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>66</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>83</v>
@@ -1401,34 +1416,34 @@
         <v>13</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="K19" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>87</v>
@@ -1437,286 +1452,250 @@
         <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="G20" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="J21" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>125</v>
@@ -1731,1220 +1710,1151 @@
         <v>127</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="G28" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>137</v>
+      <c r="B33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="B38" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>166</v>
+      <c r="G38" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G39" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G41" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="B46" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="G47" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G49" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>208</v>
-      </c>
       <c r="E56" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="I57" s="0" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="F61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="I61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="K61" s="0" t="s">
-        <v>173</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="K64" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" s="2" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F73" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="0" t="str">
+      <c r="E68" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="H68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="F69" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="0" t="str">
+      <c r="G69" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="H69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="0" t="str">
+      <c r="G70" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J75" s="0" t="s">
+      <c r="H70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K70" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="254">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Grounded Ice Sheet Area Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">For Greenland this is the same as above sftgif. We do not have Antarctic ice sheet.</t>
+    <t xml:space="preserve">To be implemented:  grib 126.30  part of MFPPHY   For Greenland this is the same as above sftgif. We do not have Antarctic ice sheet.</t>
   </si>
   <si>
     <t xml:space="preserve">Shuting</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">K s-1</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.105                                                              Available in IFS: T-tendency from convection : grib 128.105</t>
+    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
   </si>
   <si>
     <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'</t>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">Klaus</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'</t>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'</t>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'</t>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'</t>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'</t>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Pa</t>
   </si>
   <si>
-    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'</t>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
   </si>
   <si>
     <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">s-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
   </si>
   <si>
     <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.106                                                              Available in IFS: q-tendency from convection: grib 128.106</t>
+    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
   </si>
   <si>
     <t xml:space="preserve">tnhusmp</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                      Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
+    <t xml:space="preserve">grib 126.95                                                                      part of MFP3D        Available in IFS: T-tendency from radiation: grib 128.95</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">m2</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
+    <t xml:space="preserve">To be implemented:  grib 126.34  part of MFPPHY   Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
   </si>
   <si>
     <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">m-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Grib 126.20 / 126.22  in namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+    <t xml:space="preserve">Grib 126.20 / 126.22        part of MFP3D        In namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
   </si>
   <si>
     <t xml:space="preserve">Twan &amp; Thomas</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">W m-2</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.73                      Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+    <t xml:space="preserve">grib 126.73                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 126.72                       Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+    <t xml:space="preserve">grib 126.72                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -502,7 +502,7 @@
     <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
   </si>
   <si>
-    <t xml:space="preserve">grib 128.212-126.069  Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+    <t xml:space="preserve">grib 128.212-126.069     part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
   </si>
   <si>
     <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
@@ -688,88 +688,91 @@
     <t xml:space="preserve">Land Ice Area Percentage</t>
   </si>
   <si>
+    <t xml:space="preserve">To be implemented:  grib 126.32  part of MFPPHY   This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sncIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Sheet Snow Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be implemented:  grib 126.31  part of MFPPHY   Not available in IFS. Although it could be calculated from tile fractions and written out as extra output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of each grid cell that is occupied by snow that rests on land portion of cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFsubhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevel site time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sncIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Sheet Snow Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in IFS. Although it could be calculated from tile fractions and written out as extra output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of each grid cell that is occupied by snow that rests on land portion of cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFsubhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_north</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alevel site time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IyrGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelCellAreai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cell area of the ice sheet model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time typeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
   </si>
   <si>
     <t xml:space="preserve">xgre ygre time typegis</t>
@@ -894,7 +897,7 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="76:83"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3176,7 @@
         <v>web</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>137</v>
@@ -3196,10 +3199,10 @@
         <v>13</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>22</v>
@@ -3209,7 +3212,7 @@
         <v>web</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>137</v>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="249">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -625,12 +625,6 @@
     <t xml:space="preserve">CFMIP,HighResMIP</t>
   </si>
   <si>
-    <t xml:space="preserve">ImonAnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xant yant time</t>
-  </si>
-  <si>
     <t xml:space="preserve">E3hrPt</t>
   </si>
   <si>
@@ -709,45 +703,6 @@
     <t xml:space="preserve">Percentage of each grid cell that is occupied by snow that rests on land portion of cell.</t>
   </si>
   <si>
-    <t xml:space="preserve">CFsubhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_north</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alevel site time1</t>
-  </si>
-  <si>
     <t xml:space="preserve">IyrGre</t>
   </si>
   <si>
@@ -782,6 +737,94 @@
   </si>
   <si>
     <t xml:space="preserve">For Greenland this is the same as sftgif. We do not have an Antarctic ice sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nudgincsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nudging Increment of Water in Soil Moisture</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">To be implemented: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> grib 126.151</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  ifs code name = 151.126  part of MFPPHY.  Have to be  made available via PEXTRA, upto now with some  non-defined or adhoc grib code. Nudincsm is, consistent with sm, saved for each of the four soil layers</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuel Dutra, Wilhelm May, Thomas Reerink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. 'Content' indicates a quantity per unit area. 'Water' means water in all phases. The mass content of water in soil refers to the vertical integral from the surface down to the bottom of the soil model. The 'soil content' of a quantity refers to the vertical integral from the surface down to the bottom of the soil model. For the content between specified levels in the soil, standard names including 'content_of_soil_layer' are used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nudgincswe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nudging Increment of Water in Snow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">To be implemented:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">grib 126.152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  ifs code name = 152.126  part of MFPPHY.  Have to be  made available via PEXTRA, upto now with some  non-defined or adhoc grib code.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
   </si>
 </sst>
 </file>
@@ -791,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -818,6 +861,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -887,6 +937,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -895,10 +1005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="76:83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2505,7 +2615,7 @@
         <v>201</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
@@ -2514,70 +2624,106 @@
         <v>202</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>130</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>73</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>13</v>
@@ -2586,645 +2732,404 @@
         <v>206</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>73</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="G61" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>194</v>
+      <c r="B64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="I67" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J67" s="0" t="s">
+      <c r="B70" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K67" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2260e24c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="F70" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21ef5e4c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G72" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G73" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="F80" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G80" s="0" t="str">
+      <c r="G70" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="K80" s="0" t="s">
+      <c r="H70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K70" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="F81" s="0" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="0" t="str">
+      <c r="G71" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="H71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J81" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="K81" s="0" t="s">
+      <c r="J71" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B82" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="0" t="str">
+      <c r="G72" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="H72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J82" s="0" t="s">
+      <c r="J72" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K82" s="0" t="s">
+      <c r="K72" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/01c8c41a-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0abbdddc-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="244">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -169,361 +169,346 @@
     <t xml:space="preserve">Volume fraction of silt in soil</t>
   </si>
   <si>
-    <t xml:space="preserve">slthick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thickness of Soil Layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: independent of lon, lat. Top soil layer: 0-7 cm, Soil layer 2: 7-28 cm, Soil layer 3: 28-100 cm, Soil layer 4: 100-289 cm, added as issue #126</t>
+    <t xml:space="preserve">wilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilting Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilting point is defined in HTESSEL as a fraction (different for each soil texture in HTESSEL; variable slt grib code 43 - Table 128) of field capacity. (Alessandri A.: an Effective Wilting Point can be defined ... same as below discussion for the field capacity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage water content of soil by volume at the wilting point. The wilting point of soil is the water content below which plants cannot extract sufficient water to balance their loss through transpiration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmonZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude plev39 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DynVar,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clhcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cllcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clmcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pctisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.95                                                                      part of MFP3D        Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfxGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areacellg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be implemented:  grib 126.34  part of MFPPHY   Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISMIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImonGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Ice Runoff Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg m-2 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuting, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfxAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.20 / 126.22        part of MFP3D        In namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.73                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,DAMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.72                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.212-126.069     part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,DAMIP,GeoMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intuadse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically Integrated Eastward Dry Statice Energy Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ m-1 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the V component of wind (grib 128.132) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
   </si>
   <si>
     <t xml:space="preserve">Gijs &amp; Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Thickness' means the vertical extent of a layer. 'Cell' refers to a model grid cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilting Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilting point is defined in HTESSEL as a fraction (different for each soil texture in HTESSEL; variable slt grib code 43 - Table 128) of field capacity. (Alessandri A.: an Effective Wilting Point can be defined ... same as below discussion for the field capacity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage water content of soil by volume at the wilting point. The wilting point of soil is the water content below which plants cannot extract sufficient water to balance their loss through transpiration. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmonZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude plev39 time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynVar,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clhcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cllcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clmcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pctisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.95                                                                      part of MFP3D        Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areacellg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be implemented:  grib 126.34  part of MFPPHY   Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISMIP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImonGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrroLi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Ice Runoff Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg m-2 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuting, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxAnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.20 / 126.22        part of MFP3D        In namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan &amp; Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W m-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.73                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,DAMIP,HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcsaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.72                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 128.212-126.069     part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,DAMIP,GeoMIP,HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intuadse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically Integrated Eastward Dry Statice Energy Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJ m-1 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the V component of wind (grib 128.132) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
   </si>
   <si>
     <t xml:space="preserve">Vertically integrated eastward dry static energy transport (cp.T +zg).v (Mass_weighted_vertical integral of the product of eastward wind by dry static_energy per mass unit)</t>
@@ -1007,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,7 +1007,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1331,325 +1316,325 @@
         <v>50</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7124926c-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7124901e-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7124926c-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="G12" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="s">
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>67</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G15" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>74</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="K16" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="K17" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>99</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>102</v>
@@ -1658,25 +1643,25 @@
         <v>103</v>
       </c>
       <c r="G21" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>104</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>106</v>
@@ -1685,311 +1670,311 @@
         <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="K23" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="G24" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
         <v>0</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G25" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
         <v>0</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="0" t="s">
+      <c r="G27" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="I27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="E29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="H31" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="J31" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="s">
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="G33" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>130</v>
+      <c r="J33" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G34" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>146</v>
@@ -2000,7 +1985,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>148</v>
@@ -2009,142 +1994,142 @@
         <v>13</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="K35" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="I36" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="G38" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="I38" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>170</v>
@@ -2153,710 +2138,710 @@
         <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>171</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="s">
+      <c r="I40" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="K40" s="0" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="0" t="s">
+      <c r="I41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="K41" s="0" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>180</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>181</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>182</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>185</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G44" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>192</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>193</v>
       </c>
       <c r="K44" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="B46" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G47" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>74</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="K48" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="E49" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H49" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="K49" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="K51" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="F52" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>0</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>99</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>200</v>
+      <c r="I54" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="K55" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H56" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="K56" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="E57" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="E58" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="K58" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="G62" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>194</v>
+      <c r="I62" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="E63" s="0" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>44</v>
@@ -2864,193 +2849,193 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>229</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="G70" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>230</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/01c8c41a-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J74" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>240</v>
@@ -3059,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>241</v>
@@ -3068,58 +3053,23 @@
         <v>32</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/01c8c41a-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0abbdddc-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>242</v>
       </c>
       <c r="I75" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0abbdddc-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="253">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -810,6 +810,33 @@
   </si>
   <si>
     <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude plev19 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol mol-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = o3|ifs code name = 203.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole fraction is used in the construction mole_fraction_of_X_in_Y, where X is a material constituent of Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,C4MIP,CFMIP,CMIP,DAMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,RFMIP,VolMIP</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="78:78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3067,6 +3094,42 @@
       </c>
       <c r="K75" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="2" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="248">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -780,6 +780,48 @@
   </si>
   <si>
     <t xml:space="preserve">AerChemMIP,C4MIP,CFMIP,CMIP,DAMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,RFMIP,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtendogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Acceleration Due to Orographic Gravity Wave Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m s-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of the northward wind by parameterized orographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtendnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Acceleration Due to Non-Orographic Gravity Wave Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of the northward wind by parameterized nonorographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Tendency Due to Orographic Gravity Wave Dissipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized orographic gravity waves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Tendency Due to Non-Orographic Gravity Wave Dissipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized nonorographic gravity waves.</t>
   </si>
 </sst>
 </file>
@@ -962,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2887,6 +2929,157 @@
         <v>233</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="249">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">longitude latitude typegis</t>
+    <t xml:space="preserve">longitude latitude</t>
   </si>
   <si>
     <t xml:space="preserve">Grounded Ice Sheet Area Percentage</t>
@@ -79,553 +79,541 @@
     <t xml:space="preserve">Shuting</t>
   </si>
   <si>
+    <t xml:space="preserve">Percentage of grid cell covered by grounded ice sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMIP,ISMIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmonZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude plev39 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DynVarMIP,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clhcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cllcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clmcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the  Cloud-Aerosol Lidar and Infrared Pathfinder Satellite Observation (CALIPSO) instrument. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the International Satellite Cloud Climatology Project (ISCCP) analysis. Includes both large-scale and convective cloud.  (MODIS). Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pctisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.95                                                                      part of MFP3D        Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfxGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areacellg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be implemented:  grib 126.34  part of MFPPHY   Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISMIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImonGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Ice Runoff Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg m-2 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuting, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.20 / 126.22        part of MFP3D        In namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.73                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,DAMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.72                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.212-126.069     part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,DAMIP,GeoMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intuadse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically Integrated Eastward Dry Statice Energy Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ m-1 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the V component of wind (grib 128.132) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated eastward dry static energy transport (cp.T +zg).v (Mass_weighted_vertical integral of the product of eastward wind by dry static_energy per mass unit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intuaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically Integrated Eastward Moisture Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg m-1 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the U component of wind (grib 128.131) and this needs to be vertically integrated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated Eastward moisture transport (Mass weighted vertical integral of the product of eastward wind by total water mass per unit mass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intvadse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically Integrated Northward Dry Static Energy Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the U component of wind (grib 128.131) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated northward dry static energy transport (cp.T +zg).v (Mass_weighted_vertical integral of the product of northward wind by dry static_energy per mass unit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intvaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically Integrated Northward Moisture Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the V component of wind (grib 128.132) and this needs to be vertically integrated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated Northward moisture transport (Mass_weighted_vertical integral of the product of northward wind by total water mass per unit mass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550aerso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time lambda550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stratospheric Optical Depth at 550nm (All Aerosols) 2D-Field (Stratosphere Only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determined by CMIP6 stratospheric aerosol forcing data set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From tropopause to stratopause as defined by the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeoMIP,PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uqint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Humidity Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.131 * 128.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column integrated eastward wind times specific humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vqint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Humidity Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.132 * 128.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column integrated northward wind times specific humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3hrPt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time1 p220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time1 p840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time1 p560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Zenith Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the IFS code we found: A CALL TO SUBROUTINE *SOLANG* GIVES FIELDS OF SOLAR ZENITH. Best would be to copy the IFS routine/formula to ece2cmor3 and produce this field off-line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle between the line of sight to the sun and the local vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LImon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Ice Area Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be implemented:  grib 126.32  part of MFPPHY   This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sncIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Sheet Snow Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be implemented:  grib 126.31  part of MFPPHY   Not available in IFS. Although it could be calculated from tile fractions and written out as extra output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of each grid cell that is occupied by snow that rests on land portion of cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrGre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgre ygre time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Greenland this is the same as sftgif. We do not have an Antarctic ice sheet.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of grid cell covered by grounded ice sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMIP,ISMIP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmonZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude plev39 time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynVar,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clhcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cllcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clmcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'X_area_fraction' means the fraction of horizontal area occupied by X. 'X_area' means the horizontal area occupied by X within the grid cell. Cloud area fraction is also called 'cloud amount' and 'cloud cover'. The cloud area fraction is for the whole atmosphere column, as seen from the surface or the top of the atmosphere. The cloud area fraction in a layer of the atmosphere has the standard name cloud_area_fraction_in_atmosphere_layer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage total cloud cover, simulating ISCCP observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pctisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.95                                                                      part of MFP3D        Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areacellg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be implemented:  grib 126.34  part of MFPPHY   Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISMIP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImonGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrroLi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Ice Runoff Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg m-2 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuting, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxAnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.20 / 126.22        part of MFP3D        In namelist.ifs.cloudact+diag.sh  CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan &amp; Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Droplet Number Concentration in liquid water clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Aerosol-Free Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W m-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.73                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rlut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,DAMIP,HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcsaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.72                          part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rlutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Aerosol-Free Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 128.212-126.069     part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux corresponding to rsut resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,DAMIP,GeoMIP,HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intuadse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically Integrated Eastward Dry Statice Energy Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJ m-1 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the V component of wind (grib 128.132) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gijs &amp; Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated eastward dry static energy transport (cp.T +zg).v (Mass_weighted_vertical integral of the product of eastward wind by dry static_energy per mass unit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intuaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically Integrated Eastward Moisture Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg m-1 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the U component of wind (grib 128.131) and this needs to be vertically integrated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated Eastward moisture transport (Mass weighted vertical integral of the product of eastward wind by total water mass per unit mass)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intvadse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically Integrated Northward Dry Static Energy Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the U component of wind (grib 128.131) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated northward dry static energy transport (cp.T +zg).v (Mass_weighted_vertical integral of the product of northward wind by dry static_energy per mass unit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intvaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically Integrated Northward Moisture Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the V component of wind (grib 128.132) and this needs to be vertically integrated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated Northward moisture transport (Mass_weighted_vertical integral of the product of northward wind by total water mass per unit mass)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550aerso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time lambda550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratospheric Optical Depth at 550nm (All Aerosols) 2D-Field (Stratosphere Only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determined by CMIP6 stratospheric aerosol forcing data set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From tropopause to stratopause as defined by the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeoMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uqint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Humidity Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.131 * 128.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column integrated eastward wind times specific humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vqint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Humidity Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.132 * 128.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column integrated northward wind times specific humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFMIP,HighResMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3hrPt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time1 p220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time1 p840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time1 p560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Zenith Angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the IFS code we found: A CALL TO SUBROUTINE *SOLANG* GIVES FIELDS OF SOLAR ZENITH. Best would be to copy the IFS routine/formula to ece2cmor3 and produce this field off-line.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The angle between the line of sight to the sun and the local vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esubhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LImon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sftgif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Ice Area Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be implemented:  grib 126.32  part of MFPPHY   This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sncIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Sheet Snow Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be implemented:  grib 126.31  part of MFPPHY   Not available in IFS. Although it could be calculated from tile fractions and written out as extra output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of each grid cell that is occupied by snow that rests on land portion of cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IyrGre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelCellAreai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cell area of the ice sheet model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PISM model probably uses a constant and uniform grid size within EC-Earth, this grid size can be reported or a filed from the grid sizes can be provided in a post processing phase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time typeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the land ice mask and will be an extra variable in IFS (thomas: via PEXTRA?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgre ygre time typegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Greenland this is the same as sftgif. We do not have an Antarctic ice sheet.</t>
   </si>
   <si>
     <t xml:space="preserve">Eday</t>
@@ -728,9 +716,6 @@
     <t xml:space="preserve">Total Soil Wetness</t>
   </si>
   <si>
-    <t xml:space="preserve">web</t>
-  </si>
-  <si>
     <t xml:space="preserve">mrsow=swvl1*0.07+swvl2*0.21+swvl3*0.72+swvl4*1.89 note: NOT divided by maximum allowable soil moisture above wilting point</t>
   </si>
   <si>
@@ -785,25 +770,49 @@
     <t xml:space="preserve">fx</t>
   </si>
   <si>
+    <t xml:space="preserve">longitude latitude time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtendnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Acceleration Due to Non-Orographic Gravity Wave Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m s-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 122.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of the northward wind by parameterized nonorographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">vtendogw</t>
   </si>
   <si>
     <t xml:space="preserve">Northward Acceleration Due to Orographic Gravity Wave Drag</t>
   </si>
   <si>
-    <t xml:space="preserve">m s-2</t>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 123.126</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of the northward wind by parameterized orographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
   </si>
   <si>
-    <t xml:space="preserve">vtendnogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Acceleration Due to Non-Orographic Gravity Wave Drag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of the northward wind by parameterized nonorographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+    <t xml:space="preserve">tntnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Tendency Due to Non-Orographic Gravity Wave Dissipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 131.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized nonorographic gravity waves.</t>
   </si>
   <si>
     <t xml:space="preserve">tntogw</t>
@@ -812,16 +821,10 @@
     <t xml:space="preserve">Temperature Tendency Due to Orographic Gravity Wave Dissipation</t>
   </si>
   <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 132.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Temperature tendency due to dissipation of parameterized orographic gravity waves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntnogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature Tendency Due to Non-Orographic Gravity Wave Dissipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized nonorographic gravity waves.</t>
   </si>
 </sst>
 </file>
@@ -912,16 +915,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1002,10 +1001,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80:C84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1019,7 +1018,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1078,9 +1077,9 @@
       <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="str">
+      <c r="G3" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>17</v>
@@ -1114,9 +1113,9 @@
       <c r="F5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="0" t="str">
+      <c r="G5" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -1150,9 +1149,9 @@
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="str">
+      <c r="G7" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -1186,9 +1185,9 @@
       <c r="F8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="0" t="str">
+      <c r="G8" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>41</v>
@@ -1222,9 +1221,9 @@
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="0" t="str">
+      <c r="G9" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>46</v>
@@ -1258,9 +1257,9 @@
       <c r="F10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="0" t="str">
+      <c r="G10" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>51</v>
@@ -1294,9 +1293,9 @@
       <c r="F11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="0" t="str">
+      <c r="G11" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>55</v>
@@ -1330,9 +1329,9 @@
       <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0" t="str">
+      <c r="G12" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>60</v>
@@ -1366,9 +1365,9 @@
       <c r="F13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="0" t="str">
+      <c r="G13" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>66</v>
@@ -1402,9 +1401,9 @@
       <c r="F14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="0" t="str">
+      <c r="G14" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>72</v>
@@ -1438,9 +1437,9 @@
       <c r="F15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="0" t="str">
+      <c r="G15" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>76</v>
@@ -1474,9 +1473,9 @@
       <c r="F16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="0" t="str">
+      <c r="G16" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>79</v>
@@ -1510,9 +1509,9 @@
       <c r="F17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="0" t="str">
+      <c r="G17" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -1546,9 +1545,9 @@
       <c r="F18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="0" t="str">
+      <c r="G18" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>web</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>83</v>
@@ -1574,145 +1573,181 @@
         <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="K22" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="C24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>web</v>
+        <v>103</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="J26" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>13</v>
@@ -1721,70 +1756,34 @@
         <v>32</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
+        <v>110</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>13</v>
@@ -1793,34 +1792,70 @@
         <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
+        <v>126</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="J29" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>124</v>
+      <c r="B30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>13</v>
@@ -1829,34 +1864,34 @@
         <v>32</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="J31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>13</v>
@@ -1865,70 +1900,70 @@
         <v>32</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>133</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>13</v>
@@ -1937,106 +1972,70 @@
         <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>152</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>152</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H36" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>13</v>
@@ -2045,178 +2044,214 @@
         <v>32</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
+        <v>13</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="B38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>web</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>web</v>
+      <c r="G40" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>web</v>
+      <c r="G41" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>web</v>
+      <c r="G42" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
@@ -2225,62 +2260,26 @@
         <v>32</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>web</v>
+        <v>65</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,79 +2287,115 @@
         <v>162</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>web</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>web</v>
+      <c r="G47" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
@@ -2369,394 +2404,318 @@
         <v>167</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>web</v>
+      <c r="G48" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>web</v>
+        <v>170</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>web</v>
+        <v>16</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="J51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="K51" s="0" t="s">
-        <v>175</v>
+      <c r="B52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>web</v>
+        <v>16</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H55" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="0" t="s">
+      <c r="B61" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="F61" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="H61" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H57" s="0" t="s">
+      <c r="I61" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="0" t="s">
+      <c r="J61" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K57" s="0" t="s">
-        <v>92</v>
+      <c r="K61" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="E62" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="F62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="K62" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="G63" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="0" t="s">
+      <c r="B66" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="C66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="F66" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>92</v>
+      <c r="G66" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>13</v>
@@ -2765,70 +2724,68 @@
         <v>32</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F67" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G67" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/01c8c41a-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B68" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E70" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="K70" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="G68" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0abbdddc-a0d8-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>13</v>
@@ -2837,178 +2794,191 @@
         <v>32</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>219</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="B74" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="E74" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="J72" s="0" t="s">
+      <c r="F74" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="K72" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="G74" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="I74" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="J74" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="K74" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="2" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="G75" s="2" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="B77" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="E77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="C79" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="D79" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F79" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>20</v>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H80" s="0" t="s">
+        <v>239</v>
+      </c>
       <c r="J80" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>239</v>
+        <v>231</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H81" s="0" t="s">
+        <v>235</v>
+      </c>
       <c r="J81" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,22 +2986,31 @@
         <v>21</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H82" s="0" t="s">
+        <v>243</v>
+      </c>
       <c r="J82" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,13 +3018,16 @@
         <v>21</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>25</v>
@@ -3053,36 +3035,16 @@
       <c r="G83" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H83" s="0" t="s">
+        <v>247</v>
+      </c>
       <c r="J83" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>248</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="239">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -708,36 +708,6 @@
   </si>
   <si>
     <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrsow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Soil Wetness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrsow=swvl1*0.07+swvl2*0.21+swvl3*0.72+swvl4*1.89 note: NOT divided by maximum allowable soil moisture above wilting point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Alessandri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated soil moisture divided by maximum allowable soil moisture above wilting point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available by IFS: grib code 235 but it needs masking out the ocean points: thus add in ifspar.json the entry "masked": "land"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
   </si>
   <si>
     <t xml:space="preserve">Amon</t>
@@ -1001,10 +971,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,7 +988,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -2747,304 +2717,238 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>186</v>
       </c>
       <c r="H70" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="E75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="D76" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>228</v>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>186</v>
+        <v>224</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>20</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="242">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t xml:space="preserve">RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esubhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time1</t>
   </si>
   <si>
     <t xml:space="preserve">LImon</t>
@@ -973,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -988,12 +997,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>85</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>92</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>100</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>100</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>100</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>123</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>123</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>123</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>123</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>123</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>123</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>123</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>160</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>160</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>160</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>160</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>160</v>
       </c>
@@ -2180,7 +2189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>160</v>
       </c>
@@ -2216,7 +2225,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>160</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>162</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>162</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>162</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>162</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>162</v>
       </c>
@@ -2432,84 +2441,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>174</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D51" s="0" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
       <c r="H51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
@@ -2518,396 +2491,418 @@
         <v>32</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>0</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="C55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="F65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="I65" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E68" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="0" t="s">
+      <c r="B69" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="G69" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="0" t="s">
+      <c r="J69" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="K69" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="B72" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H70" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="E72" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="J70" s="0" t="s">
+      <c r="F72" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K70" s="0" t="s">
+      <c r="G72" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="I72" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="J72" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="K72" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="0" t="s">
+      <c r="F78" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F78" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="0" t="s">
+      <c r="J78" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>29</v>
@@ -2918,33 +2913,107 @@
         <v>21</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E79" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="J80" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K79" s="0" t="s">
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K81" s="0" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="246">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t xml:space="preserve">AerChemMIP,DAMIP,GeoMIP,HighResMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky, Aerosol-Free Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 68.126    part of MFPPHY    Available from double radiation call in IFS. PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux corresponding to rsutcs resulting from aerosol-free call to radiation, following Ghan (ACP, 2013)</t>
   </si>
   <si>
     <t xml:space="preserve">Emon</t>
@@ -894,12 +906,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,7 +1013,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1721,7 +1737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -1757,48 +1773,48 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="F28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="I28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>130</v>
+      <c r="K28" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>13</v>
@@ -1807,34 +1823,34 @@
         <v>32</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>13</v>
@@ -1843,31 +1859,31 @@
         <v>32</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>138</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>139</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>140</v>
@@ -1882,28 +1898,28 @@
         <v>141</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G32" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>143</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>144</v>
@@ -1912,73 +1928,73 @@
         <v>13</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="K33" s="0" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="I34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="s">
+      <c r="K34" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
@@ -1987,214 +2003,214 @@
         <v>32</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="I35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="H36" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G38" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
         <v>0</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
@@ -2203,34 +2219,34 @@
         <v>32</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
@@ -2239,286 +2255,286 @@
         <v>32</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>0</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J43" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>164</v>
+      <c r="K44" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>0</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>0</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="0" t="n">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="H50" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F52" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G52" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H52" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I52" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="K51" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>20</v>
+      <c r="K52" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
@@ -2527,23 +2543,23 @@
         <v>32</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>0</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>20</v>
@@ -2551,10 +2567,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
@@ -2563,97 +2579,98 @@
         <v>32</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="K55" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="H64" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H64" s="0" t="s">
+      <c r="I64" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>196</v>
@@ -2664,10 +2681,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>13</v>
@@ -2682,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>199</v>
@@ -2697,49 +2714,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>13</v>
@@ -2748,152 +2765,155 @@
         <v>32</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H69" s="0" t="s">
+      <c r="J69" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="I69" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J69" s="0" t="s">
+      <c r="K69" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="K69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G70" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="B73" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I72" s="0" t="s">
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="E73" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="K72" s="0" t="s">
+      <c r="F73" s="0" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G73" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F75" s="0" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="G76" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I76" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="K75" s="0" t="s">
+      <c r="J76" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="K76" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E78" s="0" t="s">
+      <c r="F78" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>0</v>
@@ -2910,34 +2930,34 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,31 +2965,31 @@
         <v>21</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3000,7 @@
         <v>238</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>23</v>
@@ -3004,9 +3024,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="249">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -816,6 +816,15 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature tendency due to dissipation of parameterized orographic gravity waves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reffclws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the AerChem side there is interest in Emon reffclws. This variable is identified as the already available PEXTRA variable with the table 126 grib code 126021, i.e. proposing to add reffclws as 21.126 to ifspar.json.  Note that this variable is not requested by CMIP6 AerChem, and that reffclws not occurs in any CMIP6 data request of the experiments in which any EC-Earth3* configuration participates. See further #564.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF3hr</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -917,6 +926,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -998,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85:I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3058,6 +3071,48 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="249">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -538,6 +538,9 @@
     <t xml:space="preserve">longitude latitude time1</t>
   </si>
   <si>
+    <t xml:space="preserve">RFMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">sza</t>
   </si>
   <si>
@@ -551,9 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve">The angle between the line of sight to the sun and the local vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFMIP</t>
   </si>
   <si>
     <t xml:space="preserve">Esubhr</t>
@@ -915,16 +915,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85:I87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,7 +1022,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1750,7 +1746,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -1786,39 +1782,39 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="G28" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>125</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="0" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2475,7 +2471,7 @@
         <v>166</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
@@ -2484,98 +2480,98 @@
         <v>171</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="C51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="F51" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="H51" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="J50" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K50" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="K51" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E53" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F53" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G53" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>0</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H53" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I53" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="K52" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2579,7 @@
         <v>181</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
@@ -2592,23 +2588,23 @@
         <v>32</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>0</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>20</v>
@@ -2619,7 +2615,7 @@
         <v>181</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>13</v>
@@ -2628,100 +2624,101 @@
         <v>32</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K56" s="0" t="s">
+      <c r="K57" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>193</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>91</v>
@@ -2732,16 +2729,16 @@
         <v>190</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>16</v>
@@ -2750,61 +2747,61 @@
         <v>193</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>98</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K66" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>205</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>13</v>
@@ -2813,7 +2810,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>208</v>
@@ -2822,131 +2819,134 @@
         <v>193</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>210</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B74" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F74" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G74" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H74" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I74" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J74" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="K73" s="0" t="s">
+      <c r="K74" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E77" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F77" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G77" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H77" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="I77" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J76" s="0" t="s">
+      <c r="J77" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="K76" s="0" t="s">
+      <c r="K77" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>127</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>229</v>
@@ -2955,7 +2955,7 @@
         <v>219</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>231</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>29</v>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>229</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>231</v>
@@ -2996,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3010,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>229</v>
@@ -3019,22 +3019,22 @@
         <v>23</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3042,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>229</v>
@@ -3051,7 +3051,7 @@
         <v>23</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>25</v>
@@ -3060,36 +3060,54 @@
         <v>0</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>246</v>
       </c>
       <c r="H86" s="0" t="s">
@@ -3101,9 +3119,9 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>246</v>
       </c>
       <c r="H87" s="0" t="s">
@@ -3113,6 +3131,22 @@
         <v>195</v>
       </c>
     </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="246">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -554,15 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve">The angle between the line of sight to the sun and the local vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esubhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time1</t>
   </si>
   <si>
     <t xml:space="preserve">LImon</t>
@@ -1007,11 +998,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1027,7 +1018,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -1081,9 +1072,9 @@
       <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>17</v>
@@ -1098,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
@@ -1117,9 +1108,9 @@
       <c r="F5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -1134,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
@@ -1153,9 +1144,9 @@
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -1170,7 +1161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>30</v>
       </c>
@@ -1189,9 +1180,9 @@
       <c r="F8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>41</v>
@@ -1206,7 +1197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
@@ -1225,9 +1216,9 @@
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>46</v>
@@ -1242,7 +1233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -1261,9 +1252,9 @@
       <c r="F10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>51</v>
@@ -1278,7 +1269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
@@ -1297,9 +1288,9 @@
       <c r="F11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>55</v>
@@ -1314,7 +1305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
@@ -1333,9 +1324,9 @@
       <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>60</v>
@@ -1350,7 +1341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>30</v>
       </c>
@@ -1369,9 +1360,9 @@
       <c r="F13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>66</v>
@@ -1386,7 +1377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
@@ -1405,9 +1396,9 @@
       <c r="F14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>72</v>
@@ -1422,7 +1413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
@@ -1441,9 +1432,9 @@
       <c r="F15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>76</v>
@@ -1458,7 +1449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
@@ -1477,9 +1468,9 @@
       <c r="F16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>79</v>
@@ -1494,7 +1485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -1513,9 +1504,9 @@
       <c r="F17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -1530,7 +1521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>30</v>
       </c>
@@ -1549,9 +1540,9 @@
       <c r="F18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>83</v>
@@ -1566,7 +1557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>85</v>
       </c>
@@ -1585,9 +1576,9 @@
       <c r="F20" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>89</v>
@@ -1602,7 +1593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>92</v>
       </c>
@@ -1621,9 +1612,9 @@
       <c r="F22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>97</v>
@@ -1638,7 +1629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>100</v>
       </c>
@@ -1657,9 +1648,9 @@
       <c r="F24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>104</v>
@@ -1674,7 +1665,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>100</v>
       </c>
@@ -1693,9 +1684,9 @@
       <c r="F25" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>111</v>
@@ -1710,7 +1701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>100</v>
       </c>
@@ -1729,9 +1720,9 @@
       <c r="F26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>116</v>
@@ -1746,7 +1737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -1765,9 +1756,9 @@
       <c r="F27" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>120</v>
@@ -1782,7 +1773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>100</v>
       </c>
@@ -1801,9 +1792,9 @@
       <c r="F28" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>125</v>
@@ -1818,7 +1809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>127</v>
       </c>
@@ -1837,9 +1828,9 @@
       <c r="F30" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>131</v>
@@ -1854,7 +1845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>127</v>
       </c>
@@ -1873,9 +1864,9 @@
       <c r="F31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>138</v>
@@ -1890,7 +1881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>127</v>
       </c>
@@ -1909,9 +1900,9 @@
       <c r="F32" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>142</v>
@@ -1926,7 +1917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>127</v>
       </c>
@@ -1945,9 +1936,9 @@
       <c r="F33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>146</v>
@@ -1962,7 +1953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>127</v>
       </c>
@@ -1981,9 +1972,9 @@
       <c r="F34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>151</v>
@@ -1998,7 +1989,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>127</v>
       </c>
@@ -2017,9 +2008,9 @@
       <c r="F35" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>157</v>
@@ -2034,7 +2025,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>127</v>
       </c>
@@ -2053,9 +2044,9 @@
       <c r="F36" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>162</v>
@@ -2070,7 +2061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>164</v>
       </c>
@@ -2089,9 +2080,9 @@
       <c r="F38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
@@ -2106,7 +2097,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>164</v>
       </c>
@@ -2125,9 +2116,9 @@
       <c r="F39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>41</v>
@@ -2142,7 +2133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>164</v>
       </c>
@@ -2161,9 +2152,9 @@
       <c r="F40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>46</v>
@@ -2178,7 +2169,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>164</v>
       </c>
@@ -2197,9 +2188,9 @@
       <c r="F41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>51</v>
@@ -2214,7 +2205,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>164</v>
       </c>
@@ -2233,9 +2224,9 @@
       <c r="F42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>55</v>
@@ -2250,7 +2241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>164</v>
       </c>
@@ -2269,9 +2260,9 @@
       <c r="F43" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>60</v>
@@ -2286,7 +2277,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>164</v>
       </c>
@@ -2305,9 +2296,9 @@
       <c r="F44" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>66</v>
@@ -2322,7 +2313,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>166</v>
       </c>
@@ -2341,9 +2332,9 @@
       <c r="F46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>41</v>
@@ -2358,7 +2349,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>166</v>
       </c>
@@ -2377,9 +2368,9 @@
       <c r="F47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>46</v>
@@ -2394,7 +2385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>166</v>
       </c>
@@ -2413,9 +2404,9 @@
       <c r="F48" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>51</v>
@@ -2430,7 +2421,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>166</v>
       </c>
@@ -2449,9 +2440,9 @@
       <c r="F49" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>55</v>
@@ -2466,7 +2457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>166</v>
       </c>
@@ -2485,9 +2476,9 @@
       <c r="F50" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>125</v>
@@ -2502,7 +2493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>166</v>
       </c>
@@ -2521,9 +2512,9 @@
       <c r="F51" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <v>web</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>176</v>
@@ -2538,48 +2529,84 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>178</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="F53" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>13</v>
@@ -2588,418 +2615,396 @@
         <v>32</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
-        <v>0</v>
+      <c r="G55" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
+        <v>web</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="K57" s="0" t="s">
+      <c r="G64" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="H65" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="H68" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K75" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D77" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>183</v>
-      </c>
       <c r="F77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>231</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>29</v>
@@ -3010,143 +3015,61 @@
         <v>21</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K82" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="0" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="0" t="s">
+      <c r="H84" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="J83" s="0" t="s">
+      <c r="I84" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K83" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="225">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -85,15 +85,168 @@
     <t xml:space="preserve">CMIP,ISMIP6</t>
   </si>
   <si>
-    <t xml:space="preserve">EmonZ</t>
+    <t xml:space="preserve">CFmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clhcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cllcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clmcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time p560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the  Cloud-Aerosol Lidar and Infrared Pathfinder Satellite Observation (CALIPSO) instrument. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the International Satellite Cloud Climatology Project (ISCCP) analysis. Includes both large-scale and convective cloud.  (MODIS). Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pctisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
   </si>
   <si>
     <t xml:space="preserve">tntc</t>
   </si>
   <si>
-    <t xml:space="preserve">latitude plev39 time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
   </si>
   <si>
@@ -101,168 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynVarMIP,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.46   CVEXTR2(7)='ISCCP_MEANALBCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Albedo. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clhcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO High Level Cloud Area Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.42   CVEXTR2(3)='CALIPSO_HCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 220hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cllcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Low Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.40   CVEXTR2(1)='CALIPSO_LCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 840hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clmcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time p560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Mid Level Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.41   CVEXTR2(2)='CALIPSO_MCC'               part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover in layer centred on 560hPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltcalipso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIPSO Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.43   CVEXTR2(4)='CALIPSO_TCC'                part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the  Cloud-Aerosol Lidar and Infrared Pathfinder Satellite Observation (CALIPSO) instrument. Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cltisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.44   CVEXTR2(5)='ISCCP_TOTALCLD'       part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction (reported as a percentage) for the whole atmospheric column, as seen by the International Satellite Cloud Climatology Project (ISCCP) analysis. Includes both large-scale and convective cloud.  (MODIS). Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,HighResMIP,PMIP,RFMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pctisccp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSP grib 126.45   CVEXTR2(6)='ISCCP_MEANPTOP'           part of MFPPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCCP Mean Cloud Top Pressure. Time-means are weighted by the ISCCP Total Cloud Fraction {:cltisccp} - see  http://cfmip.metoffice.com/COSP.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                           part of MFP3D        Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
   </si>
   <si>
     <t xml:space="preserve">tntr</t>
@@ -753,60 +744,6 @@
   </si>
   <si>
     <t xml:space="preserve">longitude latitude time typeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vtendnogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Acceleration Due to Non-Orographic Gravity Wave Drag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m s-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 122.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of the northward wind by parameterized nonorographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vtendogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Acceleration Due to Orographic Gravity Wave Drag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 123.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of the northward wind by parameterized orographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntnogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature Tendency Due to Non-Orographic Gravity Wave Dissipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 131.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized nonorographic gravity waves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntogw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature Tendency Due to Orographic Gravity Wave Dissipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 132.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized orographic gravity waves.</t>
   </si>
   <si>
     <t xml:space="preserve">reffclws</t>
@@ -996,26 +933,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="80.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="207.974489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="83.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,1477 +1025,1477 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="I7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="K7" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>web</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="K12" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="J13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
         <v>web</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="I16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="K16" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
         <v>web</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="G19" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="I19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="G21" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="K21" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>91</v>
+      <c r="F23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="J24" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a640b0-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a673b4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a56fd2-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>122</v>
+      <c r="F29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H30" s="0" t="s">
+      <c r="J30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H36" s="0" t="s">
+      <c r="B37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="F38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="I38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="K38" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>web</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="E45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="0" t="s">
+      <c r="I45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="E46" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G49" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="F50" s="0" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="G50" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9c35e2ac-a0de-11e6-bc63-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H51" s="0" t="s">
+      <c r="B52" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="0" t="s">
-        <v>172</v>
+      <c r="F52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>20</v>
@@ -2567,509 +2503,319 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53826ae4-bf01-11e6-a554-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H55" s="0" t="s">
+      <c r="B62" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="0" t="s">
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>91</v>
+      <c r="F62" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="H63" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K63" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>91</v>
+      <c r="H67" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="G68" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H68" s="0" t="s">
+      <c r="J68" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="I68" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="0" t="s">
+      <c r="B71" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I69" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J69" s="0" t="s">
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K69" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="E71" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="F71" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="G71" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="I71" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="J71" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="K71" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="I72" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="B74" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="K72" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="E74" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="G74" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="K75" s="0" t="s">
+      <c r="J74" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K74" s="0" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>29</v>
+        <v>223</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
+        <v>223</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3084,7 +2830,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="246">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -85,6 +85,33 @@
     <t xml:space="preserve">CMIP,ISMIP6</t>
   </si>
   <si>
+    <t xml:space="preserve">EmonZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude plev39 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DynVarMIP,VolMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">CFmon</t>
   </si>
   <si>
@@ -214,9 +241,6 @@
     <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
   </si>
   <si>
-    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
-  </si>
-  <si>
     <t xml:space="preserve">AerChemMIP,CFMIP,DAMIP,GeoMIP,HighResMIP,PMIP</t>
   </si>
   <si>
@@ -229,9 +253,6 @@
     <t xml:space="preserve">grib 126.106                                                                   part of MFP3D        Available in IFS: q-tendency from convection: grib 128.106</t>
   </si>
   <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
     <t xml:space="preserve">tnhusmp</t>
   </si>
   <si>
@@ -242,18 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grib 126.105                                                                   part of MFP3D        Available in IFS: T-tendency from convection : grib 128.105</t>
   </si>
   <si>
     <t xml:space="preserve">tntr</t>
@@ -744,6 +753,60 @@
   </si>
   <si>
     <t xml:space="preserve">longitude latitude time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtendnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Acceleration Due to Non-Orographic Gravity Wave Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m s-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 122.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of the northward wind by parameterized nonorographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtendogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Acceleration Due to Orographic Gravity Wave Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 123.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of the northward wind by parameterized orographic gravity waves.  (Note that CF name tables only have a general northward tendency for all gravity waves, and we need it separated by type.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntnogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Tendency Due to Non-Orographic Gravity Wave Dissipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 131.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized nonorographic gravity waves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntogw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Tendency Due to Orographic Gravity Wave Dissipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemeted in EC-Earth table 126: grib code 132.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature tendency due to dissipation of parameterized orographic gravity waves.</t>
   </si>
   <si>
     <t xml:space="preserve">reffclws</t>
@@ -933,25 +996,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K65536"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="207.974489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="83.6071428571429"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="80.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,1477 +1089,1477 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="G5" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bb4d31072e09cd4935f1c20a2c533bbd.html","web")</f>
         <v>web</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7308096ae00ff52340909b2a59415f82.html","web")</f>
         <v>web</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0bbbf303ac691061a69938846f32b23b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe9d4b45792f7d6430fe2a9c9b7234b1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ce9ab9b945fcc86013ad10431d8f252e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b045cae1f65ba99831648f136b309e91.html","web")</f>
         <v>web</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/987be9b68c051baf4f0c5b6e8c26b4d8.html","web")</f>
         <v>web</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G14" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>web</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t